--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245B0AF-7EC1-4AE3-8104-FF154B297693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A300C-1B1C-43FA-9033-45A266CA87BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="847">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3080,15 +3080,64 @@
     <t>init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>plain-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2934K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2078G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain-X_0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1259K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.59/0.7810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.05/0.7845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.14/0.8941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.56/0.7356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -3212,7 +3261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3302,15 +3351,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5072,7 +5126,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10764,13 +10818,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197268FB-5014-4CBE-ACEE-AA1A1C218351}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="8" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11193,6 +11250,126 @@
       <c r="G26" s="15">
         <v>25.990250000000003</v>
       </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>560</v>
+      </c>
+      <c r="B39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" t="s">
+        <v>563</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="40">
+        <v>32.030333333333331</v>
+      </c>
+      <c r="F40" s="40">
+        <v>28.518666666666665</v>
+      </c>
+      <c r="G40" s="40">
+        <v>27.521333333333299</v>
+      </c>
+      <c r="H40" s="40">
+        <v>25.913666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="40">
+        <v>32.089666666666666</v>
+      </c>
+      <c r="F41" s="40">
+        <v>28.542666666666666</v>
+      </c>
+      <c r="G41" s="40">
+        <v>27.533666666666701</v>
+      </c>
+      <c r="H41" s="40">
+        <v>25.969333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="40">
+        <v>32.095000000000006</v>
+      </c>
+      <c r="F42" s="40">
+        <v>28.561333333333334</v>
+      </c>
+      <c r="G42" s="40">
+        <v>27.546333333333301</v>
+      </c>
+      <c r="H42" s="40">
+        <v>25.963333333333335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="40">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="F43" s="40">
+        <v>28.565999999999995</v>
+      </c>
+      <c r="G43" s="40">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="H43" s="40">
+        <v>25.990250000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11360,10 +11537,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="38">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -11383,8 +11560,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="10" t="s">
         <v>546</v>
       </c>
@@ -11402,8 +11579,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="10" t="s">
         <v>525</v>
       </c>
@@ -11421,8 +11598,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>555</v>
       </c>
@@ -11440,8 +11617,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10" t="s">
         <v>566</v>
       </c>
@@ -11459,8 +11636,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -11480,8 +11657,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="10" t="s">
         <v>546</v>
       </c>
@@ -11499,8 +11676,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="10" t="s">
         <v>525</v>
       </c>
@@ -11518,8 +11695,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="10" t="s">
         <v>555</v>
       </c>
@@ -11537,8 +11714,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10" t="s">
         <v>566</v>
       </c>
@@ -11656,7 +11833,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>569</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11676,7 +11853,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="10" t="s">
         <v>571</v>
       </c>
@@ -11694,7 +11871,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10" t="s">
         <v>572</v>
       </c>
@@ -11712,7 +11889,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="10" t="s">
         <v>566</v>
       </c>
@@ -11730,7 +11907,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -11750,7 +11927,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10" t="s">
         <v>571</v>
       </c>
@@ -11768,7 +11945,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="10" t="s">
         <v>572</v>
       </c>
@@ -11786,7 +11963,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>566</v>
       </c>
@@ -11822,7 +11999,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="38" t="s">
         <v>569</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -11840,7 +12017,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="21" t="s">
         <v>571</v>
       </c>
@@ -11856,7 +12033,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="21" t="s">
         <v>572</v>
       </c>
@@ -11872,7 +12049,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="21" t="s">
         <v>566</v>
       </c>
@@ -11888,7 +12065,7 @@
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="38" t="s">
         <v>570</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -11906,7 +12083,7 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="21" t="s">
         <v>571</v>
       </c>
@@ -11922,7 +12099,7 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="21" t="s">
         <v>572</v>
       </c>
@@ -11938,7 +12115,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="21" t="s">
         <v>566</v>
       </c>
@@ -12023,7 +12200,7 @@
       <c r="D2" s="11">
         <v>27.305499999999999</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="38" t="s">
         <v>757</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -12055,7 +12232,7 @@
       <c r="D3" s="11">
         <v>27.302499999999998</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="25" t="s">
         <v>576</v>
       </c>
@@ -12085,7 +12262,7 @@
       <c r="D4" s="11">
         <v>27.3065</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="25" t="s">
         <v>573</v>
       </c>
@@ -12115,7 +12292,7 @@
       <c r="D5" s="11">
         <v>27.303999999999998</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="25" t="s">
         <v>574</v>
       </c>
@@ -12145,7 +12322,7 @@
       <c r="D6" s="12">
         <v>27.548999999999999</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="25" t="s">
         <v>566</v>
       </c>
@@ -12163,7 +12340,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="38" t="s">
         <v>758</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -12183,7 +12360,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="35"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="25" t="s">
         <v>576</v>
       </c>
@@ -12201,7 +12378,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="35"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="25" t="s">
         <v>573</v>
       </c>
@@ -12219,7 +12396,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="35"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="25" t="s">
         <v>574</v>
       </c>
@@ -12237,7 +12414,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="35"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="25" t="s">
         <v>566</v>
       </c>
@@ -12255,7 +12432,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="38" t="s">
         <v>759</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -12275,7 +12452,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="35"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="25" t="s">
         <v>576</v>
       </c>
@@ -12293,7 +12470,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="35"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="25" t="s">
         <v>573</v>
       </c>
@@ -12311,7 +12488,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="35"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="25" t="s">
         <v>574</v>
       </c>
@@ -12329,7 +12506,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="35"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="25" t="s">
         <v>566</v>
       </c>
@@ -13613,7 +13790,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13639,7 +13816,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -13663,7 +13840,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -13687,7 +13864,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
@@ -13711,7 +13888,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -13735,7 +13912,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -13759,7 +13936,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -13783,7 +13960,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -13807,7 +13984,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -13831,7 +14008,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
@@ -13855,7 +14032,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>233</v>
       </c>
@@ -13879,7 +14056,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -13903,7 +14080,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -13927,7 +14104,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -13953,7 +14130,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -13977,7 +14154,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -14001,7 +14178,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -14025,7 +14202,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -14049,7 +14226,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="3" t="s">
         <v>201</v>
       </c>
@@ -14073,7 +14250,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14097,7 +14274,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
@@ -14121,7 +14298,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -14145,7 +14322,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="3" t="s">
         <v>226</v>
       </c>
@@ -14169,7 +14346,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
@@ -14193,7 +14370,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
@@ -14217,7 +14394,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -14241,7 +14418,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -14267,7 +14444,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -14291,7 +14468,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -14315,7 +14492,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="3" t="s">
         <v>189</v>
       </c>
@@ -14339,7 +14516,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -14363,7 +14540,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="3" t="s">
         <v>201</v>
       </c>
@@ -14387,7 +14564,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -14411,7 +14588,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
@@ -14435,7 +14612,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -14459,7 +14636,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
@@ -14483,7 +14660,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
@@ -14507,7 +14684,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
@@ -14531,7 +14708,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="3" t="s">
         <v>29</v>
       </c>
@@ -15139,8 +15316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:J46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15186,7 +15363,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -15218,7 +15395,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -15249,7 +15426,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" t="s">
         <v>605</v>
       </c>
@@ -15279,7 +15456,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>591</v>
       </c>
@@ -15309,7 +15486,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -15342,7 +15519,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="3" t="s">
         <v>609</v>
       </c>
@@ -15375,7 +15552,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -15408,7 +15585,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -15441,7 +15618,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -15474,7 +15651,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -15507,7 +15684,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>608</v>
       </c>
@@ -15537,7 +15714,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="3" t="s">
         <v>607</v>
       </c>
@@ -15555,7 +15732,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>580</v>
       </c>
@@ -15585,7 +15762,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="3" t="s">
         <v>581</v>
       </c>
@@ -15615,17 +15792,38 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D16" t="s">
+        <v>837</v>
+      </c>
+      <c r="G16">
+        <v>38.076999999999998</v>
+      </c>
+      <c r="H16">
+        <v>33.711500000000001</v>
+      </c>
+      <c r="I16">
+        <v>32.230999999999995</v>
+      </c>
+      <c r="J16">
+        <v>32.283500000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
@@ -15657,7 +15855,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="3" t="s">
         <v>176</v>
       </c>
@@ -15687,7 +15885,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -15718,7 +15916,7 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>591</v>
       </c>
@@ -15748,7 +15946,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -15778,7 +15976,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3" t="s">
         <v>609</v>
       </c>
@@ -15808,7 +16006,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -15838,7 +16036,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -15868,7 +16066,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -15898,7 +16096,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="38"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -15928,7 +16126,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="3" t="s">
         <v>608</v>
       </c>
@@ -15959,7 +16157,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="3" t="s">
         <v>607</v>
       </c>
@@ -15977,7 +16175,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="3" t="s">
         <v>570</v>
       </c>
@@ -16007,7 +16205,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="3" t="s">
         <v>581</v>
       </c>
@@ -16037,19 +16235,19 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -16081,7 +16279,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="3" t="s">
         <v>176</v>
       </c>
@@ -16111,7 +16309,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
@@ -16142,7 +16340,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="3" t="s">
         <v>591</v>
       </c>
@@ -16175,7 +16373,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
@@ -16208,7 +16406,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="3" t="s">
         <v>609</v>
       </c>
@@ -16241,7 +16439,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -16274,7 +16472,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
@@ -16307,7 +16505,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -16343,7 +16541,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
@@ -16376,7 +16574,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="3" t="s">
         <v>608</v>
       </c>
@@ -16407,7 +16605,7 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="3" t="s">
         <v>607</v>
       </c>
@@ -16425,7 +16623,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="3" t="s">
         <v>570</v>
       </c>
@@ -16455,7 +16653,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="3" t="s">
         <v>581</v>
       </c>
@@ -16485,19 +16683,41 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D50" t="s">
+        <v>840</v>
+      </c>
+      <c r="E50" t="s">
+        <v>841</v>
+      </c>
+      <c r="F50" t="s">
+        <v>842</v>
+      </c>
+      <c r="G50" t="s">
+        <v>845</v>
+      </c>
+      <c r="H50" t="s">
+        <v>843</v>
+      </c>
+      <c r="I50" t="s">
+        <v>846</v>
+      </c>
+      <c r="J50" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="3"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -16525,10 +16745,13 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G59" s="13"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G61" s="5"/>
@@ -16588,22 +16811,22 @@
       <c r="J71" s="13"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="39" t="s">
         <v>666</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -16620,12 +16843,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="25" t="s">
         <v>752</v>
       </c>
@@ -16640,7 +16863,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
@@ -16672,7 +16895,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="3" t="s">
         <v>176</v>
       </c>
@@ -16702,7 +16925,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="38"/>
       <c r="B77" t="s">
         <v>605</v>
       </c>
@@ -16732,7 +16955,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="3" t="s">
         <v>591</v>
       </c>
@@ -16762,7 +16985,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="3" t="s">
         <v>55</v>
       </c>
@@ -16792,7 +17015,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
@@ -16822,7 +17045,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
@@ -16852,7 +17075,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
@@ -16882,7 +17105,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="3" t="s">
         <v>608</v>
       </c>
@@ -16912,7 +17135,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="3" t="s">
         <v>570</v>
       </c>
@@ -16942,7 +17165,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="3" t="s">
         <v>581</v>
       </c>
@@ -16972,7 +17195,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
@@ -17004,7 +17227,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
@@ -17034,7 +17257,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="38"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
@@ -17064,7 +17287,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="3" t="s">
         <v>591</v>
       </c>
@@ -17094,7 +17317,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="38"/>
       <c r="B90" t="s">
         <v>55</v>
       </c>
@@ -17124,7 +17347,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="38"/>
       <c r="B91" t="s">
         <v>48</v>
       </c>
@@ -17154,7 +17377,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="38"/>
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -17184,7 +17407,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+      <c r="A93" s="38"/>
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -17214,7 +17437,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="3" t="s">
         <v>608</v>
       </c>
@@ -17244,7 +17467,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="35"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="3" t="s">
         <v>570</v>
       </c>
@@ -17274,7 +17497,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="3" t="s">
         <v>581</v>
       </c>
@@ -17304,7 +17527,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -17336,7 +17559,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="3" t="s">
         <v>176</v>
       </c>
@@ -17366,7 +17589,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="3" t="s">
         <v>68</v>
       </c>
@@ -17396,7 +17619,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="35"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="3" t="s">
         <v>591</v>
       </c>
@@ -17426,7 +17649,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="35"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -17456,7 +17679,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="35"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
@@ -17486,7 +17709,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="35"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
@@ -17516,7 +17739,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="35"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="3" t="s">
         <v>29</v>
       </c>
@@ -17546,7 +17769,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="35"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="3" t="s">
         <v>608</v>
       </c>
@@ -17576,7 +17799,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="35"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="3" t="s">
         <v>570</v>
       </c>
@@ -17606,7 +17829,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="3" t="s">
         <v>581</v>
       </c>
@@ -17637,18 +17860,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="A75:A85"/>
     <mergeCell ref="A86:A96"/>
     <mergeCell ref="A97:A107"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A35"/>
     <mergeCell ref="A36:A52"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17658,10 +17881,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A23" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19659,12 +19882,20 @@
       <c r="C51" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="D51" s="20">
+        <v>38.095999999999997</v>
+      </c>
+      <c r="E51" s="20">
+        <v>33.747</v>
+      </c>
+      <c r="F51" s="20">
+        <v>32.234999999999999</v>
+      </c>
+      <c r="G51" s="20">
+        <v>32.326000000000001</v>
+      </c>
       <c r="H51" s="20">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>556</v>
@@ -19687,10 +19918,18 @@
       <c r="C52" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="D52" s="20">
+        <v>38.067</v>
+      </c>
+      <c r="E52" s="20">
+        <v>33.701999999999998</v>
+      </c>
+      <c r="F52" s="20">
+        <v>32.234999999999999</v>
+      </c>
+      <c r="G52" s="20">
+        <v>32.287999999999997</v>
+      </c>
       <c r="H52" s="20">
         <v>234</v>
       </c>
@@ -19994,23 +20233,72 @@
       <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="A62" s="20">
+        <v>2</v>
+      </c>
+      <c r="B62" s="20">
+        <v>100</v>
+      </c>
+      <c r="C62" s="20">
+        <v>100</v>
+      </c>
+      <c r="D62" s="24">
+        <v>38.08</v>
+      </c>
+      <c r="E62" s="24">
+        <v>33.691000000000003</v>
+      </c>
+      <c r="F62" s="24">
+        <v>32.232999999999997</v>
+      </c>
+      <c r="G62" s="24">
+        <v>32.295000000000002</v>
+      </c>
+      <c r="H62" s="6">
+        <v>236</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J62" s="20">
+        <v>30</v>
+      </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="D63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="A63" s="20">
+        <v>2</v>
+      </c>
+      <c r="B63" s="20">
+        <v>100</v>
+      </c>
+      <c r="C63" s="20">
+        <v>100</v>
+      </c>
+      <c r="D63" s="24">
+        <v>38.073999999999998</v>
+      </c>
+      <c r="E63" s="24">
+        <v>33.731999999999999</v>
+      </c>
+      <c r="F63" s="24">
+        <v>32.228999999999999</v>
+      </c>
+      <c r="G63" s="24">
+        <v>32.271999999999998</v>
+      </c>
+      <c r="H63" s="6">
+        <v>235</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J63" s="20">
+        <v>30</v>
+      </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -20020,7 +20308,9 @@
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="D64" s="5"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="5"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -20029,7 +20319,8 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
       <c r="F65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -20039,7 +20330,8 @@
       <c r="M65" s="5"/>
       <c r="N65" s="26"/>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
       <c r="F66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -20049,7 +20341,7 @@
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
     </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="26"/>
@@ -20057,7 +20349,7 @@
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
     </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="26"/>
@@ -20065,7 +20357,7 @@
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="K69" s="26"/>
@@ -20073,7 +20365,7 @@
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
     </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -20085,7 +20377,7 @@
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
     </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -20093,7 +20385,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -20101,11 +20393,35 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I36">
@@ -20318,7 +20634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F4671F-0BBA-466F-9277-37125943434C}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
@@ -20333,4404 +20649,4404 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="37">
+      <c r="A2" s="35">
         <v>19.514202117919901</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="35">
         <v>27.736577987670898</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
+      <c r="A3" s="35">
         <v>23.8941745758056</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="35">
         <v>29.401117324829102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>25.8594245910644</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <v>29.493688583373999</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>26.521831512451101</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="35">
         <v>29.806575775146399</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>27.117181777954102</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="35">
         <v>30.0180759429931</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>27.6214389801025</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <v>30.1614265441894</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>27.5979309082031</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="35">
         <v>30.304986953735298</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>27.922113418579102</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="35">
         <v>30.1792812347412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>28.588769912719702</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="35">
         <v>30.364871978759702</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>28.5318298339843</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="35">
         <v>30.3596801757812</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>28.8013610839843</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="35">
         <v>30.5984077453613</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>28.524438858032202</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="35">
         <v>30.419332504272401</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>27.944250106811499</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="35">
         <v>30.682886123657202</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>28.451055526733398</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="35">
         <v>30.661127090454102</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>29.297954559326101</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="35">
         <v>30.195816040038999</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>29.0705451965332</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="35">
         <v>30.723810195922798</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>29.226079940795898</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="35">
         <v>30.591655731201101</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>29.157024383544901</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="35">
         <v>30.720849990844702</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>27.944103240966701</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="35">
         <v>30.7351989746093</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>29.1829319000244</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>30.485553741455</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>27.850765228271399</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="35">
         <v>30.621196746826101</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>29.4773254394531</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="35">
         <v>30.7619514465332</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>29.076717376708899</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="35">
         <v>30.540246963500898</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>28.9066772460937</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="35">
         <v>30.645584106445298</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>29.4869575500488</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="35">
         <v>30.148248672485298</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>29.615655899047798</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="35">
         <v>30.258565902709901</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
+      <c r="A28" s="35">
         <v>29.3503608703613</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="35">
         <v>30.620611190795898</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>29.862451553344702</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="35">
         <v>29.819341659545898</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>29.699901580810501</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="35">
         <v>30.6837348937988</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>29.750717163085898</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="35">
         <v>30.711359024047798</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>29.963678359985298</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="35">
         <v>29.5127563476562</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>27.816308975219702</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="35">
         <v>29.956304550170898</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>29.586746215820298</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="35">
         <v>29.3186645507812</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>29.868694305419901</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="35">
         <v>30.3086643218994</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>27.921092987060501</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="35">
         <v>30.7106628417968</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>30.085779190063398</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="35">
         <v>30.626964569091701</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>28.115880966186499</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="35">
         <v>30.82395362854</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>29.498922348022401</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="35">
         <v>30.722293853759702</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
+      <c r="A40" s="35">
         <v>29.8538513183593</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="35">
         <v>30.5736694335937</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>28.5397834777832</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="35">
         <v>30.6770839691162</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>30.3011169433593</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="35">
         <v>30.821680068969702</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>28.899084091186499</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="35">
         <v>30.343805313110298</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>29.9366340637207</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="35">
         <v>30.7745151519775</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
+      <c r="A45" s="35">
         <v>29.2630500793457</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="35">
         <v>30.796291351318299</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>29.948745727538999</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="35">
         <v>30.027538299560501</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="35">
         <v>30.340953826904201</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="35">
         <v>29.3673591613769</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
+      <c r="A48" s="35">
         <v>30.4493713378906</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="35">
         <v>30.635066986083899</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="37">
+      <c r="A49" s="35">
         <v>30.129480361938398</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="35">
         <v>30.845806121826101</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
+      <c r="A50" s="35">
         <v>29.723484039306602</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="35">
         <v>30.663280487060501</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="37">
+      <c r="A51" s="35">
         <v>30.2844123840332</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="35">
         <v>30.841609954833899</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="37">
+      <c r="A52" s="35">
         <v>29.9262084960937</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="35">
         <v>30.914596557617099</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="37">
+      <c r="A53" s="35">
         <v>30.415691375732401</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="35">
         <v>30.902124404907202</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="37">
+      <c r="A54" s="35">
         <v>30.553234100341701</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="35">
         <v>30.585445404052699</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="37">
+      <c r="A55" s="35">
         <v>30.516429901123001</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="35">
         <v>30.755535125732401</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="37">
+      <c r="A56" s="35">
         <v>29.979732513427699</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="35">
         <v>30.8964233398437</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="37">
+      <c r="A57" s="35">
         <v>30.460300445556602</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="35">
         <v>30.952590942382798</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="37">
+      <c r="A58" s="35">
         <v>30.324985504150298</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="35">
         <v>30.939517974853501</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="37">
+      <c r="A59" s="35">
         <v>30.514568328857401</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="35">
         <v>30.65181350708</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="37">
+      <c r="A60" s="35">
         <v>30.550655364990199</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="35">
         <v>30.8749389648437</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="37">
+      <c r="A61" s="35">
         <v>30.653966903686499</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="35">
         <v>30.613824844360298</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="37">
+      <c r="A62" s="35">
         <v>29.3458747863769</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="35">
         <v>30.8095092773437</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="37">
+      <c r="A63" s="35">
         <v>30.549472808837798</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="35">
         <v>30.9117927551269</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="37">
+      <c r="A64" s="35">
         <v>30.4149055480957</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="35">
         <v>30.967784881591701</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="37">
+      <c r="A65" s="35">
         <v>30.292867660522401</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="35">
         <v>30.638408660888601</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="37">
+      <c r="A66" s="35">
         <v>30.286504745483398</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="35">
         <v>30.779546737670898</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="37">
+      <c r="A67" s="35">
         <v>30.6753120422363</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="35">
         <v>30.8020725250244</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="37">
+      <c r="A68" s="35">
         <v>30.5264282226562</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="35">
         <v>30.9242248535156</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="37">
+      <c r="A69" s="35">
         <v>30.6550197601318</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="35">
         <v>30.7787361145019</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="37">
+      <c r="A70" s="35">
         <v>30.599857330322202</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="35">
         <v>31.000118255615199</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="37">
+      <c r="A71" s="35">
         <v>30.7079353332519</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="35">
         <v>31.012523651123001</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
+      <c r="A72" s="35">
         <v>30.643718719482401</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="35">
         <v>31.0107727050781</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="37">
+      <c r="A73" s="35">
         <v>30.6950874328613</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="35">
         <v>30.9925117492675</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="37">
+      <c r="A74" s="35">
         <v>30.667821884155199</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="35">
         <v>31.0068054199218</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="37">
+      <c r="A75" s="35">
         <v>30.645366668701101</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="35">
         <v>31.045742034912099</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="37">
+      <c r="A76" s="35">
         <v>30.602153778076101</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="35">
         <v>31.0107326507568</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="37">
+      <c r="A77" s="35">
         <v>30.712213516235298</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="35">
         <v>30.9170417785644</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="37">
+      <c r="A78" s="35">
         <v>30.736034393310501</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B78" s="35">
         <v>31.046365737915</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="37">
+      <c r="A79" s="35">
         <v>30.575506210327099</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="35">
         <v>31.0306892395019</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="37">
+      <c r="A80" s="35">
         <v>30.724573135375898</v>
       </c>
-      <c r="B80" s="37">
+      <c r="B80" s="35">
         <v>31.0517578125</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="37">
+      <c r="A81" s="35">
         <v>30.750362396240199</v>
       </c>
-      <c r="B81" s="37">
+      <c r="B81" s="35">
         <v>31.0404968261718</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="37">
+      <c r="A82" s="35">
         <v>30.757787704467699</v>
       </c>
-      <c r="B82" s="37">
+      <c r="B82" s="35">
         <v>31.064037322998001</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="37">
+      <c r="A83" s="35">
         <v>30.7251796722412</v>
       </c>
-      <c r="B83" s="37">
+      <c r="B83" s="35">
         <v>31.0227355957031</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="37">
+      <c r="A84" s="35">
         <v>30.7540683746337</v>
       </c>
-      <c r="B84" s="37">
+      <c r="B84" s="35">
         <v>31.0697937011718</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="37">
+      <c r="A85" s="35">
         <v>30.75439453125</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="35">
         <v>31.072839736938398</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="37">
+      <c r="A86" s="35">
         <v>30.774694442748999</v>
       </c>
-      <c r="B86" s="37">
+      <c r="B86" s="35">
         <v>31.0948982238769</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="37">
+      <c r="A87" s="35">
         <v>30.777629852294901</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="35">
         <v>31.093896865844702</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="37">
+      <c r="A88" s="35">
         <v>30.771785736083899</v>
       </c>
-      <c r="B88" s="37">
+      <c r="B88" s="35">
         <v>31.0701293945312</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="37">
+      <c r="A89" s="35">
         <v>30.7892150878906</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="35">
         <v>31.0801696777343</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="37">
+      <c r="A90" s="35">
         <v>30.7121276855468</v>
       </c>
-      <c r="B90" s="37">
+      <c r="B90" s="35">
         <v>31.098028182983398</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="37">
+      <c r="A91" s="35">
         <v>30.789190292358398</v>
       </c>
-      <c r="B91" s="37">
+      <c r="B91" s="35">
         <v>31.097850799560501</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="37">
+      <c r="A92" s="35">
         <v>30.792736053466701</v>
       </c>
-      <c r="B92" s="37">
+      <c r="B92" s="35">
         <v>31.100851058959901</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="37">
+      <c r="A93" s="35">
         <v>30.793033599853501</v>
       </c>
-      <c r="B93" s="37">
+      <c r="B93" s="35">
         <v>31.1086730957031</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="37">
+      <c r="A94" s="35">
         <v>30.795238494873001</v>
       </c>
-      <c r="B94" s="37">
+      <c r="B94" s="35">
         <v>31.108728408813398</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="37">
+      <c r="A95" s="35">
         <v>30.791149139404201</v>
       </c>
-      <c r="B95" s="37">
+      <c r="B95" s="35">
         <v>31.104476928710898</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="37">
+      <c r="A96" s="35">
         <v>30.7904968261718</v>
       </c>
-      <c r="B96" s="37">
+      <c r="B96" s="35">
         <v>31.1072998046875</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="37">
+      <c r="A97" s="35">
         <v>30.795608520507798</v>
       </c>
-      <c r="B97" s="37">
+      <c r="B97" s="35">
         <v>31.115886688232401</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="37">
+      <c r="A98" s="35">
         <v>30.795528411865199</v>
       </c>
-      <c r="B98" s="37">
+      <c r="B98" s="35">
         <v>31.1126899719238</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="37">
+      <c r="A99" s="35">
         <v>30.7960605621337</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="35">
         <v>31.1111145019531</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="37">
+      <c r="A100" s="35">
         <v>30.7974643707275</v>
       </c>
-      <c r="B100" s="37">
+      <c r="B100" s="35">
         <v>31.1165161132812</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="37">
+      <c r="A101" s="35">
         <v>30.7970275878906</v>
       </c>
-      <c r="B101" s="37">
+      <c r="B101" s="35">
         <v>31.1163215637207</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="37"/>
-      <c r="B136" s="37"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="35"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="35"/>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="35"/>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="37"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="35"/>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="37"/>
-      <c r="B143" s="37"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="37"/>
-      <c r="B144" s="37"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="37"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="35"/>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="37"/>
-      <c r="B146" s="37"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="35"/>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="37"/>
-      <c r="B147" s="37"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="37"/>
-      <c r="B148" s="37"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="35"/>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="37"/>
-      <c r="B149" s="37"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="35"/>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="37"/>
-      <c r="B150" s="37"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="35"/>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="37"/>
-      <c r="B151" s="37"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="37"/>
-      <c r="B152" s="37"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="35"/>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="37"/>
-      <c r="B153" s="37"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="35"/>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="37"/>
-      <c r="B154" s="37"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="35"/>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="37"/>
-      <c r="B155" s="37"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="35"/>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="37"/>
-      <c r="B156" s="37"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="37"/>
-      <c r="B157" s="37"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="37"/>
-      <c r="B158" s="37"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="37"/>
-      <c r="B159" s="37"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="37"/>
-      <c r="B160" s="37"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="37"/>
-      <c r="B161" s="37"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="37"/>
-      <c r="B162" s="37"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="37"/>
-      <c r="B163" s="37"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="35"/>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="37"/>
-      <c r="B164" s="37"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="35"/>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="37"/>
-      <c r="B165" s="37"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="35"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="37"/>
-      <c r="B166" s="37"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="35"/>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="37"/>
-      <c r="B167" s="37"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="35"/>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="37"/>
-      <c r="B168" s="37"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="37"/>
-      <c r="B169" s="37"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="35"/>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="37"/>
-      <c r="B170" s="37"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="35"/>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="37"/>
-      <c r="B171" s="37"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="35"/>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="37"/>
-      <c r="B172" s="37"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="35"/>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="37"/>
-      <c r="B173" s="37"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="37"/>
-      <c r="B174" s="37"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="37"/>
-      <c r="B175" s="37"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="37"/>
-      <c r="B176" s="37"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="37"/>
-      <c r="B177" s="37"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="37"/>
-      <c r="B178" s="37"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="37"/>
-      <c r="B179" s="37"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="37"/>
-      <c r="B180" s="37"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="37"/>
-      <c r="B181" s="37"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="37"/>
-      <c r="B182" s="37"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="37"/>
-      <c r="B183" s="37"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="37"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="37"/>
-      <c r="B185" s="37"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="37"/>
-      <c r="B186" s="37"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="35"/>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="37"/>
-      <c r="B187" s="37"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="35"/>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="37"/>
-      <c r="B188" s="37"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="35"/>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="37"/>
-      <c r="B189" s="37"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="35"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="37"/>
-      <c r="B190" s="37"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="35"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="37"/>
-      <c r="B191" s="37"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="35"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="37"/>
-      <c r="B192" s="37"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="35"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="37"/>
-      <c r="B193" s="37"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="35"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="37"/>
-      <c r="B194" s="37"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="37"/>
-      <c r="B195" s="37"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="37"/>
-      <c r="B196" s="37"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="35"/>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="37"/>
-      <c r="B197" s="37"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="35"/>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="37"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="35"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="37"/>
-      <c r="B199" s="37"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="37"/>
-      <c r="B200" s="37"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="35"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="37"/>
-      <c r="B201" s="37"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="35"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="37"/>
-      <c r="B202" s="37"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="35"/>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="37"/>
-      <c r="B203" s="37"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="35"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="37"/>
-      <c r="B204" s="37"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="37"/>
-      <c r="B205" s="37"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
+      <c r="A206" s="35"/>
+      <c r="B206" s="35"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="37"/>
-      <c r="B207" s="37"/>
+      <c r="A207" s="35"/>
+      <c r="B207" s="35"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="37"/>
-      <c r="B208" s="37"/>
+      <c r="A208" s="35"/>
+      <c r="B208" s="35"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="37"/>
-      <c r="B209" s="37"/>
+      <c r="A209" s="35"/>
+      <c r="B209" s="35"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="37"/>
-      <c r="B210" s="37"/>
+      <c r="A210" s="35"/>
+      <c r="B210" s="35"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="37"/>
-      <c r="B211" s="37"/>
+      <c r="A211" s="35"/>
+      <c r="B211" s="35"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="37"/>
-      <c r="B212" s="37"/>
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="37"/>
-      <c r="B213" s="37"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="37"/>
-      <c r="B214" s="37"/>
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="37"/>
-      <c r="B215" s="37"/>
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="37"/>
-      <c r="B216" s="37"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="37"/>
-      <c r="B217" s="37"/>
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="37"/>
-      <c r="B218" s="37"/>
+      <c r="A218" s="35"/>
+      <c r="B218" s="35"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="37"/>
-      <c r="B219" s="37"/>
+      <c r="A219" s="35"/>
+      <c r="B219" s="35"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="37"/>
-      <c r="B220" s="37"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="35"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="37"/>
-      <c r="B221" s="37"/>
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="37"/>
-      <c r="B222" s="37"/>
+      <c r="A222" s="35"/>
+      <c r="B222" s="35"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="37"/>
-      <c r="B223" s="37"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="35"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="37"/>
-      <c r="B224" s="37"/>
+      <c r="A224" s="35"/>
+      <c r="B224" s="35"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="37"/>
-      <c r="B225" s="37"/>
+      <c r="A225" s="35"/>
+      <c r="B225" s="35"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="37"/>
-      <c r="B226" s="37"/>
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="37"/>
-      <c r="B227" s="37"/>
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="37"/>
-      <c r="B228" s="37"/>
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="37"/>
-      <c r="B229" s="37"/>
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="37"/>
-      <c r="B230" s="37"/>
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="37"/>
-      <c r="B231" s="37"/>
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="37"/>
-      <c r="B232" s="37"/>
+      <c r="A232" s="35"/>
+      <c r="B232" s="35"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A233" s="37"/>
-      <c r="B233" s="37"/>
+      <c r="A233" s="35"/>
+      <c r="B233" s="35"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A234" s="37"/>
-      <c r="B234" s="37"/>
+      <c r="A234" s="35"/>
+      <c r="B234" s="35"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="37"/>
-      <c r="B235" s="37"/>
+      <c r="A235" s="35"/>
+      <c r="B235" s="35"/>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A236" s="37"/>
-      <c r="B236" s="37"/>
+      <c r="A236" s="35"/>
+      <c r="B236" s="35"/>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A237" s="37"/>
-      <c r="B237" s="37"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A238" s="37"/>
-      <c r="B238" s="37"/>
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A239" s="37"/>
-      <c r="B239" s="37"/>
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A240" s="37"/>
-      <c r="B240" s="37"/>
+      <c r="A240" s="35"/>
+      <c r="B240" s="35"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A241" s="37"/>
-      <c r="B241" s="37"/>
+      <c r="A241" s="35"/>
+      <c r="B241" s="35"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A242" s="37"/>
-      <c r="B242" s="37"/>
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A243" s="37"/>
-      <c r="B243" s="37"/>
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A244" s="37"/>
-      <c r="B244" s="37"/>
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A245" s="37"/>
-      <c r="B245" s="37"/>
+      <c r="A245" s="35"/>
+      <c r="B245" s="35"/>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A246" s="37"/>
-      <c r="B246" s="37"/>
+      <c r="A246" s="35"/>
+      <c r="B246" s="35"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A247" s="37"/>
-      <c r="B247" s="37"/>
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A248" s="37"/>
-      <c r="B248" s="37"/>
+      <c r="A248" s="35"/>
+      <c r="B248" s="35"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A249" s="37"/>
-      <c r="B249" s="37"/>
+      <c r="A249" s="35"/>
+      <c r="B249" s="35"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A250" s="37"/>
-      <c r="B250" s="37"/>
+      <c r="A250" s="35"/>
+      <c r="B250" s="35"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A251" s="37"/>
-      <c r="B251" s="37"/>
+      <c r="A251" s="35"/>
+      <c r="B251" s="35"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A252" s="37"/>
-      <c r="B252" s="37"/>
+      <c r="A252" s="35"/>
+      <c r="B252" s="35"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A253" s="37"/>
-      <c r="B253" s="37"/>
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A254" s="37"/>
-      <c r="B254" s="37"/>
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A255" s="37"/>
-      <c r="B255" s="37"/>
+      <c r="A255" s="35"/>
+      <c r="B255" s="35"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A256" s="37"/>
-      <c r="B256" s="37"/>
+      <c r="A256" s="35"/>
+      <c r="B256" s="35"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A257" s="37"/>
-      <c r="B257" s="37"/>
+      <c r="A257" s="35"/>
+      <c r="B257" s="35"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A258" s="37"/>
-      <c r="B258" s="37"/>
+      <c r="A258" s="35"/>
+      <c r="B258" s="35"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A259" s="37"/>
-      <c r="B259" s="37"/>
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A260" s="37"/>
-      <c r="B260" s="37"/>
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A261" s="37"/>
-      <c r="B261" s="37"/>
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A262" s="37"/>
-      <c r="B262" s="37"/>
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A263" s="37"/>
-      <c r="B263" s="37"/>
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A264" s="37"/>
-      <c r="B264" s="37"/>
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A265" s="37"/>
-      <c r="B265" s="37"/>
+      <c r="A265" s="35"/>
+      <c r="B265" s="35"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A266" s="37"/>
-      <c r="B266" s="37"/>
+      <c r="A266" s="35"/>
+      <c r="B266" s="35"/>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A267" s="37"/>
-      <c r="B267" s="37"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A268" s="37"/>
-      <c r="B268" s="37"/>
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A269" s="37"/>
-      <c r="B269" s="37"/>
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A270" s="37"/>
-      <c r="B270" s="37"/>
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A271" s="37"/>
-      <c r="B271" s="37"/>
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A272" s="37"/>
-      <c r="B272" s="37"/>
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A273" s="37"/>
-      <c r="B273" s="37"/>
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A274" s="37"/>
-      <c r="B274" s="37"/>
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A275" s="37"/>
-      <c r="B275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A276" s="37"/>
-      <c r="B276" s="37"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A277" s="37"/>
-      <c r="B277" s="37"/>
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A278" s="37"/>
-      <c r="B278" s="37"/>
+      <c r="A278" s="35"/>
+      <c r="B278" s="35"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A279" s="37"/>
-      <c r="B279" s="37"/>
+      <c r="A279" s="35"/>
+      <c r="B279" s="35"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A280" s="37"/>
-      <c r="B280" s="37"/>
+      <c r="A280" s="35"/>
+      <c r="B280" s="35"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A281" s="37"/>
-      <c r="B281" s="37"/>
+      <c r="A281" s="35"/>
+      <c r="B281" s="35"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A282" s="37"/>
-      <c r="B282" s="37"/>
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A283" s="37"/>
-      <c r="B283" s="37"/>
+      <c r="A283" s="35"/>
+      <c r="B283" s="35"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A284" s="37"/>
-      <c r="B284" s="37"/>
+      <c r="A284" s="35"/>
+      <c r="B284" s="35"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A285" s="37"/>
-      <c r="B285" s="37"/>
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A286" s="37"/>
-      <c r="B286" s="37"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="35"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A287" s="37"/>
-      <c r="B287" s="37"/>
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A288" s="37"/>
-      <c r="B288" s="37"/>
+      <c r="A288" s="35"/>
+      <c r="B288" s="35"/>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A289" s="37"/>
-      <c r="B289" s="37"/>
+      <c r="A289" s="35"/>
+      <c r="B289" s="35"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A290" s="37"/>
-      <c r="B290" s="37"/>
+      <c r="A290" s="35"/>
+      <c r="B290" s="35"/>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A291" s="37"/>
-      <c r="B291" s="37"/>
+      <c r="A291" s="35"/>
+      <c r="B291" s="35"/>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A292" s="37"/>
-      <c r="B292" s="37"/>
+      <c r="A292" s="35"/>
+      <c r="B292" s="35"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A293" s="37"/>
-      <c r="B293" s="37"/>
+      <c r="A293" s="35"/>
+      <c r="B293" s="35"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A294" s="37"/>
-      <c r="B294" s="37"/>
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A295" s="37"/>
-      <c r="B295" s="37"/>
+      <c r="A295" s="35"/>
+      <c r="B295" s="35"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A296" s="37"/>
-      <c r="B296" s="37"/>
+      <c r="A296" s="35"/>
+      <c r="B296" s="35"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A297" s="37"/>
-      <c r="B297" s="37"/>
+      <c r="A297" s="35"/>
+      <c r="B297" s="35"/>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A298" s="37"/>
-      <c r="B298" s="37"/>
+      <c r="A298" s="35"/>
+      <c r="B298" s="35"/>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A299" s="37"/>
-      <c r="B299" s="37"/>
+      <c r="A299" s="35"/>
+      <c r="B299" s="35"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A300" s="37"/>
-      <c r="B300" s="37"/>
+      <c r="A300" s="35"/>
+      <c r="B300" s="35"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A301" s="37"/>
-      <c r="B301" s="37"/>
+      <c r="A301" s="35"/>
+      <c r="B301" s="35"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A302" s="37"/>
-      <c r="B302" s="37"/>
+      <c r="A302" s="35"/>
+      <c r="B302" s="35"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A303" s="37"/>
-      <c r="B303" s="37"/>
+      <c r="A303" s="35"/>
+      <c r="B303" s="35"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A304" s="37"/>
-      <c r="B304" s="37"/>
+      <c r="A304" s="35"/>
+      <c r="B304" s="35"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A305" s="37"/>
-      <c r="B305" s="37"/>
+      <c r="A305" s="35"/>
+      <c r="B305" s="35"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A306" s="37"/>
-      <c r="B306" s="37"/>
+      <c r="A306" s="35"/>
+      <c r="B306" s="35"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A307" s="37"/>
-      <c r="B307" s="37"/>
+      <c r="A307" s="35"/>
+      <c r="B307" s="35"/>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A308" s="37"/>
-      <c r="B308" s="37"/>
+      <c r="A308" s="35"/>
+      <c r="B308" s="35"/>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A309" s="37"/>
-      <c r="B309" s="37"/>
+      <c r="A309" s="35"/>
+      <c r="B309" s="35"/>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A310" s="37"/>
-      <c r="B310" s="37"/>
+      <c r="A310" s="35"/>
+      <c r="B310" s="35"/>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A311" s="37"/>
-      <c r="B311" s="37"/>
+      <c r="A311" s="35"/>
+      <c r="B311" s="35"/>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A312" s="37"/>
-      <c r="B312" s="37"/>
+      <c r="A312" s="35"/>
+      <c r="B312" s="35"/>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A313" s="37"/>
-      <c r="B313" s="37"/>
+      <c r="A313" s="35"/>
+      <c r="B313" s="35"/>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A314" s="37"/>
-      <c r="B314" s="37"/>
+      <c r="A314" s="35"/>
+      <c r="B314" s="35"/>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A315" s="37"/>
-      <c r="B315" s="37"/>
+      <c r="A315" s="35"/>
+      <c r="B315" s="35"/>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A316" s="37"/>
-      <c r="B316" s="37"/>
+      <c r="A316" s="35"/>
+      <c r="B316" s="35"/>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A317" s="37"/>
-      <c r="B317" s="37"/>
+      <c r="A317" s="35"/>
+      <c r="B317" s="35"/>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A318" s="37"/>
-      <c r="B318" s="37"/>
+      <c r="A318" s="35"/>
+      <c r="B318" s="35"/>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A319" s="37"/>
-      <c r="B319" s="37"/>
+      <c r="A319" s="35"/>
+      <c r="B319" s="35"/>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A320" s="37"/>
-      <c r="B320" s="37"/>
+      <c r="A320" s="35"/>
+      <c r="B320" s="35"/>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A321" s="37"/>
-      <c r="B321" s="37"/>
+      <c r="A321" s="35"/>
+      <c r="B321" s="35"/>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A322" s="37"/>
-      <c r="B322" s="37"/>
+      <c r="A322" s="35"/>
+      <c r="B322" s="35"/>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A323" s="37"/>
-      <c r="B323" s="37"/>
+      <c r="A323" s="35"/>
+      <c r="B323" s="35"/>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A324" s="37"/>
-      <c r="B324" s="37"/>
+      <c r="A324" s="35"/>
+      <c r="B324" s="35"/>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A325" s="37"/>
-      <c r="B325" s="37"/>
+      <c r="A325" s="35"/>
+      <c r="B325" s="35"/>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A326" s="37"/>
-      <c r="B326" s="37"/>
+      <c r="A326" s="35"/>
+      <c r="B326" s="35"/>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A327" s="37"/>
-      <c r="B327" s="37"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="35"/>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A328" s="37"/>
-      <c r="B328" s="37"/>
+      <c r="A328" s="35"/>
+      <c r="B328" s="35"/>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A329" s="37"/>
-      <c r="B329" s="37"/>
+      <c r="A329" s="35"/>
+      <c r="B329" s="35"/>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A330" s="37"/>
-      <c r="B330" s="37"/>
+      <c r="A330" s="35"/>
+      <c r="B330" s="35"/>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A331" s="37"/>
-      <c r="B331" s="37"/>
+      <c r="A331" s="35"/>
+      <c r="B331" s="35"/>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A332" s="37"/>
-      <c r="B332" s="37"/>
+      <c r="A332" s="35"/>
+      <c r="B332" s="35"/>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A333" s="37"/>
-      <c r="B333" s="37"/>
+      <c r="A333" s="35"/>
+      <c r="B333" s="35"/>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A334" s="37"/>
-      <c r="B334" s="37"/>
+      <c r="A334" s="35"/>
+      <c r="B334" s="35"/>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A335" s="37"/>
-      <c r="B335" s="37"/>
+      <c r="A335" s="35"/>
+      <c r="B335" s="35"/>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A336" s="37"/>
-      <c r="B336" s="37"/>
+      <c r="A336" s="35"/>
+      <c r="B336" s="35"/>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A337" s="37"/>
-      <c r="B337" s="37"/>
+      <c r="A337" s="35"/>
+      <c r="B337" s="35"/>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A338" s="37"/>
-      <c r="B338" s="37"/>
+      <c r="A338" s="35"/>
+      <c r="B338" s="35"/>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A339" s="37"/>
-      <c r="B339" s="37"/>
+      <c r="A339" s="35"/>
+      <c r="B339" s="35"/>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A340" s="37"/>
-      <c r="B340" s="37"/>
+      <c r="A340" s="35"/>
+      <c r="B340" s="35"/>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A341" s="37"/>
-      <c r="B341" s="37"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="35"/>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A342" s="37"/>
-      <c r="B342" s="37"/>
+      <c r="A342" s="35"/>
+      <c r="B342" s="35"/>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A343" s="37"/>
-      <c r="B343" s="37"/>
+      <c r="A343" s="35"/>
+      <c r="B343" s="35"/>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A344" s="37"/>
-      <c r="B344" s="37"/>
+      <c r="A344" s="35"/>
+      <c r="B344" s="35"/>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A345" s="37"/>
-      <c r="B345" s="37"/>
+      <c r="A345" s="35"/>
+      <c r="B345" s="35"/>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A346" s="37"/>
-      <c r="B346" s="37"/>
+      <c r="A346" s="35"/>
+      <c r="B346" s="35"/>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A347" s="37"/>
-      <c r="B347" s="37"/>
+      <c r="A347" s="35"/>
+      <c r="B347" s="35"/>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A348" s="37"/>
-      <c r="B348" s="37"/>
+      <c r="A348" s="35"/>
+      <c r="B348" s="35"/>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A349" s="37"/>
-      <c r="B349" s="37"/>
+      <c r="A349" s="35"/>
+      <c r="B349" s="35"/>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A350" s="37"/>
-      <c r="B350" s="37"/>
+      <c r="A350" s="35"/>
+      <c r="B350" s="35"/>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A351" s="37"/>
-      <c r="B351" s="37"/>
+      <c r="A351" s="35"/>
+      <c r="B351" s="35"/>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A352" s="37"/>
-      <c r="B352" s="37"/>
+      <c r="A352" s="35"/>
+      <c r="B352" s="35"/>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A353" s="37"/>
-      <c r="B353" s="37"/>
+      <c r="A353" s="35"/>
+      <c r="B353" s="35"/>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A354" s="37"/>
-      <c r="B354" s="37"/>
+      <c r="A354" s="35"/>
+      <c r="B354" s="35"/>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A355" s="37"/>
-      <c r="B355" s="37"/>
+      <c r="A355" s="35"/>
+      <c r="B355" s="35"/>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A356" s="37"/>
-      <c r="B356" s="37"/>
+      <c r="A356" s="35"/>
+      <c r="B356" s="35"/>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A357" s="37"/>
-      <c r="B357" s="37"/>
+      <c r="A357" s="35"/>
+      <c r="B357" s="35"/>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A358" s="37"/>
-      <c r="B358" s="37"/>
+      <c r="A358" s="35"/>
+      <c r="B358" s="35"/>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A359" s="37"/>
-      <c r="B359" s="37"/>
+      <c r="A359" s="35"/>
+      <c r="B359" s="35"/>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A360" s="37"/>
-      <c r="B360" s="37"/>
+      <c r="A360" s="35"/>
+      <c r="B360" s="35"/>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A361" s="37"/>
-      <c r="B361" s="37"/>
+      <c r="A361" s="35"/>
+      <c r="B361" s="35"/>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A362" s="37"/>
-      <c r="B362" s="37"/>
+      <c r="A362" s="35"/>
+      <c r="B362" s="35"/>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A363" s="37"/>
-      <c r="B363" s="37"/>
+      <c r="A363" s="35"/>
+      <c r="B363" s="35"/>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A364" s="37"/>
-      <c r="B364" s="37"/>
+      <c r="A364" s="35"/>
+      <c r="B364" s="35"/>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A365" s="37"/>
-      <c r="B365" s="37"/>
+      <c r="A365" s="35"/>
+      <c r="B365" s="35"/>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A366" s="37"/>
-      <c r="B366" s="37"/>
+      <c r="A366" s="35"/>
+      <c r="B366" s="35"/>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A367" s="37"/>
-      <c r="B367" s="37"/>
+      <c r="A367" s="35"/>
+      <c r="B367" s="35"/>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A368" s="37"/>
-      <c r="B368" s="37"/>
+      <c r="A368" s="35"/>
+      <c r="B368" s="35"/>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A369" s="37"/>
-      <c r="B369" s="37"/>
+      <c r="A369" s="35"/>
+      <c r="B369" s="35"/>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A370" s="37"/>
-      <c r="B370" s="37"/>
+      <c r="A370" s="35"/>
+      <c r="B370" s="35"/>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A371" s="37"/>
-      <c r="B371" s="37"/>
+      <c r="A371" s="35"/>
+      <c r="B371" s="35"/>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A372" s="37"/>
-      <c r="B372" s="37"/>
+      <c r="A372" s="35"/>
+      <c r="B372" s="35"/>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A373" s="37"/>
-      <c r="B373" s="37"/>
+      <c r="A373" s="35"/>
+      <c r="B373" s="35"/>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A374" s="37"/>
-      <c r="B374" s="37"/>
+      <c r="A374" s="35"/>
+      <c r="B374" s="35"/>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A375" s="37"/>
-      <c r="B375" s="37"/>
+      <c r="A375" s="35"/>
+      <c r="B375" s="35"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A376" s="37"/>
-      <c r="B376" s="37"/>
+      <c r="A376" s="35"/>
+      <c r="B376" s="35"/>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A377" s="37"/>
-      <c r="B377" s="37"/>
+      <c r="A377" s="35"/>
+      <c r="B377" s="35"/>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A378" s="37"/>
-      <c r="B378" s="37"/>
+      <c r="A378" s="35"/>
+      <c r="B378" s="35"/>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A379" s="37"/>
-      <c r="B379" s="37"/>
+      <c r="A379" s="35"/>
+      <c r="B379" s="35"/>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A380" s="37"/>
-      <c r="B380" s="37"/>
+      <c r="A380" s="35"/>
+      <c r="B380" s="35"/>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A381" s="37"/>
-      <c r="B381" s="37"/>
+      <c r="A381" s="35"/>
+      <c r="B381" s="35"/>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A382" s="37"/>
-      <c r="B382" s="37"/>
+      <c r="A382" s="35"/>
+      <c r="B382" s="35"/>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A383" s="37"/>
-      <c r="B383" s="37"/>
+      <c r="A383" s="35"/>
+      <c r="B383" s="35"/>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A384" s="37"/>
-      <c r="B384" s="37"/>
+      <c r="A384" s="35"/>
+      <c r="B384" s="35"/>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A385" s="37"/>
-      <c r="B385" s="37"/>
+      <c r="A385" s="35"/>
+      <c r="B385" s="35"/>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A386" s="37"/>
-      <c r="B386" s="37"/>
+      <c r="A386" s="35"/>
+      <c r="B386" s="35"/>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A387" s="37"/>
-      <c r="B387" s="37"/>
+      <c r="A387" s="35"/>
+      <c r="B387" s="35"/>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A388" s="37"/>
-      <c r="B388" s="37"/>
+      <c r="A388" s="35"/>
+      <c r="B388" s="35"/>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A389" s="37"/>
-      <c r="B389" s="37"/>
+      <c r="A389" s="35"/>
+      <c r="B389" s="35"/>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A390" s="37"/>
-      <c r="B390" s="37"/>
+      <c r="A390" s="35"/>
+      <c r="B390" s="35"/>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A391" s="37"/>
-      <c r="B391" s="37"/>
+      <c r="A391" s="35"/>
+      <c r="B391" s="35"/>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A392" s="37"/>
-      <c r="B392" s="37"/>
+      <c r="A392" s="35"/>
+      <c r="B392" s="35"/>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A393" s="37"/>
-      <c r="B393" s="37"/>
+      <c r="A393" s="35"/>
+      <c r="B393" s="35"/>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A394" s="37"/>
-      <c r="B394" s="37"/>
+      <c r="A394" s="35"/>
+      <c r="B394" s="35"/>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A395" s="37"/>
-      <c r="B395" s="37"/>
+      <c r="A395" s="35"/>
+      <c r="B395" s="35"/>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A396" s="37"/>
-      <c r="B396" s="37"/>
+      <c r="A396" s="35"/>
+      <c r="B396" s="35"/>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A397" s="37"/>
-      <c r="B397" s="37"/>
+      <c r="A397" s="35"/>
+      <c r="B397" s="35"/>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A398" s="37"/>
-      <c r="B398" s="37"/>
+      <c r="A398" s="35"/>
+      <c r="B398" s="35"/>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A399" s="37"/>
-      <c r="B399" s="37"/>
+      <c r="A399" s="35"/>
+      <c r="B399" s="35"/>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A400" s="37"/>
-      <c r="B400" s="37"/>
+      <c r="A400" s="35"/>
+      <c r="B400" s="35"/>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A401" s="37"/>
-      <c r="B401" s="37"/>
+      <c r="A401" s="35"/>
+      <c r="B401" s="35"/>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A402" s="37"/>
-      <c r="B402" s="37"/>
+      <c r="A402" s="35"/>
+      <c r="B402" s="35"/>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A403" s="37"/>
-      <c r="B403" s="37"/>
+      <c r="A403" s="35"/>
+      <c r="B403" s="35"/>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A404" s="37"/>
-      <c r="B404" s="37"/>
+      <c r="A404" s="35"/>
+      <c r="B404" s="35"/>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A405" s="37"/>
-      <c r="B405" s="37"/>
+      <c r="A405" s="35"/>
+      <c r="B405" s="35"/>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A406" s="37"/>
-      <c r="B406" s="37"/>
+      <c r="A406" s="35"/>
+      <c r="B406" s="35"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A407" s="37"/>
-      <c r="B407" s="37"/>
+      <c r="A407" s="35"/>
+      <c r="B407" s="35"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A408" s="37"/>
-      <c r="B408" s="37"/>
+      <c r="A408" s="35"/>
+      <c r="B408" s="35"/>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A409" s="37"/>
-      <c r="B409" s="37"/>
+      <c r="A409" s="35"/>
+      <c r="B409" s="35"/>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A410" s="37"/>
-      <c r="B410" s="37"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="35"/>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A411" s="37"/>
-      <c r="B411" s="37"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="35"/>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A412" s="37"/>
-      <c r="B412" s="37"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="35"/>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A413" s="37"/>
-      <c r="B413" s="37"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="35"/>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A414" s="37"/>
-      <c r="B414" s="37"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="35"/>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A415" s="37"/>
-      <c r="B415" s="37"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="35"/>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A416" s="37"/>
-      <c r="B416" s="37"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="35"/>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A417" s="37"/>
-      <c r="B417" s="37"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="35"/>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A418" s="37"/>
-      <c r="B418" s="37"/>
+      <c r="A418" s="35"/>
+      <c r="B418" s="35"/>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A419" s="37"/>
-      <c r="B419" s="37"/>
+      <c r="A419" s="35"/>
+      <c r="B419" s="35"/>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A420" s="37"/>
-      <c r="B420" s="37"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="35"/>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A421" s="37"/>
-      <c r="B421" s="37"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="35"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A422" s="37"/>
-      <c r="B422" s="37"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="35"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A423" s="37"/>
-      <c r="B423" s="37"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="35"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A424" s="37"/>
-      <c r="B424" s="37"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="35"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A425" s="37"/>
-      <c r="B425" s="37"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="35"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A426" s="37"/>
-      <c r="B426" s="37"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="35"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A427" s="37"/>
-      <c r="B427" s="37"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="35"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A428" s="37"/>
-      <c r="B428" s="37"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="35"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A429" s="37"/>
-      <c r="B429" s="37"/>
+      <c r="A429" s="35"/>
+      <c r="B429" s="35"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A430" s="37"/>
-      <c r="B430" s="37"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="35"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A431" s="37"/>
-      <c r="B431" s="37"/>
+      <c r="A431" s="35"/>
+      <c r="B431" s="35"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A432" s="37"/>
-      <c r="B432" s="37"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="35"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A433" s="37"/>
-      <c r="B433" s="37"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="35"/>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A434" s="37"/>
-      <c r="B434" s="37"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="35"/>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A435" s="37"/>
-      <c r="B435" s="37"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="35"/>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A436" s="37"/>
-      <c r="B436" s="37"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="35"/>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A437" s="37"/>
-      <c r="B437" s="37"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="35"/>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A438" s="37"/>
-      <c r="B438" s="37"/>
+      <c r="A438" s="35"/>
+      <c r="B438" s="35"/>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A439" s="37"/>
-      <c r="B439" s="37"/>
+      <c r="A439" s="35"/>
+      <c r="B439" s="35"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A440" s="37"/>
-      <c r="B440" s="37"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="35"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A441" s="37"/>
-      <c r="B441" s="37"/>
+      <c r="A441" s="35"/>
+      <c r="B441" s="35"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A442" s="37"/>
-      <c r="B442" s="37"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="35"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A443" s="37"/>
-      <c r="B443" s="37"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="35"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A444" s="37"/>
-      <c r="B444" s="37"/>
+      <c r="A444" s="35"/>
+      <c r="B444" s="35"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A445" s="37"/>
-      <c r="B445" s="37"/>
+      <c r="A445" s="35"/>
+      <c r="B445" s="35"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A446" s="37"/>
-      <c r="B446" s="37"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="35"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A447" s="37"/>
-      <c r="B447" s="37"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="35"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A448" s="37"/>
-      <c r="B448" s="37"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="35"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A449" s="37"/>
-      <c r="B449" s="37"/>
+      <c r="A449" s="35"/>
+      <c r="B449" s="35"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A450" s="37"/>
-      <c r="B450" s="37"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="35"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A451" s="37"/>
-      <c r="B451" s="37"/>
+      <c r="A451" s="35"/>
+      <c r="B451" s="35"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A452" s="37"/>
-      <c r="B452" s="37"/>
+      <c r="A452" s="35"/>
+      <c r="B452" s="35"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A453" s="37"/>
-      <c r="B453" s="37"/>
+      <c r="A453" s="35"/>
+      <c r="B453" s="35"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A454" s="37"/>
-      <c r="B454" s="37"/>
+      <c r="A454" s="35"/>
+      <c r="B454" s="35"/>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A455" s="37"/>
-      <c r="B455" s="37"/>
+      <c r="A455" s="35"/>
+      <c r="B455" s="35"/>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A456" s="37"/>
-      <c r="B456" s="37"/>
+      <c r="A456" s="35"/>
+      <c r="B456" s="35"/>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A457" s="37"/>
-      <c r="B457" s="37"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="35"/>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A458" s="37"/>
-      <c r="B458" s="37"/>
+      <c r="A458" s="35"/>
+      <c r="B458" s="35"/>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A459" s="37"/>
-      <c r="B459" s="37"/>
+      <c r="A459" s="35"/>
+      <c r="B459" s="35"/>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A460" s="37"/>
-      <c r="B460" s="37"/>
+      <c r="A460" s="35"/>
+      <c r="B460" s="35"/>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A461" s="37"/>
-      <c r="B461" s="37"/>
+      <c r="A461" s="35"/>
+      <c r="B461" s="35"/>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A462" s="37"/>
-      <c r="B462" s="37"/>
+      <c r="A462" s="35"/>
+      <c r="B462" s="35"/>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A463" s="37"/>
-      <c r="B463" s="37"/>
+      <c r="A463" s="35"/>
+      <c r="B463" s="35"/>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A464" s="37"/>
-      <c r="B464" s="37"/>
+      <c r="A464" s="35"/>
+      <c r="B464" s="35"/>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A465" s="37"/>
-      <c r="B465" s="37"/>
+      <c r="A465" s="35"/>
+      <c r="B465" s="35"/>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A466" s="37"/>
-      <c r="B466" s="37"/>
+      <c r="A466" s="35"/>
+      <c r="B466" s="35"/>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A467" s="37"/>
-      <c r="B467" s="37"/>
+      <c r="A467" s="35"/>
+      <c r="B467" s="35"/>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A468" s="37"/>
-      <c r="B468" s="37"/>
+      <c r="A468" s="35"/>
+      <c r="B468" s="35"/>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A469" s="37"/>
-      <c r="B469" s="37"/>
+      <c r="A469" s="35"/>
+      <c r="B469" s="35"/>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A470" s="37"/>
-      <c r="B470" s="37"/>
+      <c r="A470" s="35"/>
+      <c r="B470" s="35"/>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A471" s="37"/>
-      <c r="B471" s="37"/>
+      <c r="A471" s="35"/>
+      <c r="B471" s="35"/>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A472" s="37"/>
-      <c r="B472" s="37"/>
+      <c r="A472" s="35"/>
+      <c r="B472" s="35"/>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A473" s="37"/>
-      <c r="B473" s="37"/>
+      <c r="A473" s="35"/>
+      <c r="B473" s="35"/>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A474" s="37"/>
-      <c r="B474" s="37"/>
+      <c r="A474" s="35"/>
+      <c r="B474" s="35"/>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A475" s="37"/>
-      <c r="B475" s="37"/>
+      <c r="A475" s="35"/>
+      <c r="B475" s="35"/>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A476" s="37"/>
-      <c r="B476" s="37"/>
+      <c r="A476" s="35"/>
+      <c r="B476" s="35"/>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A477" s="37"/>
-      <c r="B477" s="37"/>
+      <c r="A477" s="35"/>
+      <c r="B477" s="35"/>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A478" s="37"/>
-      <c r="B478" s="37"/>
+      <c r="A478" s="35"/>
+      <c r="B478" s="35"/>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A479" s="37"/>
-      <c r="B479" s="37"/>
+      <c r="A479" s="35"/>
+      <c r="B479" s="35"/>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A480" s="37"/>
-      <c r="B480" s="37"/>
+      <c r="A480" s="35"/>
+      <c r="B480" s="35"/>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A481" s="37"/>
-      <c r="B481" s="37"/>
+      <c r="A481" s="35"/>
+      <c r="B481" s="35"/>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A482" s="37"/>
-      <c r="B482" s="37"/>
+      <c r="A482" s="35"/>
+      <c r="B482" s="35"/>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A483" s="37"/>
-      <c r="B483" s="37"/>
+      <c r="A483" s="35"/>
+      <c r="B483" s="35"/>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A484" s="37"/>
-      <c r="B484" s="37"/>
+      <c r="A484" s="35"/>
+      <c r="B484" s="35"/>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A485" s="37"/>
-      <c r="B485" s="37"/>
+      <c r="A485" s="35"/>
+      <c r="B485" s="35"/>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A486" s="37"/>
-      <c r="B486" s="37"/>
+      <c r="A486" s="35"/>
+      <c r="B486" s="35"/>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A487" s="37"/>
-      <c r="B487" s="37"/>
+      <c r="A487" s="35"/>
+      <c r="B487" s="35"/>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A488" s="37"/>
-      <c r="B488" s="37"/>
+      <c r="A488" s="35"/>
+      <c r="B488" s="35"/>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A489" s="37"/>
-      <c r="B489" s="37"/>
+      <c r="A489" s="35"/>
+      <c r="B489" s="35"/>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A490" s="37"/>
-      <c r="B490" s="37"/>
+      <c r="A490" s="35"/>
+      <c r="B490" s="35"/>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A491" s="37"/>
-      <c r="B491" s="37"/>
+      <c r="A491" s="35"/>
+      <c r="B491" s="35"/>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A492" s="37"/>
-      <c r="B492" s="37"/>
+      <c r="A492" s="35"/>
+      <c r="B492" s="35"/>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A493" s="37"/>
-      <c r="B493" s="37"/>
+      <c r="A493" s="35"/>
+      <c r="B493" s="35"/>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A494" s="37"/>
-      <c r="B494" s="37"/>
+      <c r="A494" s="35"/>
+      <c r="B494" s="35"/>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A495" s="37"/>
-      <c r="B495" s="37"/>
+      <c r="A495" s="35"/>
+      <c r="B495" s="35"/>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A496" s="37"/>
-      <c r="B496" s="37"/>
+      <c r="A496" s="35"/>
+      <c r="B496" s="35"/>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A497" s="37"/>
-      <c r="B497" s="37"/>
+      <c r="A497" s="35"/>
+      <c r="B497" s="35"/>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A498" s="37"/>
-      <c r="B498" s="37"/>
+      <c r="A498" s="35"/>
+      <c r="B498" s="35"/>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A499" s="37"/>
-      <c r="B499" s="37"/>
+      <c r="A499" s="35"/>
+      <c r="B499" s="35"/>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A500" s="37"/>
-      <c r="B500" s="37"/>
+      <c r="A500" s="35"/>
+      <c r="B500" s="35"/>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A501" s="37"/>
-      <c r="B501" s="37"/>
+      <c r="A501" s="35"/>
+      <c r="B501" s="35"/>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A502" s="37"/>
-      <c r="B502" s="37"/>
+      <c r="A502" s="35"/>
+      <c r="B502" s="35"/>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A503" s="37"/>
-      <c r="B503" s="37"/>
+      <c r="A503" s="35"/>
+      <c r="B503" s="35"/>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A504" s="37"/>
-      <c r="B504" s="37"/>
+      <c r="A504" s="35"/>
+      <c r="B504" s="35"/>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A505" s="37"/>
-      <c r="B505" s="37"/>
+      <c r="A505" s="35"/>
+      <c r="B505" s="35"/>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A506" s="37"/>
-      <c r="B506" s="37"/>
+      <c r="A506" s="35"/>
+      <c r="B506" s="35"/>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A507" s="37"/>
-      <c r="B507" s="37"/>
+      <c r="A507" s="35"/>
+      <c r="B507" s="35"/>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A508" s="37"/>
-      <c r="B508" s="37"/>
+      <c r="A508" s="35"/>
+      <c r="B508" s="35"/>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A509" s="37"/>
-      <c r="B509" s="37"/>
+      <c r="A509" s="35"/>
+      <c r="B509" s="35"/>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A510" s="37"/>
-      <c r="B510" s="37"/>
+      <c r="A510" s="35"/>
+      <c r="B510" s="35"/>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A511" s="37"/>
-      <c r="B511" s="37"/>
+      <c r="A511" s="35"/>
+      <c r="B511" s="35"/>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A512" s="37"/>
-      <c r="B512" s="37"/>
+      <c r="A512" s="35"/>
+      <c r="B512" s="35"/>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A513" s="37"/>
-      <c r="B513" s="37"/>
+      <c r="A513" s="35"/>
+      <c r="B513" s="35"/>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A514" s="37"/>
-      <c r="B514" s="37"/>
+      <c r="A514" s="35"/>
+      <c r="B514" s="35"/>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A515" s="37"/>
-      <c r="B515" s="37"/>
+      <c r="A515" s="35"/>
+      <c r="B515" s="35"/>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A516" s="37"/>
-      <c r="B516" s="37"/>
+      <c r="A516" s="35"/>
+      <c r="B516" s="35"/>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A517" s="37"/>
-      <c r="B517" s="37"/>
+      <c r="A517" s="35"/>
+      <c r="B517" s="35"/>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A518" s="37"/>
-      <c r="B518" s="37"/>
+      <c r="A518" s="35"/>
+      <c r="B518" s="35"/>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A519" s="37"/>
-      <c r="B519" s="37"/>
+      <c r="A519" s="35"/>
+      <c r="B519" s="35"/>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A520" s="37"/>
-      <c r="B520" s="37"/>
+      <c r="A520" s="35"/>
+      <c r="B520" s="35"/>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A521" s="37"/>
-      <c r="B521" s="37"/>
+      <c r="A521" s="35"/>
+      <c r="B521" s="35"/>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A522" s="37"/>
-      <c r="B522" s="37"/>
+      <c r="A522" s="35"/>
+      <c r="B522" s="35"/>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A523" s="37"/>
-      <c r="B523" s="37"/>
+      <c r="A523" s="35"/>
+      <c r="B523" s="35"/>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A524" s="37"/>
-      <c r="B524" s="37"/>
+      <c r="A524" s="35"/>
+      <c r="B524" s="35"/>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A525" s="37"/>
-      <c r="B525" s="37"/>
+      <c r="A525" s="35"/>
+      <c r="B525" s="35"/>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A526" s="37"/>
-      <c r="B526" s="37"/>
+      <c r="A526" s="35"/>
+      <c r="B526" s="35"/>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A527" s="37"/>
-      <c r="B527" s="37"/>
+      <c r="A527" s="35"/>
+      <c r="B527" s="35"/>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A528" s="37"/>
-      <c r="B528" s="37"/>
+      <c r="A528" s="35"/>
+      <c r="B528" s="35"/>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A529" s="37"/>
-      <c r="B529" s="37"/>
+      <c r="A529" s="35"/>
+      <c r="B529" s="35"/>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A530" s="37"/>
-      <c r="B530" s="37"/>
+      <c r="A530" s="35"/>
+      <c r="B530" s="35"/>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A531" s="37"/>
-      <c r="B531" s="37"/>
+      <c r="A531" s="35"/>
+      <c r="B531" s="35"/>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A532" s="37"/>
-      <c r="B532" s="37"/>
+      <c r="A532" s="35"/>
+      <c r="B532" s="35"/>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A533" s="37"/>
-      <c r="B533" s="37"/>
+      <c r="A533" s="35"/>
+      <c r="B533" s="35"/>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A534" s="37"/>
-      <c r="B534" s="37"/>
+      <c r="A534" s="35"/>
+      <c r="B534" s="35"/>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A535" s="37"/>
-      <c r="B535" s="37"/>
+      <c r="A535" s="35"/>
+      <c r="B535" s="35"/>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A536" s="37"/>
-      <c r="B536" s="37"/>
+      <c r="A536" s="35"/>
+      <c r="B536" s="35"/>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A537" s="37"/>
-      <c r="B537" s="37"/>
+      <c r="A537" s="35"/>
+      <c r="B537" s="35"/>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A538" s="37"/>
-      <c r="B538" s="37"/>
+      <c r="A538" s="35"/>
+      <c r="B538" s="35"/>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A539" s="37"/>
-      <c r="B539" s="37"/>
+      <c r="A539" s="35"/>
+      <c r="B539" s="35"/>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A540" s="37"/>
-      <c r="B540" s="37"/>
+      <c r="A540" s="35"/>
+      <c r="B540" s="35"/>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A541" s="37"/>
-      <c r="B541" s="37"/>
+      <c r="A541" s="35"/>
+      <c r="B541" s="35"/>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A542" s="37"/>
-      <c r="B542" s="37"/>
+      <c r="A542" s="35"/>
+      <c r="B542" s="35"/>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A543" s="37"/>
-      <c r="B543" s="37"/>
+      <c r="A543" s="35"/>
+      <c r="B543" s="35"/>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A544" s="37"/>
-      <c r="B544" s="37"/>
+      <c r="A544" s="35"/>
+      <c r="B544" s="35"/>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A545" s="37"/>
-      <c r="B545" s="37"/>
+      <c r="A545" s="35"/>
+      <c r="B545" s="35"/>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A546" s="37"/>
-      <c r="B546" s="37"/>
+      <c r="A546" s="35"/>
+      <c r="B546" s="35"/>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A547" s="37"/>
-      <c r="B547" s="37"/>
+      <c r="A547" s="35"/>
+      <c r="B547" s="35"/>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A548" s="37"/>
-      <c r="B548" s="37"/>
+      <c r="A548" s="35"/>
+      <c r="B548" s="35"/>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A549" s="37"/>
-      <c r="B549" s="37"/>
+      <c r="A549" s="35"/>
+      <c r="B549" s="35"/>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A550" s="37"/>
-      <c r="B550" s="37"/>
+      <c r="A550" s="35"/>
+      <c r="B550" s="35"/>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A551" s="37"/>
-      <c r="B551" s="37"/>
+      <c r="A551" s="35"/>
+      <c r="B551" s="35"/>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A552" s="37"/>
-      <c r="B552" s="37"/>
+      <c r="A552" s="35"/>
+      <c r="B552" s="35"/>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A553" s="37"/>
-      <c r="B553" s="37"/>
+      <c r="A553" s="35"/>
+      <c r="B553" s="35"/>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A554" s="37"/>
-      <c r="B554" s="37"/>
+      <c r="A554" s="35"/>
+      <c r="B554" s="35"/>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A555" s="37"/>
-      <c r="B555" s="37"/>
+      <c r="A555" s="35"/>
+      <c r="B555" s="35"/>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A556" s="37"/>
-      <c r="B556" s="37"/>
+      <c r="A556" s="35"/>
+      <c r="B556" s="35"/>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A557" s="37"/>
-      <c r="B557" s="37"/>
+      <c r="A557" s="35"/>
+      <c r="B557" s="35"/>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A558" s="37"/>
-      <c r="B558" s="37"/>
+      <c r="A558" s="35"/>
+      <c r="B558" s="35"/>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A559" s="37"/>
-      <c r="B559" s="37"/>
+      <c r="A559" s="35"/>
+      <c r="B559" s="35"/>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A560" s="37"/>
-      <c r="B560" s="37"/>
+      <c r="A560" s="35"/>
+      <c r="B560" s="35"/>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A561" s="37"/>
-      <c r="B561" s="37"/>
+      <c r="A561" s="35"/>
+      <c r="B561" s="35"/>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A562" s="37"/>
-      <c r="B562" s="37"/>
+      <c r="A562" s="35"/>
+      <c r="B562" s="35"/>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A563" s="37"/>
-      <c r="B563" s="37"/>
+      <c r="A563" s="35"/>
+      <c r="B563" s="35"/>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A564" s="37"/>
-      <c r="B564" s="37"/>
+      <c r="A564" s="35"/>
+      <c r="B564" s="35"/>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A565" s="37"/>
-      <c r="B565" s="37"/>
+      <c r="A565" s="35"/>
+      <c r="B565" s="35"/>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A566" s="37"/>
-      <c r="B566" s="37"/>
+      <c r="A566" s="35"/>
+      <c r="B566" s="35"/>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A567" s="37"/>
-      <c r="B567" s="37"/>
+      <c r="A567" s="35"/>
+      <c r="B567" s="35"/>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A568" s="37"/>
-      <c r="B568" s="37"/>
+      <c r="A568" s="35"/>
+      <c r="B568" s="35"/>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A569" s="37"/>
-      <c r="B569" s="37"/>
+      <c r="A569" s="35"/>
+      <c r="B569" s="35"/>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A570" s="37"/>
-      <c r="B570" s="37"/>
+      <c r="A570" s="35"/>
+      <c r="B570" s="35"/>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A571" s="37"/>
-      <c r="B571" s="37"/>
+      <c r="A571" s="35"/>
+      <c r="B571" s="35"/>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A572" s="37"/>
-      <c r="B572" s="37"/>
+      <c r="A572" s="35"/>
+      <c r="B572" s="35"/>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A573" s="37"/>
-      <c r="B573" s="37"/>
+      <c r="A573" s="35"/>
+      <c r="B573" s="35"/>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A574" s="37"/>
-      <c r="B574" s="37"/>
+      <c r="A574" s="35"/>
+      <c r="B574" s="35"/>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A575" s="37"/>
-      <c r="B575" s="37"/>
+      <c r="A575" s="35"/>
+      <c r="B575" s="35"/>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A576" s="37"/>
-      <c r="B576" s="37"/>
+      <c r="A576" s="35"/>
+      <c r="B576" s="35"/>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A577" s="37"/>
-      <c r="B577" s="37"/>
+      <c r="A577" s="35"/>
+      <c r="B577" s="35"/>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A578" s="37"/>
-      <c r="B578" s="37"/>
+      <c r="A578" s="35"/>
+      <c r="B578" s="35"/>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A579" s="37"/>
-      <c r="B579" s="37"/>
+      <c r="A579" s="35"/>
+      <c r="B579" s="35"/>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A580" s="37"/>
-      <c r="B580" s="37"/>
+      <c r="A580" s="35"/>
+      <c r="B580" s="35"/>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A581" s="37"/>
-      <c r="B581" s="37"/>
+      <c r="A581" s="35"/>
+      <c r="B581" s="35"/>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A582" s="37"/>
-      <c r="B582" s="37"/>
+      <c r="A582" s="35"/>
+      <c r="B582" s="35"/>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A583" s="37"/>
-      <c r="B583" s="37"/>
+      <c r="A583" s="35"/>
+      <c r="B583" s="35"/>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A584" s="37"/>
-      <c r="B584" s="37"/>
+      <c r="A584" s="35"/>
+      <c r="B584" s="35"/>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A585" s="37"/>
-      <c r="B585" s="37"/>
+      <c r="A585" s="35"/>
+      <c r="B585" s="35"/>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A586" s="37"/>
-      <c r="B586" s="37"/>
+      <c r="A586" s="35"/>
+      <c r="B586" s="35"/>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A587" s="37"/>
-      <c r="B587" s="37"/>
+      <c r="A587" s="35"/>
+      <c r="B587" s="35"/>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A588" s="37"/>
-      <c r="B588" s="37"/>
+      <c r="A588" s="35"/>
+      <c r="B588" s="35"/>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A589" s="37"/>
-      <c r="B589" s="37"/>
+      <c r="A589" s="35"/>
+      <c r="B589" s="35"/>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A590" s="37"/>
-      <c r="B590" s="37"/>
+      <c r="A590" s="35"/>
+      <c r="B590" s="35"/>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A591" s="37"/>
-      <c r="B591" s="37"/>
+      <c r="A591" s="35"/>
+      <c r="B591" s="35"/>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A592" s="37"/>
-      <c r="B592" s="37"/>
+      <c r="A592" s="35"/>
+      <c r="B592" s="35"/>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A593" s="37"/>
-      <c r="B593" s="37"/>
+      <c r="A593" s="35"/>
+      <c r="B593" s="35"/>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A594" s="37"/>
-      <c r="B594" s="37"/>
+      <c r="A594" s="35"/>
+      <c r="B594" s="35"/>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A595" s="37"/>
-      <c r="B595" s="37"/>
+      <c r="A595" s="35"/>
+      <c r="B595" s="35"/>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A596" s="37"/>
-      <c r="B596" s="37"/>
+      <c r="A596" s="35"/>
+      <c r="B596" s="35"/>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A597" s="37"/>
-      <c r="B597" s="37"/>
+      <c r="A597" s="35"/>
+      <c r="B597" s="35"/>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A598" s="37"/>
-      <c r="B598" s="37"/>
+      <c r="A598" s="35"/>
+      <c r="B598" s="35"/>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A599" s="37"/>
-      <c r="B599" s="37"/>
+      <c r="A599" s="35"/>
+      <c r="B599" s="35"/>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A600" s="37"/>
-      <c r="B600" s="37"/>
+      <c r="A600" s="35"/>
+      <c r="B600" s="35"/>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A601" s="37"/>
-      <c r="B601" s="37"/>
+      <c r="A601" s="35"/>
+      <c r="B601" s="35"/>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A602" s="37"/>
-      <c r="B602" s="37"/>
+      <c r="A602" s="35"/>
+      <c r="B602" s="35"/>
     </row>
     <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A603" s="37"/>
-      <c r="B603" s="37"/>
+      <c r="A603" s="35"/>
+      <c r="B603" s="35"/>
     </row>
     <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A604" s="37"/>
-      <c r="B604" s="37"/>
+      <c r="A604" s="35"/>
+      <c r="B604" s="35"/>
     </row>
     <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A605" s="37"/>
-      <c r="B605" s="37"/>
+      <c r="A605" s="35"/>
+      <c r="B605" s="35"/>
     </row>
     <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A606" s="37"/>
-      <c r="B606" s="37"/>
+      <c r="A606" s="35"/>
+      <c r="B606" s="35"/>
     </row>
     <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A607" s="37"/>
-      <c r="B607" s="37"/>
+      <c r="A607" s="35"/>
+      <c r="B607" s="35"/>
     </row>
     <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A608" s="37"/>
-      <c r="B608" s="37"/>
+      <c r="A608" s="35"/>
+      <c r="B608" s="35"/>
     </row>
     <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A609" s="37"/>
-      <c r="B609" s="37"/>
+      <c r="A609" s="35"/>
+      <c r="B609" s="35"/>
     </row>
     <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A610" s="37"/>
-      <c r="B610" s="37"/>
+      <c r="A610" s="35"/>
+      <c r="B610" s="35"/>
     </row>
     <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A611" s="37"/>
-      <c r="B611" s="37"/>
+      <c r="A611" s="35"/>
+      <c r="B611" s="35"/>
     </row>
     <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A612" s="37"/>
-      <c r="B612" s="37"/>
+      <c r="A612" s="35"/>
+      <c r="B612" s="35"/>
     </row>
     <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A613" s="37"/>
-      <c r="B613" s="37"/>
+      <c r="A613" s="35"/>
+      <c r="B613" s="35"/>
     </row>
     <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A614" s="37"/>
-      <c r="B614" s="37"/>
+      <c r="A614" s="35"/>
+      <c r="B614" s="35"/>
     </row>
     <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A615" s="37"/>
-      <c r="B615" s="37"/>
+      <c r="A615" s="35"/>
+      <c r="B615" s="35"/>
     </row>
     <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A616" s="37"/>
-      <c r="B616" s="37"/>
+      <c r="A616" s="35"/>
+      <c r="B616" s="35"/>
     </row>
     <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A617" s="37"/>
-      <c r="B617" s="37"/>
+      <c r="A617" s="35"/>
+      <c r="B617" s="35"/>
     </row>
     <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A618" s="37"/>
-      <c r="B618" s="37"/>
+      <c r="A618" s="35"/>
+      <c r="B618" s="35"/>
     </row>
     <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A619" s="37"/>
-      <c r="B619" s="37"/>
+      <c r="A619" s="35"/>
+      <c r="B619" s="35"/>
     </row>
     <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A620" s="37"/>
-      <c r="B620" s="37"/>
+      <c r="A620" s="35"/>
+      <c r="B620" s="35"/>
     </row>
     <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A621" s="37"/>
-      <c r="B621" s="37"/>
+      <c r="A621" s="35"/>
+      <c r="B621" s="35"/>
     </row>
     <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A622" s="37"/>
-      <c r="B622" s="37"/>
+      <c r="A622" s="35"/>
+      <c r="B622" s="35"/>
     </row>
     <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A623" s="37"/>
-      <c r="B623" s="37"/>
+      <c r="A623" s="35"/>
+      <c r="B623" s="35"/>
     </row>
     <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A624" s="37"/>
-      <c r="B624" s="37"/>
+      <c r="A624" s="35"/>
+      <c r="B624" s="35"/>
     </row>
     <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A625" s="37"/>
-      <c r="B625" s="37"/>
+      <c r="A625" s="35"/>
+      <c r="B625" s="35"/>
     </row>
     <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A626" s="37"/>
-      <c r="B626" s="37"/>
+      <c r="A626" s="35"/>
+      <c r="B626" s="35"/>
     </row>
     <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A627" s="37"/>
-      <c r="B627" s="37"/>
+      <c r="A627" s="35"/>
+      <c r="B627" s="35"/>
     </row>
     <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A628" s="37"/>
-      <c r="B628" s="37"/>
+      <c r="A628" s="35"/>
+      <c r="B628" s="35"/>
     </row>
     <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A629" s="37"/>
-      <c r="B629" s="37"/>
+      <c r="A629" s="35"/>
+      <c r="B629" s="35"/>
     </row>
     <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A630" s="37"/>
-      <c r="B630" s="37"/>
+      <c r="A630" s="35"/>
+      <c r="B630" s="35"/>
     </row>
     <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A631" s="37"/>
-      <c r="B631" s="37"/>
+      <c r="A631" s="35"/>
+      <c r="B631" s="35"/>
     </row>
     <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A632" s="37"/>
-      <c r="B632" s="37"/>
+      <c r="A632" s="35"/>
+      <c r="B632" s="35"/>
     </row>
     <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A633" s="37"/>
-      <c r="B633" s="37"/>
+      <c r="A633" s="35"/>
+      <c r="B633" s="35"/>
     </row>
     <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A634" s="37"/>
-      <c r="B634" s="37"/>
+      <c r="A634" s="35"/>
+      <c r="B634" s="35"/>
     </row>
     <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A635" s="37"/>
-      <c r="B635" s="37"/>
+      <c r="A635" s="35"/>
+      <c r="B635" s="35"/>
     </row>
     <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A636" s="37"/>
-      <c r="B636" s="37"/>
+      <c r="A636" s="35"/>
+      <c r="B636" s="35"/>
     </row>
     <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A637" s="37"/>
-      <c r="B637" s="37"/>
+      <c r="A637" s="35"/>
+      <c r="B637" s="35"/>
     </row>
     <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A638" s="37"/>
-      <c r="B638" s="37"/>
+      <c r="A638" s="35"/>
+      <c r="B638" s="35"/>
     </row>
     <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A639" s="37"/>
-      <c r="B639" s="37"/>
+      <c r="A639" s="35"/>
+      <c r="B639" s="35"/>
     </row>
     <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A640" s="37"/>
-      <c r="B640" s="37"/>
+      <c r="A640" s="35"/>
+      <c r="B640" s="35"/>
     </row>
     <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A641" s="37"/>
-      <c r="B641" s="37"/>
+      <c r="A641" s="35"/>
+      <c r="B641" s="35"/>
     </row>
     <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A642" s="37"/>
-      <c r="B642" s="37"/>
+      <c r="A642" s="35"/>
+      <c r="B642" s="35"/>
     </row>
     <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A643" s="37"/>
-      <c r="B643" s="37"/>
+      <c r="A643" s="35"/>
+      <c r="B643" s="35"/>
     </row>
     <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A644" s="37"/>
-      <c r="B644" s="37"/>
+      <c r="A644" s="35"/>
+      <c r="B644" s="35"/>
     </row>
     <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A645" s="37"/>
-      <c r="B645" s="37"/>
+      <c r="A645" s="35"/>
+      <c r="B645" s="35"/>
     </row>
     <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A646" s="37"/>
-      <c r="B646" s="37"/>
+      <c r="A646" s="35"/>
+      <c r="B646" s="35"/>
     </row>
     <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A647" s="37"/>
-      <c r="B647" s="37"/>
+      <c r="A647" s="35"/>
+      <c r="B647" s="35"/>
     </row>
     <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A648" s="37"/>
-      <c r="B648" s="37"/>
+      <c r="A648" s="35"/>
+      <c r="B648" s="35"/>
     </row>
     <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A649" s="37"/>
-      <c r="B649" s="37"/>
+      <c r="A649" s="35"/>
+      <c r="B649" s="35"/>
     </row>
     <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A650" s="37"/>
-      <c r="B650" s="37"/>
+      <c r="A650" s="35"/>
+      <c r="B650" s="35"/>
     </row>
     <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A651" s="37"/>
-      <c r="B651" s="37"/>
+      <c r="A651" s="35"/>
+      <c r="B651" s="35"/>
     </row>
     <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A652" s="37"/>
-      <c r="B652" s="37"/>
+      <c r="A652" s="35"/>
+      <c r="B652" s="35"/>
     </row>
     <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A653" s="37"/>
-      <c r="B653" s="37"/>
+      <c r="A653" s="35"/>
+      <c r="B653" s="35"/>
     </row>
     <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A654" s="37"/>
-      <c r="B654" s="37"/>
+      <c r="A654" s="35"/>
+      <c r="B654" s="35"/>
     </row>
     <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A655" s="37"/>
-      <c r="B655" s="37"/>
+      <c r="A655" s="35"/>
+      <c r="B655" s="35"/>
     </row>
     <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A656" s="37"/>
-      <c r="B656" s="37"/>
+      <c r="A656" s="35"/>
+      <c r="B656" s="35"/>
     </row>
     <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A657" s="37"/>
-      <c r="B657" s="37"/>
+      <c r="A657" s="35"/>
+      <c r="B657" s="35"/>
     </row>
     <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A658" s="37"/>
-      <c r="B658" s="37"/>
+      <c r="A658" s="35"/>
+      <c r="B658" s="35"/>
     </row>
     <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A659" s="37"/>
-      <c r="B659" s="37"/>
+      <c r="A659" s="35"/>
+      <c r="B659" s="35"/>
     </row>
     <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A660" s="37"/>
-      <c r="B660" s="37"/>
+      <c r="A660" s="35"/>
+      <c r="B660" s="35"/>
     </row>
     <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A661" s="37"/>
-      <c r="B661" s="37"/>
+      <c r="A661" s="35"/>
+      <c r="B661" s="35"/>
     </row>
     <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A662" s="37"/>
-      <c r="B662" s="37"/>
+      <c r="A662" s="35"/>
+      <c r="B662" s="35"/>
     </row>
     <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A663" s="37"/>
-      <c r="B663" s="37"/>
+      <c r="A663" s="35"/>
+      <c r="B663" s="35"/>
     </row>
     <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A664" s="37"/>
-      <c r="B664" s="37"/>
+      <c r="A664" s="35"/>
+      <c r="B664" s="35"/>
     </row>
     <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A665" s="37"/>
-      <c r="B665" s="37"/>
+      <c r="A665" s="35"/>
+      <c r="B665" s="35"/>
     </row>
     <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A666" s="37"/>
-      <c r="B666" s="37"/>
+      <c r="A666" s="35"/>
+      <c r="B666" s="35"/>
     </row>
     <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A667" s="37"/>
-      <c r="B667" s="37"/>
+      <c r="A667" s="35"/>
+      <c r="B667" s="35"/>
     </row>
     <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A668" s="37"/>
-      <c r="B668" s="37"/>
+      <c r="A668" s="35"/>
+      <c r="B668" s="35"/>
     </row>
     <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A669" s="37"/>
-      <c r="B669" s="37"/>
+      <c r="A669" s="35"/>
+      <c r="B669" s="35"/>
     </row>
     <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A670" s="37"/>
-      <c r="B670" s="37"/>
+      <c r="A670" s="35"/>
+      <c r="B670" s="35"/>
     </row>
     <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A671" s="37"/>
-      <c r="B671" s="37"/>
+      <c r="A671" s="35"/>
+      <c r="B671" s="35"/>
     </row>
     <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A672" s="37"/>
-      <c r="B672" s="37"/>
+      <c r="A672" s="35"/>
+      <c r="B672" s="35"/>
     </row>
     <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A673" s="37"/>
-      <c r="B673" s="37"/>
+      <c r="A673" s="35"/>
+      <c r="B673" s="35"/>
     </row>
     <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A674" s="37"/>
-      <c r="B674" s="37"/>
+      <c r="A674" s="35"/>
+      <c r="B674" s="35"/>
     </row>
     <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A675" s="37"/>
-      <c r="B675" s="37"/>
+      <c r="A675" s="35"/>
+      <c r="B675" s="35"/>
     </row>
     <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A676" s="37"/>
-      <c r="B676" s="37"/>
+      <c r="A676" s="35"/>
+      <c r="B676" s="35"/>
     </row>
     <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A677" s="37"/>
-      <c r="B677" s="37"/>
+      <c r="A677" s="35"/>
+      <c r="B677" s="35"/>
     </row>
     <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A678" s="37"/>
-      <c r="B678" s="37"/>
+      <c r="A678" s="35"/>
+      <c r="B678" s="35"/>
     </row>
     <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A679" s="37"/>
-      <c r="B679" s="37"/>
+      <c r="A679" s="35"/>
+      <c r="B679" s="35"/>
     </row>
     <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A680" s="37"/>
-      <c r="B680" s="37"/>
+      <c r="A680" s="35"/>
+      <c r="B680" s="35"/>
     </row>
     <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A681" s="37"/>
-      <c r="B681" s="37"/>
+      <c r="A681" s="35"/>
+      <c r="B681" s="35"/>
     </row>
     <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A682" s="37"/>
-      <c r="B682" s="37"/>
+      <c r="A682" s="35"/>
+      <c r="B682" s="35"/>
     </row>
     <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A683" s="37"/>
-      <c r="B683" s="37"/>
+      <c r="A683" s="35"/>
+      <c r="B683" s="35"/>
     </row>
     <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A684" s="37"/>
-      <c r="B684" s="37"/>
+      <c r="A684" s="35"/>
+      <c r="B684" s="35"/>
     </row>
     <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A685" s="37"/>
-      <c r="B685" s="37"/>
+      <c r="A685" s="35"/>
+      <c r="B685" s="35"/>
     </row>
     <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A686" s="37"/>
-      <c r="B686" s="37"/>
+      <c r="A686" s="35"/>
+      <c r="B686" s="35"/>
     </row>
     <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A687" s="37"/>
-      <c r="B687" s="37"/>
+      <c r="A687" s="35"/>
+      <c r="B687" s="35"/>
     </row>
     <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A688" s="37"/>
-      <c r="B688" s="37"/>
+      <c r="A688" s="35"/>
+      <c r="B688" s="35"/>
     </row>
     <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A689" s="37"/>
-      <c r="B689" s="37"/>
+      <c r="A689" s="35"/>
+      <c r="B689" s="35"/>
     </row>
     <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A690" s="37"/>
-      <c r="B690" s="37"/>
+      <c r="A690" s="35"/>
+      <c r="B690" s="35"/>
     </row>
     <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A691" s="37"/>
-      <c r="B691" s="37"/>
+      <c r="A691" s="35"/>
+      <c r="B691" s="35"/>
     </row>
     <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A692" s="37"/>
-      <c r="B692" s="37"/>
+      <c r="A692" s="35"/>
+      <c r="B692" s="35"/>
     </row>
     <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A693" s="37"/>
-      <c r="B693" s="37"/>
+      <c r="A693" s="35"/>
+      <c r="B693" s="35"/>
     </row>
     <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A694" s="37"/>
-      <c r="B694" s="37"/>
+      <c r="A694" s="35"/>
+      <c r="B694" s="35"/>
     </row>
     <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A695" s="37"/>
-      <c r="B695" s="37"/>
+      <c r="A695" s="35"/>
+      <c r="B695" s="35"/>
     </row>
     <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A696" s="37"/>
-      <c r="B696" s="37"/>
+      <c r="A696" s="35"/>
+      <c r="B696" s="35"/>
     </row>
     <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A697" s="37"/>
-      <c r="B697" s="37"/>
+      <c r="A697" s="35"/>
+      <c r="B697" s="35"/>
     </row>
     <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A698" s="37"/>
-      <c r="B698" s="37"/>
+      <c r="A698" s="35"/>
+      <c r="B698" s="35"/>
     </row>
     <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A699" s="37"/>
-      <c r="B699" s="37"/>
+      <c r="A699" s="35"/>
+      <c r="B699" s="35"/>
     </row>
     <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A700" s="37"/>
-      <c r="B700" s="37"/>
+      <c r="A700" s="35"/>
+      <c r="B700" s="35"/>
     </row>
     <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A701" s="37"/>
-      <c r="B701" s="37"/>
+      <c r="A701" s="35"/>
+      <c r="B701" s="35"/>
     </row>
     <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A702" s="37"/>
-      <c r="B702" s="37"/>
+      <c r="A702" s="35"/>
+      <c r="B702" s="35"/>
     </row>
     <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A703" s="37"/>
-      <c r="B703" s="37"/>
+      <c r="A703" s="35"/>
+      <c r="B703" s="35"/>
     </row>
     <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A704" s="37"/>
-      <c r="B704" s="37"/>
+      <c r="A704" s="35"/>
+      <c r="B704" s="35"/>
     </row>
     <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A705" s="37"/>
-      <c r="B705" s="37"/>
+      <c r="A705" s="35"/>
+      <c r="B705" s="35"/>
     </row>
     <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A706" s="37"/>
-      <c r="B706" s="37"/>
+      <c r="A706" s="35"/>
+      <c r="B706" s="35"/>
     </row>
     <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A707" s="37"/>
-      <c r="B707" s="37"/>
+      <c r="A707" s="35"/>
+      <c r="B707" s="35"/>
     </row>
     <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A708" s="37"/>
-      <c r="B708" s="37"/>
+      <c r="A708" s="35"/>
+      <c r="B708" s="35"/>
     </row>
     <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A709" s="37"/>
-      <c r="B709" s="37"/>
+      <c r="A709" s="35"/>
+      <c r="B709" s="35"/>
     </row>
     <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A710" s="37"/>
-      <c r="B710" s="37"/>
+      <c r="A710" s="35"/>
+      <c r="B710" s="35"/>
     </row>
     <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A711" s="37"/>
-      <c r="B711" s="37"/>
+      <c r="A711" s="35"/>
+      <c r="B711" s="35"/>
     </row>
     <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A712" s="37"/>
-      <c r="B712" s="37"/>
+      <c r="A712" s="35"/>
+      <c r="B712" s="35"/>
     </row>
     <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A713" s="37"/>
-      <c r="B713" s="37"/>
+      <c r="A713" s="35"/>
+      <c r="B713" s="35"/>
     </row>
     <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A714" s="37"/>
-      <c r="B714" s="37"/>
+      <c r="A714" s="35"/>
+      <c r="B714" s="35"/>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A715" s="37"/>
-      <c r="B715" s="37"/>
+      <c r="A715" s="35"/>
+      <c r="B715" s="35"/>
     </row>
     <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A716" s="37"/>
-      <c r="B716" s="37"/>
+      <c r="A716" s="35"/>
+      <c r="B716" s="35"/>
     </row>
     <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A717" s="37"/>
-      <c r="B717" s="37"/>
+      <c r="A717" s="35"/>
+      <c r="B717" s="35"/>
     </row>
     <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A718" s="37"/>
-      <c r="B718" s="37"/>
+      <c r="A718" s="35"/>
+      <c r="B718" s="35"/>
     </row>
     <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A719" s="37"/>
-      <c r="B719" s="37"/>
+      <c r="A719" s="35"/>
+      <c r="B719" s="35"/>
     </row>
     <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A720" s="37"/>
-      <c r="B720" s="37"/>
+      <c r="A720" s="35"/>
+      <c r="B720" s="35"/>
     </row>
     <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A721" s="37"/>
-      <c r="B721" s="37"/>
+      <c r="A721" s="35"/>
+      <c r="B721" s="35"/>
     </row>
     <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A722" s="37"/>
-      <c r="B722" s="37"/>
+      <c r="A722" s="35"/>
+      <c r="B722" s="35"/>
     </row>
     <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A723" s="37"/>
-      <c r="B723" s="37"/>
+      <c r="A723" s="35"/>
+      <c r="B723" s="35"/>
     </row>
     <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A724" s="37"/>
-      <c r="B724" s="37"/>
+      <c r="A724" s="35"/>
+      <c r="B724" s="35"/>
     </row>
     <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A725" s="37"/>
-      <c r="B725" s="37"/>
+      <c r="A725" s="35"/>
+      <c r="B725" s="35"/>
     </row>
     <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A726" s="37"/>
-      <c r="B726" s="37"/>
+      <c r="A726" s="35"/>
+      <c r="B726" s="35"/>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A727" s="37"/>
-      <c r="B727" s="37"/>
+      <c r="A727" s="35"/>
+      <c r="B727" s="35"/>
     </row>
     <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A728" s="37"/>
-      <c r="B728" s="37"/>
+      <c r="A728" s="35"/>
+      <c r="B728" s="35"/>
     </row>
     <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A729" s="37"/>
-      <c r="B729" s="37"/>
+      <c r="A729" s="35"/>
+      <c r="B729" s="35"/>
     </row>
     <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A730" s="37"/>
-      <c r="B730" s="37"/>
+      <c r="A730" s="35"/>
+      <c r="B730" s="35"/>
     </row>
     <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A731" s="37"/>
-      <c r="B731" s="37"/>
+      <c r="A731" s="35"/>
+      <c r="B731" s="35"/>
     </row>
     <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A732" s="37"/>
-      <c r="B732" s="37"/>
+      <c r="A732" s="35"/>
+      <c r="B732" s="35"/>
     </row>
     <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A733" s="37"/>
-      <c r="B733" s="37"/>
+      <c r="A733" s="35"/>
+      <c r="B733" s="35"/>
     </row>
     <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A734" s="37"/>
-      <c r="B734" s="37"/>
+      <c r="A734" s="35"/>
+      <c r="B734" s="35"/>
     </row>
     <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A735" s="37"/>
-      <c r="B735" s="37"/>
+      <c r="A735" s="35"/>
+      <c r="B735" s="35"/>
     </row>
     <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A736" s="37"/>
-      <c r="B736" s="37"/>
+      <c r="A736" s="35"/>
+      <c r="B736" s="35"/>
     </row>
     <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A737" s="37"/>
-      <c r="B737" s="37"/>
+      <c r="A737" s="35"/>
+      <c r="B737" s="35"/>
     </row>
     <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A738" s="37"/>
-      <c r="B738" s="37"/>
+      <c r="A738" s="35"/>
+      <c r="B738" s="35"/>
     </row>
     <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A739" s="37"/>
-      <c r="B739" s="37"/>
+      <c r="A739" s="35"/>
+      <c r="B739" s="35"/>
     </row>
     <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A740" s="37"/>
-      <c r="B740" s="37"/>
+      <c r="A740" s="35"/>
+      <c r="B740" s="35"/>
     </row>
     <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A741" s="37"/>
-      <c r="B741" s="37"/>
+      <c r="A741" s="35"/>
+      <c r="B741" s="35"/>
     </row>
     <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A742" s="37"/>
-      <c r="B742" s="37"/>
+      <c r="A742" s="35"/>
+      <c r="B742" s="35"/>
     </row>
     <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A743" s="37"/>
-      <c r="B743" s="37"/>
+      <c r="A743" s="35"/>
+      <c r="B743" s="35"/>
     </row>
     <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A744" s="37"/>
-      <c r="B744" s="37"/>
+      <c r="A744" s="35"/>
+      <c r="B744" s="35"/>
     </row>
     <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A745" s="37"/>
-      <c r="B745" s="37"/>
+      <c r="A745" s="35"/>
+      <c r="B745" s="35"/>
     </row>
     <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A746" s="37"/>
-      <c r="B746" s="37"/>
+      <c r="A746" s="35"/>
+      <c r="B746" s="35"/>
     </row>
     <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A747" s="37"/>
-      <c r="B747" s="37"/>
+      <c r="A747" s="35"/>
+      <c r="B747" s="35"/>
     </row>
     <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A748" s="37"/>
-      <c r="B748" s="37"/>
+      <c r="A748" s="35"/>
+      <c r="B748" s="35"/>
     </row>
     <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A749" s="37"/>
-      <c r="B749" s="37"/>
+      <c r="A749" s="35"/>
+      <c r="B749" s="35"/>
     </row>
     <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A750" s="37"/>
-      <c r="B750" s="37"/>
+      <c r="A750" s="35"/>
+      <c r="B750" s="35"/>
     </row>
     <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A751" s="37"/>
-      <c r="B751" s="37"/>
+      <c r="A751" s="35"/>
+      <c r="B751" s="35"/>
     </row>
     <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A752" s="37"/>
-      <c r="B752" s="37"/>
+      <c r="A752" s="35"/>
+      <c r="B752" s="35"/>
     </row>
     <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A753" s="37"/>
-      <c r="B753" s="37"/>
+      <c r="A753" s="35"/>
+      <c r="B753" s="35"/>
     </row>
     <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A754" s="37"/>
-      <c r="B754" s="37"/>
+      <c r="A754" s="35"/>
+      <c r="B754" s="35"/>
     </row>
     <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A755" s="37"/>
-      <c r="B755" s="37"/>
+      <c r="A755" s="35"/>
+      <c r="B755" s="35"/>
     </row>
     <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A756" s="37"/>
-      <c r="B756" s="37"/>
+      <c r="A756" s="35"/>
+      <c r="B756" s="35"/>
     </row>
     <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A757" s="37"/>
-      <c r="B757" s="37"/>
+      <c r="A757" s="35"/>
+      <c r="B757" s="35"/>
     </row>
     <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A758" s="37"/>
-      <c r="B758" s="37"/>
+      <c r="A758" s="35"/>
+      <c r="B758" s="35"/>
     </row>
     <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A759" s="37"/>
-      <c r="B759" s="37"/>
+      <c r="A759" s="35"/>
+      <c r="B759" s="35"/>
     </row>
     <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A760" s="37"/>
-      <c r="B760" s="37"/>
+      <c r="A760" s="35"/>
+      <c r="B760" s="35"/>
     </row>
     <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A761" s="37"/>
-      <c r="B761" s="37"/>
+      <c r="A761" s="35"/>
+      <c r="B761" s="35"/>
     </row>
     <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A762" s="37"/>
-      <c r="B762" s="37"/>
+      <c r="A762" s="35"/>
+      <c r="B762" s="35"/>
     </row>
     <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A763" s="37"/>
-      <c r="B763" s="37"/>
+      <c r="A763" s="35"/>
+      <c r="B763" s="35"/>
     </row>
     <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A764" s="37"/>
-      <c r="B764" s="37"/>
+      <c r="A764" s="35"/>
+      <c r="B764" s="35"/>
     </row>
     <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A765" s="37"/>
-      <c r="B765" s="37"/>
+      <c r="A765" s="35"/>
+      <c r="B765" s="35"/>
     </row>
     <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A766" s="37"/>
-      <c r="B766" s="37"/>
+      <c r="A766" s="35"/>
+      <c r="B766" s="35"/>
     </row>
     <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A767" s="37"/>
-      <c r="B767" s="37"/>
+      <c r="A767" s="35"/>
+      <c r="B767" s="35"/>
     </row>
     <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A768" s="37"/>
-      <c r="B768" s="37"/>
+      <c r="A768" s="35"/>
+      <c r="B768" s="35"/>
     </row>
     <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A769" s="37"/>
-      <c r="B769" s="37"/>
+      <c r="A769" s="35"/>
+      <c r="B769" s="35"/>
     </row>
     <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A770" s="37"/>
-      <c r="B770" s="37"/>
+      <c r="A770" s="35"/>
+      <c r="B770" s="35"/>
     </row>
     <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A771" s="37"/>
-      <c r="B771" s="37"/>
+      <c r="A771" s="35"/>
+      <c r="B771" s="35"/>
     </row>
     <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A772" s="37"/>
-      <c r="B772" s="37"/>
+      <c r="A772" s="35"/>
+      <c r="B772" s="35"/>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A773" s="37"/>
-      <c r="B773" s="37"/>
+      <c r="A773" s="35"/>
+      <c r="B773" s="35"/>
     </row>
     <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A774" s="37"/>
-      <c r="B774" s="37"/>
+      <c r="A774" s="35"/>
+      <c r="B774" s="35"/>
     </row>
     <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A775" s="37"/>
-      <c r="B775" s="37"/>
+      <c r="A775" s="35"/>
+      <c r="B775" s="35"/>
     </row>
     <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A776" s="37"/>
-      <c r="B776" s="37"/>
+      <c r="A776" s="35"/>
+      <c r="B776" s="35"/>
     </row>
     <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A777" s="37"/>
-      <c r="B777" s="37"/>
+      <c r="A777" s="35"/>
+      <c r="B777" s="35"/>
     </row>
     <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A778" s="37"/>
-      <c r="B778" s="37"/>
+      <c r="A778" s="35"/>
+      <c r="B778" s="35"/>
     </row>
     <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A779" s="37"/>
-      <c r="B779" s="37"/>
+      <c r="A779" s="35"/>
+      <c r="B779" s="35"/>
     </row>
     <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A780" s="37"/>
-      <c r="B780" s="37"/>
+      <c r="A780" s="35"/>
+      <c r="B780" s="35"/>
     </row>
     <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A781" s="37"/>
-      <c r="B781" s="37"/>
+      <c r="A781" s="35"/>
+      <c r="B781" s="35"/>
     </row>
     <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A782" s="37"/>
-      <c r="B782" s="37"/>
+      <c r="A782" s="35"/>
+      <c r="B782" s="35"/>
     </row>
     <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A783" s="37"/>
-      <c r="B783" s="37"/>
+      <c r="A783" s="35"/>
+      <c r="B783" s="35"/>
     </row>
     <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A784" s="37"/>
-      <c r="B784" s="37"/>
+      <c r="A784" s="35"/>
+      <c r="B784" s="35"/>
     </row>
     <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A785" s="37"/>
-      <c r="B785" s="37"/>
+      <c r="A785" s="35"/>
+      <c r="B785" s="35"/>
     </row>
     <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A786" s="37"/>
-      <c r="B786" s="37"/>
+      <c r="A786" s="35"/>
+      <c r="B786" s="35"/>
     </row>
     <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A787" s="37"/>
-      <c r="B787" s="37"/>
+      <c r="A787" s="35"/>
+      <c r="B787" s="35"/>
     </row>
     <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A788" s="37"/>
-      <c r="B788" s="37"/>
+      <c r="A788" s="35"/>
+      <c r="B788" s="35"/>
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A789" s="37"/>
-      <c r="B789" s="37"/>
+      <c r="A789" s="35"/>
+      <c r="B789" s="35"/>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A790" s="37"/>
-      <c r="B790" s="37"/>
+      <c r="A790" s="35"/>
+      <c r="B790" s="35"/>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A791" s="37"/>
-      <c r="B791" s="37"/>
+      <c r="A791" s="35"/>
+      <c r="B791" s="35"/>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A792" s="37"/>
-      <c r="B792" s="37"/>
+      <c r="A792" s="35"/>
+      <c r="B792" s="35"/>
     </row>
     <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A793" s="37"/>
-      <c r="B793" s="37"/>
+      <c r="A793" s="35"/>
+      <c r="B793" s="35"/>
     </row>
     <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A794" s="37"/>
-      <c r="B794" s="37"/>
+      <c r="A794" s="35"/>
+      <c r="B794" s="35"/>
     </row>
     <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A795" s="37"/>
-      <c r="B795" s="37"/>
+      <c r="A795" s="35"/>
+      <c r="B795" s="35"/>
     </row>
     <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A796" s="37"/>
-      <c r="B796" s="37"/>
+      <c r="A796" s="35"/>
+      <c r="B796" s="35"/>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A797" s="37"/>
-      <c r="B797" s="37"/>
+      <c r="A797" s="35"/>
+      <c r="B797" s="35"/>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A798" s="37"/>
-      <c r="B798" s="37"/>
+      <c r="A798" s="35"/>
+      <c r="B798" s="35"/>
     </row>
     <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A799" s="37"/>
-      <c r="B799" s="37"/>
+      <c r="A799" s="35"/>
+      <c r="B799" s="35"/>
     </row>
     <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A800" s="37"/>
-      <c r="B800" s="37"/>
+      <c r="A800" s="35"/>
+      <c r="B800" s="35"/>
     </row>
     <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A801" s="37"/>
-      <c r="B801" s="37"/>
+      <c r="A801" s="35"/>
+      <c r="B801" s="35"/>
     </row>
     <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A802" s="37"/>
-      <c r="B802" s="37"/>
+      <c r="A802" s="35"/>
+      <c r="B802" s="35"/>
     </row>
     <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A803" s="37"/>
-      <c r="B803" s="37"/>
+      <c r="A803" s="35"/>
+      <c r="B803" s="35"/>
     </row>
     <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A804" s="37"/>
-      <c r="B804" s="37"/>
+      <c r="A804" s="35"/>
+      <c r="B804" s="35"/>
     </row>
     <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A805" s="37"/>
-      <c r="B805" s="37"/>
+      <c r="A805" s="35"/>
+      <c r="B805" s="35"/>
     </row>
     <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A806" s="37"/>
-      <c r="B806" s="37"/>
+      <c r="A806" s="35"/>
+      <c r="B806" s="35"/>
     </row>
     <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A807" s="37"/>
-      <c r="B807" s="37"/>
+      <c r="A807" s="35"/>
+      <c r="B807" s="35"/>
     </row>
     <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A808" s="37"/>
-      <c r="B808" s="37"/>
+      <c r="A808" s="35"/>
+      <c r="B808" s="35"/>
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A809" s="37"/>
-      <c r="B809" s="37"/>
+      <c r="A809" s="35"/>
+      <c r="B809" s="35"/>
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A810" s="37"/>
-      <c r="B810" s="37"/>
+      <c r="A810" s="35"/>
+      <c r="B810" s="35"/>
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A811" s="37"/>
-      <c r="B811" s="37"/>
+      <c r="A811" s="35"/>
+      <c r="B811" s="35"/>
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A812" s="37"/>
-      <c r="B812" s="37"/>
+      <c r="A812" s="35"/>
+      <c r="B812" s="35"/>
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A813" s="37"/>
-      <c r="B813" s="37"/>
+      <c r="A813" s="35"/>
+      <c r="B813" s="35"/>
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A814" s="37"/>
-      <c r="B814" s="37"/>
+      <c r="A814" s="35"/>
+      <c r="B814" s="35"/>
     </row>
     <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A815" s="37"/>
-      <c r="B815" s="37"/>
+      <c r="A815" s="35"/>
+      <c r="B815" s="35"/>
     </row>
     <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A816" s="37"/>
-      <c r="B816" s="37"/>
+      <c r="A816" s="35"/>
+      <c r="B816" s="35"/>
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A817" s="37"/>
-      <c r="B817" s="37"/>
+      <c r="A817" s="35"/>
+      <c r="B817" s="35"/>
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A818" s="37"/>
-      <c r="B818" s="37"/>
+      <c r="A818" s="35"/>
+      <c r="B818" s="35"/>
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A819" s="37"/>
-      <c r="B819" s="37"/>
+      <c r="A819" s="35"/>
+      <c r="B819" s="35"/>
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A820" s="37"/>
-      <c r="B820" s="37"/>
+      <c r="A820" s="35"/>
+      <c r="B820" s="35"/>
     </row>
     <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A821" s="37"/>
-      <c r="B821" s="37"/>
+      <c r="A821" s="35"/>
+      <c r="B821" s="35"/>
     </row>
     <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A822" s="37"/>
-      <c r="B822" s="37"/>
+      <c r="A822" s="35"/>
+      <c r="B822" s="35"/>
     </row>
     <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A823" s="37"/>
-      <c r="B823" s="37"/>
+      <c r="A823" s="35"/>
+      <c r="B823" s="35"/>
     </row>
     <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A824" s="37"/>
-      <c r="B824" s="37"/>
+      <c r="A824" s="35"/>
+      <c r="B824" s="35"/>
     </row>
     <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A825" s="37"/>
-      <c r="B825" s="37"/>
+      <c r="A825" s="35"/>
+      <c r="B825" s="35"/>
     </row>
     <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A826" s="37"/>
-      <c r="B826" s="37"/>
+      <c r="A826" s="35"/>
+      <c r="B826" s="35"/>
     </row>
     <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A827" s="37"/>
-      <c r="B827" s="37"/>
+      <c r="A827" s="35"/>
+      <c r="B827" s="35"/>
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A828" s="37"/>
-      <c r="B828" s="37"/>
+      <c r="A828" s="35"/>
+      <c r="B828" s="35"/>
     </row>
     <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A829" s="37"/>
-      <c r="B829" s="37"/>
+      <c r="A829" s="35"/>
+      <c r="B829" s="35"/>
     </row>
     <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A830" s="37"/>
-      <c r="B830" s="37"/>
+      <c r="A830" s="35"/>
+      <c r="B830" s="35"/>
     </row>
     <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A831" s="37"/>
-      <c r="B831" s="37"/>
+      <c r="A831" s="35"/>
+      <c r="B831" s="35"/>
     </row>
     <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A832" s="37"/>
-      <c r="B832" s="37"/>
+      <c r="A832" s="35"/>
+      <c r="B832" s="35"/>
     </row>
     <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A833" s="37"/>
-      <c r="B833" s="37"/>
+      <c r="A833" s="35"/>
+      <c r="B833" s="35"/>
     </row>
     <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A834" s="37"/>
-      <c r="B834" s="37"/>
+      <c r="A834" s="35"/>
+      <c r="B834" s="35"/>
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A835" s="37"/>
-      <c r="B835" s="37"/>
+      <c r="A835" s="35"/>
+      <c r="B835" s="35"/>
     </row>
     <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A836" s="37"/>
-      <c r="B836" s="37"/>
+      <c r="A836" s="35"/>
+      <c r="B836" s="35"/>
     </row>
     <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A837" s="37"/>
-      <c r="B837" s="37"/>
+      <c r="A837" s="35"/>
+      <c r="B837" s="35"/>
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A838" s="37"/>
-      <c r="B838" s="37"/>
+      <c r="A838" s="35"/>
+      <c r="B838" s="35"/>
     </row>
     <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A839" s="37"/>
-      <c r="B839" s="37"/>
+      <c r="A839" s="35"/>
+      <c r="B839" s="35"/>
     </row>
     <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A840" s="37"/>
-      <c r="B840" s="37"/>
+      <c r="A840" s="35"/>
+      <c r="B840" s="35"/>
     </row>
     <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A841" s="37"/>
-      <c r="B841" s="37"/>
+      <c r="A841" s="35"/>
+      <c r="B841" s="35"/>
     </row>
     <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A842" s="37"/>
-      <c r="B842" s="37"/>
+      <c r="A842" s="35"/>
+      <c r="B842" s="35"/>
     </row>
     <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A843" s="37"/>
-      <c r="B843" s="37"/>
+      <c r="A843" s="35"/>
+      <c r="B843" s="35"/>
     </row>
     <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A844" s="37"/>
-      <c r="B844" s="37"/>
+      <c r="A844" s="35"/>
+      <c r="B844" s="35"/>
     </row>
     <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A845" s="37"/>
-      <c r="B845" s="37"/>
+      <c r="A845" s="35"/>
+      <c r="B845" s="35"/>
     </row>
     <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A846" s="37"/>
-      <c r="B846" s="37"/>
+      <c r="A846" s="35"/>
+      <c r="B846" s="35"/>
     </row>
     <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A847" s="37"/>
-      <c r="B847" s="37"/>
+      <c r="A847" s="35"/>
+      <c r="B847" s="35"/>
     </row>
     <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A848" s="37"/>
-      <c r="B848" s="37"/>
+      <c r="A848" s="35"/>
+      <c r="B848" s="35"/>
     </row>
     <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A849" s="37"/>
-      <c r="B849" s="37"/>
+      <c r="A849" s="35"/>
+      <c r="B849" s="35"/>
     </row>
     <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A850" s="37"/>
-      <c r="B850" s="37"/>
+      <c r="A850" s="35"/>
+      <c r="B850" s="35"/>
     </row>
     <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A851" s="37"/>
-      <c r="B851" s="37"/>
+      <c r="A851" s="35"/>
+      <c r="B851" s="35"/>
     </row>
     <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A852" s="37"/>
-      <c r="B852" s="37"/>
+      <c r="A852" s="35"/>
+      <c r="B852" s="35"/>
     </row>
     <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A853" s="37"/>
-      <c r="B853" s="37"/>
+      <c r="A853" s="35"/>
+      <c r="B853" s="35"/>
     </row>
     <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A854" s="37"/>
-      <c r="B854" s="37"/>
+      <c r="A854" s="35"/>
+      <c r="B854" s="35"/>
     </row>
     <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A855" s="37"/>
-      <c r="B855" s="37"/>
+      <c r="A855" s="35"/>
+      <c r="B855" s="35"/>
     </row>
     <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A856" s="37"/>
-      <c r="B856" s="37"/>
+      <c r="A856" s="35"/>
+      <c r="B856" s="35"/>
     </row>
     <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A857" s="37"/>
-      <c r="B857" s="37"/>
+      <c r="A857" s="35"/>
+      <c r="B857" s="35"/>
     </row>
     <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A858" s="37"/>
-      <c r="B858" s="37"/>
+      <c r="A858" s="35"/>
+      <c r="B858" s="35"/>
     </row>
     <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A859" s="37"/>
-      <c r="B859" s="37"/>
+      <c r="A859" s="35"/>
+      <c r="B859" s="35"/>
     </row>
     <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A860" s="37"/>
-      <c r="B860" s="37"/>
+      <c r="A860" s="35"/>
+      <c r="B860" s="35"/>
     </row>
     <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A861" s="37"/>
-      <c r="B861" s="37"/>
+      <c r="A861" s="35"/>
+      <c r="B861" s="35"/>
     </row>
     <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A862" s="37"/>
-      <c r="B862" s="37"/>
+      <c r="A862" s="35"/>
+      <c r="B862" s="35"/>
     </row>
     <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A863" s="37"/>
-      <c r="B863" s="37"/>
+      <c r="A863" s="35"/>
+      <c r="B863" s="35"/>
     </row>
     <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A864" s="37"/>
-      <c r="B864" s="37"/>
+      <c r="A864" s="35"/>
+      <c r="B864" s="35"/>
     </row>
     <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A865" s="37"/>
-      <c r="B865" s="37"/>
+      <c r="A865" s="35"/>
+      <c r="B865" s="35"/>
     </row>
     <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A866" s="37"/>
-      <c r="B866" s="37"/>
+      <c r="A866" s="35"/>
+      <c r="B866" s="35"/>
     </row>
     <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A867" s="37"/>
-      <c r="B867" s="37"/>
+      <c r="A867" s="35"/>
+      <c r="B867" s="35"/>
     </row>
     <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A868" s="37"/>
-      <c r="B868" s="37"/>
+      <c r="A868" s="35"/>
+      <c r="B868" s="35"/>
     </row>
     <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A869" s="37"/>
-      <c r="B869" s="37"/>
+      <c r="A869" s="35"/>
+      <c r="B869" s="35"/>
     </row>
     <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A870" s="37"/>
-      <c r="B870" s="37"/>
+      <c r="A870" s="35"/>
+      <c r="B870" s="35"/>
     </row>
     <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A871" s="37"/>
-      <c r="B871" s="37"/>
+      <c r="A871" s="35"/>
+      <c r="B871" s="35"/>
     </row>
     <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A872" s="37"/>
-      <c r="B872" s="37"/>
+      <c r="A872" s="35"/>
+      <c r="B872" s="35"/>
     </row>
     <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A873" s="37"/>
-      <c r="B873" s="37"/>
+      <c r="A873" s="35"/>
+      <c r="B873" s="35"/>
     </row>
     <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A874" s="37"/>
-      <c r="B874" s="37"/>
+      <c r="A874" s="35"/>
+      <c r="B874" s="35"/>
     </row>
     <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A875" s="37"/>
-      <c r="B875" s="37"/>
+      <c r="A875" s="35"/>
+      <c r="B875" s="35"/>
     </row>
     <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A876" s="37"/>
-      <c r="B876" s="37"/>
+      <c r="A876" s="35"/>
+      <c r="B876" s="35"/>
     </row>
     <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A877" s="37"/>
-      <c r="B877" s="37"/>
+      <c r="A877" s="35"/>
+      <c r="B877" s="35"/>
     </row>
     <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A878" s="37"/>
-      <c r="B878" s="37"/>
+      <c r="A878" s="35"/>
+      <c r="B878" s="35"/>
     </row>
     <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A879" s="37"/>
-      <c r="B879" s="37"/>
+      <c r="A879" s="35"/>
+      <c r="B879" s="35"/>
     </row>
     <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A880" s="37"/>
-      <c r="B880" s="37"/>
+      <c r="A880" s="35"/>
+      <c r="B880" s="35"/>
     </row>
     <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A881" s="37"/>
-      <c r="B881" s="37"/>
+      <c r="A881" s="35"/>
+      <c r="B881" s="35"/>
     </row>
     <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A882" s="37"/>
-      <c r="B882" s="37"/>
+      <c r="A882" s="35"/>
+      <c r="B882" s="35"/>
     </row>
     <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A883" s="37"/>
-      <c r="B883" s="37"/>
+      <c r="A883" s="35"/>
+      <c r="B883" s="35"/>
     </row>
     <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A884" s="37"/>
-      <c r="B884" s="37"/>
+      <c r="A884" s="35"/>
+      <c r="B884" s="35"/>
     </row>
     <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A885" s="37"/>
-      <c r="B885" s="37"/>
+      <c r="A885" s="35"/>
+      <c r="B885" s="35"/>
     </row>
     <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A886" s="37"/>
-      <c r="B886" s="37"/>
+      <c r="A886" s="35"/>
+      <c r="B886" s="35"/>
     </row>
     <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A887" s="37"/>
-      <c r="B887" s="37"/>
+      <c r="A887" s="35"/>
+      <c r="B887" s="35"/>
     </row>
     <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A888" s="37"/>
-      <c r="B888" s="37"/>
+      <c r="A888" s="35"/>
+      <c r="B888" s="35"/>
     </row>
     <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A889" s="37"/>
-      <c r="B889" s="37"/>
+      <c r="A889" s="35"/>
+      <c r="B889" s="35"/>
     </row>
     <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A890" s="37"/>
-      <c r="B890" s="37"/>
+      <c r="A890" s="35"/>
+      <c r="B890" s="35"/>
     </row>
     <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A891" s="37"/>
-      <c r="B891" s="37"/>
+      <c r="A891" s="35"/>
+      <c r="B891" s="35"/>
     </row>
     <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A892" s="37"/>
-      <c r="B892" s="37"/>
+      <c r="A892" s="35"/>
+      <c r="B892" s="35"/>
     </row>
     <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A893" s="37"/>
-      <c r="B893" s="37"/>
+      <c r="A893" s="35"/>
+      <c r="B893" s="35"/>
     </row>
     <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A894" s="37"/>
-      <c r="B894" s="37"/>
+      <c r="A894" s="35"/>
+      <c r="B894" s="35"/>
     </row>
     <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A895" s="37"/>
-      <c r="B895" s="37"/>
+      <c r="A895" s="35"/>
+      <c r="B895" s="35"/>
     </row>
     <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A896" s="37"/>
-      <c r="B896" s="37"/>
+      <c r="A896" s="35"/>
+      <c r="B896" s="35"/>
     </row>
     <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A897" s="37"/>
-      <c r="B897" s="37"/>
+      <c r="A897" s="35"/>
+      <c r="B897" s="35"/>
     </row>
     <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A898" s="37"/>
-      <c r="B898" s="37"/>
+      <c r="A898" s="35"/>
+      <c r="B898" s="35"/>
     </row>
     <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A899" s="37"/>
-      <c r="B899" s="37"/>
+      <c r="A899" s="35"/>
+      <c r="B899" s="35"/>
     </row>
     <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A900" s="37"/>
-      <c r="B900" s="37"/>
+      <c r="A900" s="35"/>
+      <c r="B900" s="35"/>
     </row>
     <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A901" s="37"/>
-      <c r="B901" s="37"/>
+      <c r="A901" s="35"/>
+      <c r="B901" s="35"/>
     </row>
     <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A902" s="37"/>
-      <c r="B902" s="37"/>
+      <c r="A902" s="35"/>
+      <c r="B902" s="35"/>
     </row>
     <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A903" s="37"/>
-      <c r="B903" s="37"/>
+      <c r="A903" s="35"/>
+      <c r="B903" s="35"/>
     </row>
     <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A904" s="37"/>
-      <c r="B904" s="37"/>
+      <c r="A904" s="35"/>
+      <c r="B904" s="35"/>
     </row>
     <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A905" s="37"/>
-      <c r="B905" s="37"/>
+      <c r="A905" s="35"/>
+      <c r="B905" s="35"/>
     </row>
     <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A906" s="37"/>
-      <c r="B906" s="37"/>
+      <c r="A906" s="35"/>
+      <c r="B906" s="35"/>
     </row>
     <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A907" s="37"/>
-      <c r="B907" s="37"/>
+      <c r="A907" s="35"/>
+      <c r="B907" s="35"/>
     </row>
     <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A908" s="37"/>
-      <c r="B908" s="37"/>
+      <c r="A908" s="35"/>
+      <c r="B908" s="35"/>
     </row>
     <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A909" s="37"/>
-      <c r="B909" s="37"/>
+      <c r="A909" s="35"/>
+      <c r="B909" s="35"/>
     </row>
     <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A910" s="37"/>
-      <c r="B910" s="37"/>
+      <c r="A910" s="35"/>
+      <c r="B910" s="35"/>
     </row>
     <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A911" s="37"/>
-      <c r="B911" s="37"/>
+      <c r="A911" s="35"/>
+      <c r="B911" s="35"/>
     </row>
     <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A912" s="37"/>
-      <c r="B912" s="37"/>
+      <c r="A912" s="35"/>
+      <c r="B912" s="35"/>
     </row>
     <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A913" s="37"/>
-      <c r="B913" s="37"/>
+      <c r="A913" s="35"/>
+      <c r="B913" s="35"/>
     </row>
     <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A914" s="37"/>
-      <c r="B914" s="37"/>
+      <c r="A914" s="35"/>
+      <c r="B914" s="35"/>
     </row>
     <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A915" s="37"/>
-      <c r="B915" s="37"/>
+      <c r="A915" s="35"/>
+      <c r="B915" s="35"/>
     </row>
     <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A916" s="37"/>
-      <c r="B916" s="37"/>
+      <c r="A916" s="35"/>
+      <c r="B916" s="35"/>
     </row>
     <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A917" s="37"/>
-      <c r="B917" s="37"/>
+      <c r="A917" s="35"/>
+      <c r="B917" s="35"/>
     </row>
     <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A918" s="37"/>
-      <c r="B918" s="37"/>
+      <c r="A918" s="35"/>
+      <c r="B918" s="35"/>
     </row>
     <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A919" s="37"/>
-      <c r="B919" s="37"/>
+      <c r="A919" s="35"/>
+      <c r="B919" s="35"/>
     </row>
     <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A920" s="37"/>
-      <c r="B920" s="37"/>
+      <c r="A920" s="35"/>
+      <c r="B920" s="35"/>
     </row>
     <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A921" s="37"/>
-      <c r="B921" s="37"/>
+      <c r="A921" s="35"/>
+      <c r="B921" s="35"/>
     </row>
     <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A922" s="37"/>
-      <c r="B922" s="37"/>
+      <c r="A922" s="35"/>
+      <c r="B922" s="35"/>
     </row>
     <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A923" s="37"/>
-      <c r="B923" s="37"/>
+      <c r="A923" s="35"/>
+      <c r="B923" s="35"/>
     </row>
     <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A924" s="37"/>
-      <c r="B924" s="37"/>
+      <c r="A924" s="35"/>
+      <c r="B924" s="35"/>
     </row>
     <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A925" s="37"/>
-      <c r="B925" s="37"/>
+      <c r="A925" s="35"/>
+      <c r="B925" s="35"/>
     </row>
     <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A926" s="37"/>
-      <c r="B926" s="37"/>
+      <c r="A926" s="35"/>
+      <c r="B926" s="35"/>
     </row>
     <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A927" s="37"/>
-      <c r="B927" s="37"/>
+      <c r="A927" s="35"/>
+      <c r="B927" s="35"/>
     </row>
     <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A928" s="37"/>
-      <c r="B928" s="37"/>
+      <c r="A928" s="35"/>
+      <c r="B928" s="35"/>
     </row>
     <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A929" s="37"/>
-      <c r="B929" s="37"/>
+      <c r="A929" s="35"/>
+      <c r="B929" s="35"/>
     </row>
     <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A930" s="37"/>
-      <c r="B930" s="37"/>
+      <c r="A930" s="35"/>
+      <c r="B930" s="35"/>
     </row>
     <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A931" s="37"/>
-      <c r="B931" s="37"/>
+      <c r="A931" s="35"/>
+      <c r="B931" s="35"/>
     </row>
     <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A932" s="37"/>
-      <c r="B932" s="37"/>
+      <c r="A932" s="35"/>
+      <c r="B932" s="35"/>
     </row>
     <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A933" s="37"/>
-      <c r="B933" s="37"/>
+      <c r="A933" s="35"/>
+      <c r="B933" s="35"/>
     </row>
     <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A934" s="37"/>
-      <c r="B934" s="37"/>
+      <c r="A934" s="35"/>
+      <c r="B934" s="35"/>
     </row>
     <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A935" s="37"/>
-      <c r="B935" s="37"/>
+      <c r="A935" s="35"/>
+      <c r="B935" s="35"/>
     </row>
     <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A936" s="37"/>
-      <c r="B936" s="37"/>
+      <c r="A936" s="35"/>
+      <c r="B936" s="35"/>
     </row>
     <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A937" s="37"/>
-      <c r="B937" s="37"/>
+      <c r="A937" s="35"/>
+      <c r="B937" s="35"/>
     </row>
     <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A938" s="37"/>
-      <c r="B938" s="37"/>
+      <c r="A938" s="35"/>
+      <c r="B938" s="35"/>
     </row>
     <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A939" s="37"/>
-      <c r="B939" s="37"/>
+      <c r="A939" s="35"/>
+      <c r="B939" s="35"/>
     </row>
     <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A940" s="37"/>
-      <c r="B940" s="37"/>
+      <c r="A940" s="35"/>
+      <c r="B940" s="35"/>
     </row>
     <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A941" s="37"/>
-      <c r="B941" s="37"/>
+      <c r="A941" s="35"/>
+      <c r="B941" s="35"/>
     </row>
     <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A942" s="37"/>
-      <c r="B942" s="37"/>
+      <c r="A942" s="35"/>
+      <c r="B942" s="35"/>
     </row>
     <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A943" s="37"/>
-      <c r="B943" s="37"/>
+      <c r="A943" s="35"/>
+      <c r="B943" s="35"/>
     </row>
     <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A944" s="37"/>
-      <c r="B944" s="37"/>
+      <c r="A944" s="35"/>
+      <c r="B944" s="35"/>
     </row>
     <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A945" s="37"/>
-      <c r="B945" s="37"/>
+      <c r="A945" s="35"/>
+      <c r="B945" s="35"/>
     </row>
     <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A946" s="37"/>
-      <c r="B946" s="37"/>
+      <c r="A946" s="35"/>
+      <c r="B946" s="35"/>
     </row>
     <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A947" s="37"/>
-      <c r="B947" s="37"/>
+      <c r="A947" s="35"/>
+      <c r="B947" s="35"/>
     </row>
     <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A948" s="37"/>
-      <c r="B948" s="37"/>
+      <c r="A948" s="35"/>
+      <c r="B948" s="35"/>
     </row>
     <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A949" s="37"/>
-      <c r="B949" s="37"/>
+      <c r="A949" s="35"/>
+      <c r="B949" s="35"/>
     </row>
     <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A950" s="37"/>
-      <c r="B950" s="37"/>
+      <c r="A950" s="35"/>
+      <c r="B950" s="35"/>
     </row>
     <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A951" s="37"/>
-      <c r="B951" s="37"/>
+      <c r="A951" s="35"/>
+      <c r="B951" s="35"/>
     </row>
     <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A952" s="37"/>
-      <c r="B952" s="37"/>
+      <c r="A952" s="35"/>
+      <c r="B952" s="35"/>
     </row>
     <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A953" s="37"/>
-      <c r="B953" s="37"/>
+      <c r="A953" s="35"/>
+      <c r="B953" s="35"/>
     </row>
     <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A954" s="37"/>
-      <c r="B954" s="37"/>
+      <c r="A954" s="35"/>
+      <c r="B954" s="35"/>
     </row>
     <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A955" s="37"/>
-      <c r="B955" s="37"/>
+      <c r="A955" s="35"/>
+      <c r="B955" s="35"/>
     </row>
     <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A956" s="37"/>
-      <c r="B956" s="37"/>
+      <c r="A956" s="35"/>
+      <c r="B956" s="35"/>
     </row>
     <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A957" s="37"/>
-      <c r="B957" s="37"/>
+      <c r="A957" s="35"/>
+      <c r="B957" s="35"/>
     </row>
     <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A958" s="37"/>
-      <c r="B958" s="37"/>
+      <c r="A958" s="35"/>
+      <c r="B958" s="35"/>
     </row>
     <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A959" s="37"/>
-      <c r="B959" s="37"/>
+      <c r="A959" s="35"/>
+      <c r="B959" s="35"/>
     </row>
     <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A960" s="37"/>
-      <c r="B960" s="37"/>
+      <c r="A960" s="35"/>
+      <c r="B960" s="35"/>
     </row>
     <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A961" s="37"/>
-      <c r="B961" s="37"/>
+      <c r="A961" s="35"/>
+      <c r="B961" s="35"/>
     </row>
     <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A962" s="37"/>
-      <c r="B962" s="37"/>
+      <c r="A962" s="35"/>
+      <c r="B962" s="35"/>
     </row>
     <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A963" s="37"/>
-      <c r="B963" s="37"/>
+      <c r="A963" s="35"/>
+      <c r="B963" s="35"/>
     </row>
     <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A964" s="37"/>
-      <c r="B964" s="37"/>
+      <c r="A964" s="35"/>
+      <c r="B964" s="35"/>
     </row>
     <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A965" s="37"/>
-      <c r="B965" s="37"/>
+      <c r="A965" s="35"/>
+      <c r="B965" s="35"/>
     </row>
     <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A966" s="37"/>
-      <c r="B966" s="37"/>
+      <c r="A966" s="35"/>
+      <c r="B966" s="35"/>
     </row>
     <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A967" s="37"/>
-      <c r="B967" s="37"/>
+      <c r="A967" s="35"/>
+      <c r="B967" s="35"/>
     </row>
     <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A968" s="37"/>
-      <c r="B968" s="37"/>
+      <c r="A968" s="35"/>
+      <c r="B968" s="35"/>
     </row>
     <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A969" s="37"/>
-      <c r="B969" s="37"/>
+      <c r="A969" s="35"/>
+      <c r="B969" s="35"/>
     </row>
     <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A970" s="37"/>
-      <c r="B970" s="37"/>
+      <c r="A970" s="35"/>
+      <c r="B970" s="35"/>
     </row>
     <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A971" s="37"/>
-      <c r="B971" s="37"/>
+      <c r="A971" s="35"/>
+      <c r="B971" s="35"/>
     </row>
     <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A972" s="37"/>
-      <c r="B972" s="37"/>
+      <c r="A972" s="35"/>
+      <c r="B972" s="35"/>
     </row>
     <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A973" s="37"/>
-      <c r="B973" s="37"/>
+      <c r="A973" s="35"/>
+      <c r="B973" s="35"/>
     </row>
     <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A974" s="37"/>
-      <c r="B974" s="37"/>
+      <c r="A974" s="35"/>
+      <c r="B974" s="35"/>
     </row>
     <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A975" s="37"/>
-      <c r="B975" s="37"/>
+      <c r="A975" s="35"/>
+      <c r="B975" s="35"/>
     </row>
     <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A976" s="37"/>
-      <c r="B976" s="37"/>
+      <c r="A976" s="35"/>
+      <c r="B976" s="35"/>
     </row>
     <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A977" s="37"/>
-      <c r="B977" s="37"/>
+      <c r="A977" s="35"/>
+      <c r="B977" s="35"/>
     </row>
     <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A978" s="37"/>
-      <c r="B978" s="37"/>
+      <c r="A978" s="35"/>
+      <c r="B978" s="35"/>
     </row>
     <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A979" s="37"/>
-      <c r="B979" s="37"/>
+      <c r="A979" s="35"/>
+      <c r="B979" s="35"/>
     </row>
     <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A980" s="37"/>
-      <c r="B980" s="37"/>
+      <c r="A980" s="35"/>
+      <c r="B980" s="35"/>
     </row>
     <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A981" s="37"/>
-      <c r="B981" s="37"/>
+      <c r="A981" s="35"/>
+      <c r="B981" s="35"/>
     </row>
     <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A982" s="37"/>
-      <c r="B982" s="37"/>
+      <c r="A982" s="35"/>
+      <c r="B982" s="35"/>
     </row>
     <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A983" s="37"/>
-      <c r="B983" s="37"/>
+      <c r="A983" s="35"/>
+      <c r="B983" s="35"/>
     </row>
     <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A984" s="37"/>
-      <c r="B984" s="37"/>
+      <c r="A984" s="35"/>
+      <c r="B984" s="35"/>
     </row>
     <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A985" s="37"/>
-      <c r="B985" s="37"/>
+      <c r="A985" s="35"/>
+      <c r="B985" s="35"/>
     </row>
     <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A986" s="37"/>
-      <c r="B986" s="37"/>
+      <c r="A986" s="35"/>
+      <c r="B986" s="35"/>
     </row>
     <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A987" s="37"/>
-      <c r="B987" s="37"/>
+      <c r="A987" s="35"/>
+      <c r="B987" s="35"/>
     </row>
     <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A988" s="37"/>
-      <c r="B988" s="37"/>
+      <c r="A988" s="35"/>
+      <c r="B988" s="35"/>
     </row>
     <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A989" s="37"/>
-      <c r="B989" s="37"/>
+      <c r="A989" s="35"/>
+      <c r="B989" s="35"/>
     </row>
     <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A990" s="37"/>
-      <c r="B990" s="37"/>
+      <c r="A990" s="35"/>
+      <c r="B990" s="35"/>
     </row>
     <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A991" s="37"/>
-      <c r="B991" s="37"/>
+      <c r="A991" s="35"/>
+      <c r="B991" s="35"/>
     </row>
     <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A992" s="37"/>
-      <c r="B992" s="37"/>
+      <c r="A992" s="35"/>
+      <c r="B992" s="35"/>
     </row>
     <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A993" s="37"/>
-      <c r="B993" s="37"/>
+      <c r="A993" s="35"/>
+      <c r="B993" s="35"/>
     </row>
     <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A994" s="37"/>
-      <c r="B994" s="37"/>
+      <c r="A994" s="35"/>
+      <c r="B994" s="35"/>
     </row>
     <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A995" s="37"/>
-      <c r="B995" s="37"/>
+      <c r="A995" s="35"/>
+      <c r="B995" s="35"/>
     </row>
     <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A996" s="37"/>
-      <c r="B996" s="37"/>
+      <c r="A996" s="35"/>
+      <c r="B996" s="35"/>
     </row>
     <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A997" s="37"/>
-      <c r="B997" s="37"/>
+      <c r="A997" s="35"/>
+      <c r="B997" s="35"/>
     </row>
     <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A998" s="37"/>
-      <c r="B998" s="37"/>
+      <c r="A998" s="35"/>
+      <c r="B998" s="35"/>
     </row>
     <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A999" s="37"/>
-      <c r="B999" s="37"/>
+      <c r="A999" s="35"/>
+      <c r="B999" s="35"/>
     </row>
     <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1000" s="37"/>
-      <c r="B1000" s="37"/>
+      <c r="A1000" s="35"/>
+      <c r="B1000" s="35"/>
     </row>
     <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1001" s="37"/>
-      <c r="B1001" s="37"/>
+      <c r="A1001" s="35"/>
+      <c r="B1001" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25104,7 +25420,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="38">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -25127,7 +25443,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="B3" t="s">
         <v>754</v>
       </c>
@@ -25148,7 +25464,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" t="s">
         <v>755</v>
       </c>
@@ -25169,7 +25485,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>756</v>
       </c>
@@ -25190,7 +25506,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="38">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -25213,7 +25529,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>754</v>
       </c>
@@ -25234,7 +25550,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>755</v>
       </c>
@@ -25255,7 +25571,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>756</v>
       </c>
@@ -25276,7 +25592,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="38">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -25299,7 +25615,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
@@ -25320,7 +25636,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
@@ -25341,7 +25657,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A300C-1B1C-43FA-9033-45A266CA87BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292D44D-D391-459B-8A5C-4A7CE7DD4434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="ablation_init" sheetId="8" r:id="rId8"/>
     <sheet name="ablation_repvgg" sheetId="9" r:id="rId9"/>
     <sheet name="ablation_distill" sheetId="10" r:id="rId10"/>
-    <sheet name="Ablation" sheetId="11" r:id="rId11"/>
-    <sheet name="table1" sheetId="12" r:id="rId12"/>
-    <sheet name="structure detail" sheetId="17" r:id="rId13"/>
+    <sheet name="structure detail" sheetId="17" r:id="rId11"/>
+    <sheet name="Ablation" sheetId="11" r:id="rId12"/>
+    <sheet name="table1" sheetId="12" r:id="rId13"/>
     <sheet name="tabel2" sheetId="13" r:id="rId14"/>
     <sheet name="table3" sheetId="14" r:id="rId15"/>
     <sheet name="table4" sheetId="15" r:id="rId16"/>
@@ -30,29 +30,22 @@
     <sheet name="x4" sheetId="6" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Ablation!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Ablation!$A$1:$J$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ablation_distill!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">main!$A$1:$I$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">table1!$F$14:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">table1!$F$14:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="854">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3128,18 +3121,41 @@
     <t>27.56/0.7356</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>d_coe=0</t>
+  </si>
+  <si>
+    <t>d_coe=0.1</t>
+  </si>
+  <si>
+    <t>d_coe=0.3</t>
+  </si>
+  <si>
+    <t>d_coe=0.5</t>
+  </si>
+  <si>
+    <t>d_coe=1</t>
+  </si>
+  <si>
+    <t>d_coe=2</t>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3213,8 +3229,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3230,6 +3260,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,10 +3299,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3354,9 +3398,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3364,10 +3415,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3465,9 +3522,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3500,9 +3555,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3535,9 +3588,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3570,9 +3621,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3605,9 +3654,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3640,9 +3687,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3675,9 +3720,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3710,9 +3753,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3745,9 +3786,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3780,9 +3819,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3815,9 +3852,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-9DBF-464D-BE69-112C56932003}"/>
                 </c:ext>
@@ -3850,9 +3885,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-9DBF-464D-BE69-112C56932003}"/>
                 </c:ext>
@@ -8045,3340 +8078,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
-  <dimension ref="A1:L92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>64</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>31.579000000000001</v>
-      </c>
-      <c r="G2" s="7">
-        <v>28.222999999999999</v>
-      </c>
-      <c r="H2" s="7">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="I2" s="7">
-        <v>25.306000000000001</v>
-      </c>
-      <c r="J2" s="7">
-        <v>233</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>31.579000000000001</v>
-      </c>
-      <c r="G3" s="7">
-        <v>28.222999999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>25.306000000000001</v>
-      </c>
-      <c r="J3" s="7">
-        <v>233</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>64</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>31.579000000000001</v>
-      </c>
-      <c r="G4" s="7">
-        <v>28.222999999999999</v>
-      </c>
-      <c r="H4" s="7">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="I4" s="7">
-        <v>25.306000000000001</v>
-      </c>
-      <c r="J4" s="7">
-        <v>233</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>31.579000000000001</v>
-      </c>
-      <c r="G5" s="7">
-        <v>28.222999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="I5" s="7">
-        <v>25.306000000000001</v>
-      </c>
-      <c r="J5" s="7">
-        <v>233</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>31.853000000000002</v>
-      </c>
-      <c r="G6" s="7">
-        <v>28.4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>27.434000000000001</v>
-      </c>
-      <c r="I6" s="7">
-        <v>25.658000000000001</v>
-      </c>
-      <c r="J6" s="7">
-        <v>233</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>64</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>31.809000000000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>28.379000000000001</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27.422000000000001</v>
-      </c>
-      <c r="I7" s="7">
-        <v>25.614999999999998</v>
-      </c>
-      <c r="J7" s="7">
-        <v>233</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>31.853000000000002</v>
-      </c>
-      <c r="G8" s="7">
-        <v>28.4</v>
-      </c>
-      <c r="H8" s="7">
-        <v>27.434000000000001</v>
-      </c>
-      <c r="I8" s="7">
-        <v>25.658000000000001</v>
-      </c>
-      <c r="J8" s="7">
-        <v>233</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>64</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>31.809000000000001</v>
-      </c>
-      <c r="G9" s="7">
-        <v>28.379000000000001</v>
-      </c>
-      <c r="H9" s="7">
-        <v>27.422000000000001</v>
-      </c>
-      <c r="I9" s="7">
-        <v>25.614999999999998</v>
-      </c>
-      <c r="J9" s="7">
-        <v>233</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>64</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>31.984000000000002</v>
-      </c>
-      <c r="G10" s="7">
-        <v>28.513999999999999</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27.516999999999999</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25.917000000000002</v>
-      </c>
-      <c r="J10" s="7">
-        <v>233</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>64</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>32.116999999999997</v>
-      </c>
-      <c r="G11" s="7">
-        <v>28.538</v>
-      </c>
-      <c r="H11" s="7">
-        <v>27.533000000000001</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25.965</v>
-      </c>
-      <c r="J11" s="7">
-        <v>233</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>64</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>31.984000000000002</v>
-      </c>
-      <c r="G12" s="7">
-        <v>28.513999999999999</v>
-      </c>
-      <c r="H12" s="7">
-        <v>27.516999999999999</v>
-      </c>
-      <c r="I12" s="7">
-        <v>25.917000000000002</v>
-      </c>
-      <c r="J12" s="7">
-        <v>233</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>64</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7">
-        <v>32.116999999999997</v>
-      </c>
-      <c r="G13" s="7">
-        <v>28.538</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27.533000000000001</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25.965</v>
-      </c>
-      <c r="J13" s="7">
-        <v>233</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>64</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>32.048999999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <v>28.489000000000001</v>
-      </c>
-      <c r="H14" s="7">
-        <v>27.552</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25.98</v>
-      </c>
-      <c r="J14" s="7">
-        <v>233</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>64</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7">
-        <v>32.085000000000001</v>
-      </c>
-      <c r="G15" s="7">
-        <v>28.553000000000001</v>
-      </c>
-      <c r="H15" s="7">
-        <v>27.552</v>
-      </c>
-      <c r="I15" s="7">
-        <v>25.992000000000001</v>
-      </c>
-      <c r="J15" s="7">
-        <v>233</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>64</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>32.093000000000004</v>
-      </c>
-      <c r="G16" s="7">
-        <v>28.559000000000001</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27.552</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25.962</v>
-      </c>
-      <c r="J16" s="7">
-        <v>233</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>64</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7">
-        <v>32.085000000000001</v>
-      </c>
-      <c r="G17" s="7">
-        <v>28.553000000000001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27.552</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25.992000000000001</v>
-      </c>
-      <c r="J17" s="7">
-        <v>233</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>64</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>31.619</v>
-      </c>
-      <c r="G18" s="7">
-        <v>28.248000000000001</v>
-      </c>
-      <c r="H18" s="7">
-        <v>27.327999999999999</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25.35</v>
-      </c>
-      <c r="J18" s="7">
-        <v>236</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>64</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>32.063000000000002</v>
-      </c>
-      <c r="G19" s="7">
-        <v>28.52</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27.518999999999998</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25.9</v>
-      </c>
-      <c r="J19" s="7">
-        <v>236</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>64</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>31.625</v>
-      </c>
-      <c r="G20" s="7">
-        <v>28.25</v>
-      </c>
-      <c r="H20" s="7">
-        <v>27.323</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25.343</v>
-      </c>
-      <c r="J20" s="7">
-        <v>236</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>64</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>32.023000000000003</v>
-      </c>
-      <c r="G21" s="7">
-        <v>28.513999999999999</v>
-      </c>
-      <c r="H21" s="7">
-        <v>27.523</v>
-      </c>
-      <c r="I21" s="7">
-        <v>25.907</v>
-      </c>
-      <c r="J21" s="7">
-        <v>236</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>64</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>31.844999999999999</v>
-      </c>
-      <c r="G22" s="7">
-        <v>28.376999999999999</v>
-      </c>
-      <c r="H22" s="7">
-        <v>27.437000000000001</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25.675999999999998</v>
-      </c>
-      <c r="J22" s="7">
-        <v>236</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>64</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>32.119</v>
-      </c>
-      <c r="G23" s="7">
-        <v>28.542000000000002</v>
-      </c>
-      <c r="H23" s="7">
-        <v>27.544</v>
-      </c>
-      <c r="I23" s="7">
-        <v>25.974</v>
-      </c>
-      <c r="J23" s="7">
-        <v>236</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>64</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>31.824000000000002</v>
-      </c>
-      <c r="G24" s="7">
-        <v>28.401</v>
-      </c>
-      <c r="H24" s="7">
-        <v>27.443000000000001</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25.675000000000001</v>
-      </c>
-      <c r="J24" s="7">
-        <v>236</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>64</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>32.112000000000002</v>
-      </c>
-      <c r="G25" s="7">
-        <v>28.56</v>
-      </c>
-      <c r="H25" s="7">
-        <v>27.545999999999999</v>
-      </c>
-      <c r="I25" s="7">
-        <v>25.952999999999999</v>
-      </c>
-      <c r="J25" s="7">
-        <v>236</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>64</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7">
-        <v>31.619</v>
-      </c>
-      <c r="G26" s="7">
-        <v>28.248000000000001</v>
-      </c>
-      <c r="H26" s="7">
-        <v>27.327999999999999</v>
-      </c>
-      <c r="I26" s="7">
-        <v>25.35</v>
-      </c>
-      <c r="J26" s="7">
-        <v>236</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>64</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3</v>
-      </c>
-      <c r="F27" s="7">
-        <v>32.103999999999999</v>
-      </c>
-      <c r="G27" s="7">
-        <v>28.524000000000001</v>
-      </c>
-      <c r="H27" s="7">
-        <v>27.53</v>
-      </c>
-      <c r="I27" s="7">
-        <v>25.954999999999998</v>
-      </c>
-      <c r="J27" s="7">
-        <v>236</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>64</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>3</v>
-      </c>
-      <c r="F28" s="7">
-        <v>31.619</v>
-      </c>
-      <c r="G28" s="7">
-        <v>28.248000000000001</v>
-      </c>
-      <c r="H28" s="7">
-        <v>27.327999999999999</v>
-      </c>
-      <c r="I28" s="7">
-        <v>25.35</v>
-      </c>
-      <c r="J28" s="7">
-        <v>236</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>64</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>3</v>
-      </c>
-      <c r="F29" s="7">
-        <v>32.043999999999997</v>
-      </c>
-      <c r="G29" s="7">
-        <v>28.547000000000001</v>
-      </c>
-      <c r="H29" s="7">
-        <v>27.527999999999999</v>
-      </c>
-      <c r="I29" s="7">
-        <v>25.968</v>
-      </c>
-      <c r="J29" s="7">
-        <v>236</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>64</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>3</v>
-      </c>
-      <c r="F30" s="7">
-        <v>31.84</v>
-      </c>
-      <c r="G30" s="7">
-        <v>28.366</v>
-      </c>
-      <c r="H30" s="7">
-        <v>27.419</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25.603999999999999</v>
-      </c>
-      <c r="J30" s="7">
-        <v>236</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>3</v>
-      </c>
-      <c r="F31" s="7">
-        <v>32.113999999999997</v>
-      </c>
-      <c r="G31" s="7">
-        <v>28.556000000000001</v>
-      </c>
-      <c r="H31" s="7">
-        <v>27.547999999999998</v>
-      </c>
-      <c r="I31" s="7">
-        <v>25.992000000000001</v>
-      </c>
-      <c r="J31" s="7">
-        <v>236</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>64</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>3</v>
-      </c>
-      <c r="F32" s="7">
-        <v>31.84</v>
-      </c>
-      <c r="G32" s="7">
-        <v>28.366</v>
-      </c>
-      <c r="H32" s="7">
-        <v>27.419</v>
-      </c>
-      <c r="I32" s="7">
-        <v>25.603999999999999</v>
-      </c>
-      <c r="J32" s="7">
-        <v>236</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>64</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7">
-        <v>32.11</v>
-      </c>
-      <c r="G33" s="7">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="H33" s="7">
-        <v>27.547999999999998</v>
-      </c>
-      <c r="I33" s="7">
-        <v>25.983000000000001</v>
-      </c>
-      <c r="J33" s="7">
-        <v>236</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>75</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>31.675000000000001</v>
-      </c>
-      <c r="G34" s="7">
-        <v>28.306000000000001</v>
-      </c>
-      <c r="H34" s="7">
-        <v>27.364999999999998</v>
-      </c>
-      <c r="I34" s="7">
-        <v>25.446999999999999</v>
-      </c>
-      <c r="J34" s="7">
-        <v>233</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>75</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7">
-        <v>31.702999999999999</v>
-      </c>
-      <c r="G35" s="7">
-        <v>28.312999999999999</v>
-      </c>
-      <c r="H35" s="7">
-        <v>27.36</v>
-      </c>
-      <c r="I35" s="7">
-        <v>25.44</v>
-      </c>
-      <c r="J35" s="7">
-        <v>233</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>75</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>31.684000000000001</v>
-      </c>
-      <c r="G36" s="7">
-        <v>28.298999999999999</v>
-      </c>
-      <c r="H36" s="7">
-        <v>27.36</v>
-      </c>
-      <c r="I36" s="7">
-        <v>25.434999999999999</v>
-      </c>
-      <c r="J36" s="7">
-        <v>233</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>75</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>3</v>
-      </c>
-      <c r="F37" s="7">
-        <v>31.651</v>
-      </c>
-      <c r="G37" s="7">
-        <v>28.312999999999999</v>
-      </c>
-      <c r="H37" s="7">
-        <v>27.364999999999998</v>
-      </c>
-      <c r="I37" s="7">
-        <v>25.446999999999999</v>
-      </c>
-      <c r="J37" s="7">
-        <v>233</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>75</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>31.940999999999999</v>
-      </c>
-      <c r="G38" s="7">
-        <v>28.451000000000001</v>
-      </c>
-      <c r="H38" s="7">
-        <v>27.475000000000001</v>
-      </c>
-      <c r="I38" s="7">
-        <v>25.754999999999999</v>
-      </c>
-      <c r="J38" s="7">
-        <v>233</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>75</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>3</v>
-      </c>
-      <c r="F39" s="7">
-        <v>31.908999999999999</v>
-      </c>
-      <c r="G39" s="7">
-        <v>28.440999999999999</v>
-      </c>
-      <c r="H39" s="7">
-        <v>27.452000000000002</v>
-      </c>
-      <c r="I39" s="7">
-        <v>25.722000000000001</v>
-      </c>
-      <c r="J39" s="7">
-        <v>233</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>75</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>31.904</v>
-      </c>
-      <c r="G40" s="7">
-        <v>28.423999999999999</v>
-      </c>
-      <c r="H40" s="7">
-        <v>27.46</v>
-      </c>
-      <c r="I40" s="7">
-        <v>25.744</v>
-      </c>
-      <c r="J40" s="7">
-        <v>233</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>75</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>3</v>
-      </c>
-      <c r="F41" s="7">
-        <v>31.844999999999999</v>
-      </c>
-      <c r="G41" s="7">
-        <v>28.422000000000001</v>
-      </c>
-      <c r="H41" s="7">
-        <v>27.463000000000001</v>
-      </c>
-      <c r="I41" s="7">
-        <v>25.736000000000001</v>
-      </c>
-      <c r="J41" s="7">
-        <v>233</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>75</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>32.064</v>
-      </c>
-      <c r="G42" s="7">
-        <v>28.526</v>
-      </c>
-      <c r="H42" s="7">
-        <v>27.538</v>
-      </c>
-      <c r="I42" s="7">
-        <v>25.95</v>
-      </c>
-      <c r="J42" s="7">
-        <v>233</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>75</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3</v>
-      </c>
-      <c r="F43" s="7">
-        <v>32.076000000000001</v>
-      </c>
-      <c r="G43" s="7">
-        <v>28.552</v>
-      </c>
-      <c r="H43" s="7">
-        <v>27.547999999999998</v>
-      </c>
-      <c r="I43" s="7">
-        <v>26.021999999999998</v>
-      </c>
-      <c r="J43" s="7">
-        <v>233</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>75</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>32.067</v>
-      </c>
-      <c r="G44" s="7">
-        <v>28.542000000000002</v>
-      </c>
-      <c r="H44" s="7">
-        <v>27.530999999999999</v>
-      </c>
-      <c r="I44" s="7">
-        <v>25.962</v>
-      </c>
-      <c r="J44" s="7">
-        <v>233</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>75</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>3</v>
-      </c>
-      <c r="F45" s="7">
-        <v>32.125</v>
-      </c>
-      <c r="G45" s="7">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="H45" s="7">
-        <v>27.542999999999999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>26.033999999999999</v>
-      </c>
-      <c r="J45" s="7">
-        <v>233</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>75</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>32.088000000000001</v>
-      </c>
-      <c r="G46" s="7">
-        <v>28.562999999999999</v>
-      </c>
-      <c r="H46" s="7">
-        <v>27.562000000000001</v>
-      </c>
-      <c r="I46" s="7">
-        <v>26.036000000000001</v>
-      </c>
-      <c r="J46" s="7">
-        <v>233</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>75</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7">
-        <v>3</v>
-      </c>
-      <c r="F47" s="7">
-        <v>32.093000000000004</v>
-      </c>
-      <c r="G47" s="7">
-        <v>28.577999999999999</v>
-      </c>
-      <c r="H47" s="7">
-        <v>27.567</v>
-      </c>
-      <c r="I47" s="7">
-        <v>26.050999999999998</v>
-      </c>
-      <c r="J47" s="7">
-        <v>233</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>75</v>
-      </c>
-      <c r="B48" s="7">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>32.125999999999998</v>
-      </c>
-      <c r="G48" s="7">
-        <v>28.594999999999999</v>
-      </c>
-      <c r="H48" s="7">
-        <v>27.562999999999999</v>
-      </c>
-      <c r="I48" s="7">
-        <v>26.036000000000001</v>
-      </c>
-      <c r="J48" s="7">
-        <v>233</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>75</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>3</v>
-      </c>
-      <c r="F49" s="7">
-        <v>32.15</v>
-      </c>
-      <c r="G49" s="7">
-        <v>28.556999999999999</v>
-      </c>
-      <c r="H49" s="7">
-        <v>27.571999999999999</v>
-      </c>
-      <c r="I49" s="7">
-        <v>26.03</v>
-      </c>
-      <c r="J49" s="7">
-        <v>233</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>75</v>
-      </c>
-      <c r="B50" s="7">
-        <v>0</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>31.731999999999999</v>
-      </c>
-      <c r="G50" s="7">
-        <v>28.298999999999999</v>
-      </c>
-      <c r="H50" s="7">
-        <v>27.352</v>
-      </c>
-      <c r="I50" s="7">
-        <v>25.427</v>
-      </c>
-      <c r="J50" s="7">
-        <v>234</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>75</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
-        <v>3</v>
-      </c>
-      <c r="F51" s="7">
-        <v>31.727</v>
-      </c>
-      <c r="G51" s="7">
-        <v>28.295000000000002</v>
-      </c>
-      <c r="H51" s="7">
-        <v>27.358000000000001</v>
-      </c>
-      <c r="I51" s="7">
-        <v>25.420999999999999</v>
-      </c>
-      <c r="J51" s="7">
-        <v>234</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>75</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0</v>
-      </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>31.654</v>
-      </c>
-      <c r="G52" s="7">
-        <v>28.297999999999998</v>
-      </c>
-      <c r="H52" s="7">
-        <v>27.355</v>
-      </c>
-      <c r="I52" s="7">
-        <v>25.414999999999999</v>
-      </c>
-      <c r="J52" s="7">
-        <v>234</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>75</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7">
-        <v>3</v>
-      </c>
-      <c r="F53" s="7">
-        <v>31.731999999999999</v>
-      </c>
-      <c r="G53" s="7">
-        <v>28.298999999999999</v>
-      </c>
-      <c r="H53" s="7">
-        <v>27.352</v>
-      </c>
-      <c r="I53" s="7">
-        <v>25.427</v>
-      </c>
-      <c r="J53" s="7">
-        <v>234</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>75</v>
-      </c>
-      <c r="B54" s="7">
-        <v>0</v>
-      </c>
-      <c r="C54" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D54" s="7">
-        <v>0</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>31.919</v>
-      </c>
-      <c r="G54" s="7">
-        <v>28.454999999999998</v>
-      </c>
-      <c r="H54" s="7">
-        <v>27.465</v>
-      </c>
-      <c r="I54" s="7">
-        <v>25.754999999999999</v>
-      </c>
-      <c r="J54" s="7">
-        <v>234</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>75</v>
-      </c>
-      <c r="B55" s="7">
-        <v>0</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7">
-        <v>3</v>
-      </c>
-      <c r="F55" s="7">
-        <v>31.866</v>
-      </c>
-      <c r="G55" s="7">
-        <v>28.422000000000001</v>
-      </c>
-      <c r="H55" s="7">
-        <v>27.443000000000001</v>
-      </c>
-      <c r="I55" s="7">
-        <v>25.713000000000001</v>
-      </c>
-      <c r="J55" s="7">
-        <v>234</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>75</v>
-      </c>
-      <c r="B56" s="7">
-        <v>0</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>31.934000000000001</v>
-      </c>
-      <c r="G56" s="7">
-        <v>28.443000000000001</v>
-      </c>
-      <c r="H56" s="7">
-        <v>27.466000000000001</v>
-      </c>
-      <c r="I56" s="7">
-        <v>25.762</v>
-      </c>
-      <c r="J56" s="7">
-        <v>234</v>
-      </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>75</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7">
-        <v>3</v>
-      </c>
-      <c r="F57" s="7">
-        <v>31.866</v>
-      </c>
-      <c r="G57" s="7">
-        <v>28.422000000000001</v>
-      </c>
-      <c r="H57" s="7">
-        <v>27.443000000000001</v>
-      </c>
-      <c r="I57" s="7">
-        <v>25.713000000000001</v>
-      </c>
-      <c r="J57" s="7">
-        <v>234</v>
-      </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>75</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>32.106999999999999</v>
-      </c>
-      <c r="G58" s="7">
-        <v>28.541</v>
-      </c>
-      <c r="H58" s="7">
-        <v>27.538</v>
-      </c>
-      <c r="I58" s="7">
-        <v>25.962</v>
-      </c>
-      <c r="J58" s="7">
-        <v>234</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>75</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0</v>
-      </c>
-      <c r="E59" s="7">
-        <v>3</v>
-      </c>
-      <c r="F59" s="7">
-        <v>32.095999999999997</v>
-      </c>
-      <c r="G59" s="7">
-        <v>28.562000000000001</v>
-      </c>
-      <c r="H59" s="7">
-        <v>27.547000000000001</v>
-      </c>
-      <c r="I59" s="7">
-        <v>26.047000000000001</v>
-      </c>
-      <c r="J59" s="7">
-        <v>234</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>75</v>
-      </c>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0</v>
-      </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>32.106999999999999</v>
-      </c>
-      <c r="G60" s="7">
-        <v>28.541</v>
-      </c>
-      <c r="H60" s="7">
-        <v>27.538</v>
-      </c>
-      <c r="I60" s="7">
-        <v>25.962</v>
-      </c>
-      <c r="J60" s="7">
-        <v>234</v>
-      </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>75</v>
-      </c>
-      <c r="B61" s="7">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7">
-        <v>3</v>
-      </c>
-      <c r="F61" s="7">
-        <v>32.142000000000003</v>
-      </c>
-      <c r="G61" s="7">
-        <v>28.568999999999999</v>
-      </c>
-      <c r="H61" s="7">
-        <v>27.556000000000001</v>
-      </c>
-      <c r="I61" s="7">
-        <v>26.032</v>
-      </c>
-      <c r="J61" s="7">
-        <v>234</v>
-      </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>75</v>
-      </c>
-      <c r="B62" s="7">
-        <v>1</v>
-      </c>
-      <c r="C62" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>32.103000000000002</v>
-      </c>
-      <c r="G62" s="7">
-        <v>28.568999999999999</v>
-      </c>
-      <c r="H62" s="7">
-        <v>27.558</v>
-      </c>
-      <c r="I62" s="7">
-        <v>26.04</v>
-      </c>
-      <c r="J62" s="7">
-        <v>234</v>
-      </c>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>75</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <v>3</v>
-      </c>
-      <c r="F63" s="7">
-        <v>32.118000000000002</v>
-      </c>
-      <c r="G63" s="7">
-        <v>28.617000000000001</v>
-      </c>
-      <c r="H63" s="7">
-        <v>27.577000000000002</v>
-      </c>
-      <c r="I63" s="7">
-        <v>26.050999999999998</v>
-      </c>
-      <c r="J63" s="7">
-        <v>234</v>
-      </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>75</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>32.146000000000001</v>
-      </c>
-      <c r="G64" s="7">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="H64" s="7">
-        <v>27.565000000000001</v>
-      </c>
-      <c r="I64" s="7">
-        <v>26.044</v>
-      </c>
-      <c r="J64" s="7">
-        <v>234</v>
-      </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>75</v>
-      </c>
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7">
-        <v>3</v>
-      </c>
-      <c r="F65" s="7">
-        <v>32.204999999999998</v>
-      </c>
-      <c r="G65" s="7">
-        <v>28.597000000000001</v>
-      </c>
-      <c r="H65" s="7">
-        <v>27.565000000000001</v>
-      </c>
-      <c r="I65" s="7">
-        <v>26.056999999999999</v>
-      </c>
-      <c r="J65" s="7">
-        <v>234</v>
-      </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>64</v>
-      </c>
-      <c r="B66" s="7">
-        <v>0</v>
-      </c>
-      <c r="C66" s="7">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7">
-        <v>0</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>31.574999999999999</v>
-      </c>
-      <c r="G66" s="7">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="H66" s="7">
-        <v>27.305</v>
-      </c>
-      <c r="I66" s="7">
-        <v>25.274999999999999</v>
-      </c>
-      <c r="J66" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>64</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7">
-        <v>3</v>
-      </c>
-      <c r="F67" s="7">
-        <v>31.574999999999999</v>
-      </c>
-      <c r="G67" s="7">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="H67" s="7">
-        <v>27.305</v>
-      </c>
-      <c r="I67" s="7">
-        <v>25.274999999999999</v>
-      </c>
-      <c r="J67" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>64</v>
-      </c>
-      <c r="B68" s="7">
-        <v>0</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0</v>
-      </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <v>31.574999999999999</v>
-      </c>
-      <c r="G68" s="7">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="H68" s="7">
-        <v>27.305</v>
-      </c>
-      <c r="I68" s="7">
-        <v>25.274999999999999</v>
-      </c>
-      <c r="J68" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>64</v>
-      </c>
-      <c r="B69" s="7">
-        <v>0</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
-        <v>3</v>
-      </c>
-      <c r="F69" s="7">
-        <v>31.574999999999999</v>
-      </c>
-      <c r="G69" s="7">
-        <v>28.202000000000002</v>
-      </c>
-      <c r="H69" s="7">
-        <v>27.305</v>
-      </c>
-      <c r="I69" s="7">
-        <v>25.274999999999999</v>
-      </c>
-      <c r="J69" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>64</v>
-      </c>
-      <c r="B70" s="7">
-        <v>0</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>31.795000000000002</v>
-      </c>
-      <c r="G70" s="7">
-        <v>28.391999999999999</v>
-      </c>
-      <c r="H70" s="7">
-        <v>27.434000000000001</v>
-      </c>
-      <c r="I70" s="7">
-        <v>25.664000000000001</v>
-      </c>
-      <c r="J70" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>64</v>
-      </c>
-      <c r="B71" s="7">
-        <v>0</v>
-      </c>
-      <c r="C71" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D71" s="7">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7">
-        <v>3</v>
-      </c>
-      <c r="F71" s="7">
-        <v>31.776</v>
-      </c>
-      <c r="G71" s="7">
-        <v>28.376999999999999</v>
-      </c>
-      <c r="H71" s="7">
-        <v>27.408999999999999</v>
-      </c>
-      <c r="I71" s="7">
-        <v>25.584</v>
-      </c>
-      <c r="J71" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>64</v>
-      </c>
-      <c r="B72" s="7">
-        <v>0</v>
-      </c>
-      <c r="C72" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>31.795000000000002</v>
-      </c>
-      <c r="G72" s="7">
-        <v>28.391999999999999</v>
-      </c>
-      <c r="H72" s="7">
-        <v>27.434000000000001</v>
-      </c>
-      <c r="I72" s="7">
-        <v>25.664000000000001</v>
-      </c>
-      <c r="J72" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>64</v>
-      </c>
-      <c r="B73" s="7">
-        <v>0</v>
-      </c>
-      <c r="C73" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D73" s="7">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7">
-        <v>3</v>
-      </c>
-      <c r="F73" s="7">
-        <v>31.776</v>
-      </c>
-      <c r="G73" s="7">
-        <v>28.376999999999999</v>
-      </c>
-      <c r="H73" s="7">
-        <v>27.408999999999999</v>
-      </c>
-      <c r="I73" s="7">
-        <v>25.584</v>
-      </c>
-      <c r="J73" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>64</v>
-      </c>
-      <c r="B74" s="7">
-        <v>1</v>
-      </c>
-      <c r="C74" s="7">
-        <v>0</v>
-      </c>
-      <c r="D74" s="7">
-        <v>0</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>32.043999999999997</v>
-      </c>
-      <c r="G74" s="7">
-        <v>28.521999999999998</v>
-      </c>
-      <c r="H74" s="7">
-        <v>27.527999999999999</v>
-      </c>
-      <c r="I74" s="7">
-        <v>25.923999999999999</v>
-      </c>
-      <c r="J74" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>64</v>
-      </c>
-      <c r="B75" s="7">
-        <v>1</v>
-      </c>
-      <c r="C75" s="7">
-        <v>0</v>
-      </c>
-      <c r="D75" s="7">
-        <v>0</v>
-      </c>
-      <c r="E75" s="7">
-        <v>3</v>
-      </c>
-      <c r="F75" s="7">
-        <v>32.048000000000002</v>
-      </c>
-      <c r="G75" s="7">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="H75" s="7">
-        <v>27.538</v>
-      </c>
-      <c r="I75" s="7">
-        <v>25.988</v>
-      </c>
-      <c r="J75" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>64</v>
-      </c>
-      <c r="B76" s="7">
-        <v>1</v>
-      </c>
-      <c r="C76" s="7">
-        <v>0</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>32.043999999999997</v>
-      </c>
-      <c r="G76" s="7">
-        <v>28.521999999999998</v>
-      </c>
-      <c r="H76" s="7">
-        <v>27.527999999999999</v>
-      </c>
-      <c r="I76" s="7">
-        <v>25.923999999999999</v>
-      </c>
-      <c r="J76" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>64</v>
-      </c>
-      <c r="B77" s="7">
-        <v>1</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0</v>
-      </c>
-      <c r="D77" s="7">
-        <v>1</v>
-      </c>
-      <c r="E77" s="7">
-        <v>3</v>
-      </c>
-      <c r="F77" s="7">
-        <v>32.048000000000002</v>
-      </c>
-      <c r="G77" s="7">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="H77" s="7">
-        <v>27.538</v>
-      </c>
-      <c r="I77" s="7">
-        <v>25.988</v>
-      </c>
-      <c r="J77" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>64</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1</v>
-      </c>
-      <c r="C78" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D78" s="7">
-        <v>0</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>32.08</v>
-      </c>
-      <c r="G78" s="7">
-        <v>28.565000000000001</v>
-      </c>
-      <c r="H78" s="7">
-        <v>27.541</v>
-      </c>
-      <c r="I78" s="7">
-        <v>25.975000000000001</v>
-      </c>
-      <c r="J78" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>64</v>
-      </c>
-      <c r="B79" s="7">
-        <v>1</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D79" s="7">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7">
-        <v>3</v>
-      </c>
-      <c r="F79" s="7">
-        <v>32.055</v>
-      </c>
-      <c r="G79" s="7">
-        <v>28.562000000000001</v>
-      </c>
-      <c r="H79" s="7">
-        <v>27.553000000000001</v>
-      </c>
-      <c r="I79" s="7">
-        <v>25.994</v>
-      </c>
-      <c r="J79" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>64</v>
-      </c>
-      <c r="B80" s="7">
-        <v>1</v>
-      </c>
-      <c r="C80" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D80" s="7">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>32.08</v>
-      </c>
-      <c r="G80" s="7">
-        <v>28.565000000000001</v>
-      </c>
-      <c r="H80" s="7">
-        <v>27.541</v>
-      </c>
-      <c r="I80" s="7">
-        <v>25.975000000000001</v>
-      </c>
-      <c r="J80" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>64</v>
-      </c>
-      <c r="B81" s="7">
-        <v>1</v>
-      </c>
-      <c r="C81" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D81" s="7">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7">
-        <v>3</v>
-      </c>
-      <c r="F81" s="7">
-        <v>32.055</v>
-      </c>
-      <c r="G81" s="7">
-        <v>28.562000000000001</v>
-      </c>
-      <c r="H81" s="7">
-        <v>27.553000000000001</v>
-      </c>
-      <c r="I81" s="7">
-        <v>25.994</v>
-      </c>
-      <c r="J81" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197268FB-5014-4CBE-ACEE-AA1A1C218351}">
-  <dimension ref="A1:J44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="8" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E2">
-        <v>31.590999999999998</v>
-      </c>
-      <c r="F2">
-        <v>28.224333333333334</v>
-      </c>
-      <c r="G2">
-        <v>27.314999999999998</v>
-      </c>
-      <c r="H2">
-        <v>25.310333333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>32.030333333333331</v>
-      </c>
-      <c r="F3">
-        <v>28.518666666666665</v>
-      </c>
-      <c r="G3">
-        <v>27.521333333333299</v>
-      </c>
-      <c r="H3">
-        <v>25.913666666666668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>31.831</v>
-      </c>
-      <c r="F4">
-        <v>28.389666666666667</v>
-      </c>
-      <c r="G4">
-        <v>27.435000000000002</v>
-      </c>
-      <c r="H4">
-        <v>25.666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>31.824000000000002</v>
-      </c>
-      <c r="F5">
-        <v>28.397666666666666</v>
-      </c>
-      <c r="G5">
-        <v>27.437000000000001</v>
-      </c>
-      <c r="H5">
-        <v>25.665666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>32.082666666666668</v>
-      </c>
-      <c r="F6">
-        <v>28.532</v>
-      </c>
-      <c r="G6">
-        <v>27.545666666666701</v>
-      </c>
-      <c r="H6">
-        <v>25.976333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>32.095000000000006</v>
-      </c>
-      <c r="F7">
-        <v>28.561333333333334</v>
-      </c>
-      <c r="G7">
-        <v>27.546333333333301</v>
-      </c>
-      <c r="H7">
-        <v>25.963333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>32.089666666666666</v>
-      </c>
-      <c r="F8">
-        <v>28.542666666666666</v>
-      </c>
-      <c r="G8">
-        <v>27.533666666666701</v>
-      </c>
-      <c r="H8">
-        <v>25.969333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>32.103999999999999</v>
-      </c>
-      <c r="F9">
-        <v>28.565999999999995</v>
-      </c>
-      <c r="G9">
-        <v>27.548999999999999</v>
-      </c>
-      <c r="H9">
-        <v>25.990250000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>32.084666666666664</v>
-      </c>
-      <c r="F11" s="9">
-        <v>28.557000000000002</v>
-      </c>
-      <c r="G11" s="9">
-        <v>27.550999999999998</v>
-      </c>
-      <c r="H11" s="9">
-        <v>25.992666666666668</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>560</v>
-      </c>
-      <c r="B20" t="s">
-        <v>561</v>
-      </c>
-      <c r="C20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="15">
-        <v>31.590999999999998</v>
-      </c>
-      <c r="E21" s="15">
-        <v>28.224333333333334</v>
-      </c>
-      <c r="F21" s="15">
-        <v>27.314999999999998</v>
-      </c>
-      <c r="G21" s="15">
-        <v>25.310333333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>32.089666666666666</v>
-      </c>
-      <c r="E22" s="15">
-        <v>28.542666666666666</v>
-      </c>
-      <c r="F22" s="15">
-        <v>27.533666666666701</v>
-      </c>
-      <c r="G22" s="15">
-        <v>25.969333333333335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>31.831</v>
-      </c>
-      <c r="E23" s="15">
-        <v>28.389666666666667</v>
-      </c>
-      <c r="F23" s="15">
-        <v>27.435000000000002</v>
-      </c>
-      <c r="G23" s="15">
-        <v>25.666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15">
-        <v>31.824000000000002</v>
-      </c>
-      <c r="E24" s="15">
-        <v>28.397666666666666</v>
-      </c>
-      <c r="F24" s="15">
-        <v>27.437000000000001</v>
-      </c>
-      <c r="G24" s="15">
-        <v>25.665666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>32.084666666666664</v>
-      </c>
-      <c r="E25" s="15">
-        <v>28.557000000000002</v>
-      </c>
-      <c r="F25" s="15">
-        <v>27.550999999999998</v>
-      </c>
-      <c r="G25" s="15">
-        <v>25.992666666666668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15">
-        <v>32.103999999999999</v>
-      </c>
-      <c r="E26" s="15">
-        <v>28.565999999999995</v>
-      </c>
-      <c r="F26" s="15">
-        <v>27.548999999999999</v>
-      </c>
-      <c r="G26" s="15">
-        <v>25.990250000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>560</v>
-      </c>
-      <c r="B39" t="s">
-        <v>561</v>
-      </c>
-      <c r="C39" t="s">
-        <v>562</v>
-      </c>
-      <c r="D39" t="s">
-        <v>563</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="40">
-        <v>32.030333333333331</v>
-      </c>
-      <c r="F40" s="40">
-        <v>28.518666666666665</v>
-      </c>
-      <c r="G40" s="40">
-        <v>27.521333333333299</v>
-      </c>
-      <c r="H40" s="40">
-        <v>25.913666666666668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="40">
-        <v>32.089666666666666</v>
-      </c>
-      <c r="F41" s="40">
-        <v>28.542666666666666</v>
-      </c>
-      <c r="G41" s="40">
-        <v>27.533666666666701</v>
-      </c>
-      <c r="H41" s="40">
-        <v>25.969333333333335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="40">
-        <v>32.095000000000006</v>
-      </c>
-      <c r="F42" s="40">
-        <v>28.561333333333334</v>
-      </c>
-      <c r="G42" s="40">
-        <v>27.546333333333301</v>
-      </c>
-      <c r="H42" s="40">
-        <v>25.963333333333335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="40">
-        <v>32.103999999999999</v>
-      </c>
-      <c r="F43" s="40">
-        <v>28.565999999999995</v>
-      </c>
-      <c r="G43" s="40">
-        <v>27.548999999999999</v>
-      </c>
-      <c r="H43" s="40">
-        <v>25.990250000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA297270-BE99-422C-AD24-47AB151FDBB7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -11491,6 +8190,3343 @@
       <c r="C11">
         <v>100</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
+  <dimension ref="A1:L92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I2" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <v>233</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J3" s="7">
+        <v>233</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>233</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="G6" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>25.658000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>233</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31.809000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>28.379000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>25.614999999999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>233</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>25.658000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>31.809000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>28.379000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="I9" s="7">
+        <v>25.614999999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <v>233</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>31.984000000000002</v>
+      </c>
+      <c r="G10" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>25.917000000000002</v>
+      </c>
+      <c r="J10" s="7">
+        <v>233</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="G11" s="7">
+        <v>28.538</v>
+      </c>
+      <c r="H11" s="7">
+        <v>27.533000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>25.965</v>
+      </c>
+      <c r="J11" s="7">
+        <v>233</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>31.984000000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25.917000000000002</v>
+      </c>
+      <c r="J12" s="7">
+        <v>233</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="G13" s="7">
+        <v>28.538</v>
+      </c>
+      <c r="H13" s="7">
+        <v>27.533000000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25.965</v>
+      </c>
+      <c r="J13" s="7">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>32.048999999999999</v>
+      </c>
+      <c r="G14" s="7">
+        <v>28.489000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25.98</v>
+      </c>
+      <c r="J14" s="7">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>32.085000000000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>28.553000000000001</v>
+      </c>
+      <c r="H15" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J15" s="7">
+        <v>233</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32.093000000000004</v>
+      </c>
+      <c r="G16" s="7">
+        <v>28.559000000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J16" s="7">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>32.085000000000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>28.553000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I17" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J17" s="7">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G18" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J18" s="7">
+        <v>236</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>32.063000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>28.52</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27.518999999999998</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="J19" s="7">
+        <v>236</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>31.625</v>
+      </c>
+      <c r="G20" s="7">
+        <v>28.25</v>
+      </c>
+      <c r="H20" s="7">
+        <v>27.323</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25.343</v>
+      </c>
+      <c r="J20" s="7">
+        <v>236</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>32.023000000000003</v>
+      </c>
+      <c r="G21" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>27.523</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25.907</v>
+      </c>
+      <c r="J21" s="7">
+        <v>236</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>64</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>31.844999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>25.675999999999998</v>
+      </c>
+      <c r="J22" s="7">
+        <v>236</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>32.119</v>
+      </c>
+      <c r="G23" s="7">
+        <v>28.542000000000002</v>
+      </c>
+      <c r="H23" s="7">
+        <v>27.544</v>
+      </c>
+      <c r="I23" s="7">
+        <v>25.974</v>
+      </c>
+      <c r="J23" s="7">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>31.824000000000002</v>
+      </c>
+      <c r="G24" s="7">
+        <v>28.401</v>
+      </c>
+      <c r="H24" s="7">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I24" s="7">
+        <v>25.675000000000001</v>
+      </c>
+      <c r="J24" s="7">
+        <v>236</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>32.112000000000002</v>
+      </c>
+      <c r="G25" s="7">
+        <v>28.56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>27.545999999999999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>25.952999999999999</v>
+      </c>
+      <c r="J25" s="7">
+        <v>236</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G26" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J26" s="7">
+        <v>236</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="G27" s="7">
+        <v>28.524000000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>27.53</v>
+      </c>
+      <c r="I27" s="7">
+        <v>25.954999999999998</v>
+      </c>
+      <c r="J27" s="7">
+        <v>236</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G28" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I28" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J28" s="7">
+        <v>236</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>64</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G29" s="7">
+        <v>28.547000000000001</v>
+      </c>
+      <c r="H29" s="7">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I29" s="7">
+        <v>25.968</v>
+      </c>
+      <c r="J29" s="7">
+        <v>236</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>64</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7">
+        <v>31.84</v>
+      </c>
+      <c r="G30" s="7">
+        <v>28.366</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27.419</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25.603999999999999</v>
+      </c>
+      <c r="J30" s="7">
+        <v>236</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>32.113999999999997</v>
+      </c>
+      <c r="G31" s="7">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="H31" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I31" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J31" s="7">
+        <v>236</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <v>31.84</v>
+      </c>
+      <c r="G32" s="7">
+        <v>28.366</v>
+      </c>
+      <c r="H32" s="7">
+        <v>27.419</v>
+      </c>
+      <c r="I32" s="7">
+        <v>25.603999999999999</v>
+      </c>
+      <c r="J32" s="7">
+        <v>236</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>64</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>32.11</v>
+      </c>
+      <c r="G33" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H33" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I33" s="7">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="J33" s="7">
+        <v>236</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>75</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>31.675000000000001</v>
+      </c>
+      <c r="G34" s="7">
+        <v>28.306000000000001</v>
+      </c>
+      <c r="H34" s="7">
+        <v>27.364999999999998</v>
+      </c>
+      <c r="I34" s="7">
+        <v>25.446999999999999</v>
+      </c>
+      <c r="J34" s="7">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>31.702999999999999</v>
+      </c>
+      <c r="G35" s="7">
+        <v>28.312999999999999</v>
+      </c>
+      <c r="H35" s="7">
+        <v>27.36</v>
+      </c>
+      <c r="I35" s="7">
+        <v>25.44</v>
+      </c>
+      <c r="J35" s="7">
+        <v>233</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>75</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>31.684000000000001</v>
+      </c>
+      <c r="G36" s="7">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H36" s="7">
+        <v>27.36</v>
+      </c>
+      <c r="I36" s="7">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="J36" s="7">
+        <v>233</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>75</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>31.651</v>
+      </c>
+      <c r="G37" s="7">
+        <v>28.312999999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>27.364999999999998</v>
+      </c>
+      <c r="I37" s="7">
+        <v>25.446999999999999</v>
+      </c>
+      <c r="J37" s="7">
+        <v>233</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>75</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>31.940999999999999</v>
+      </c>
+      <c r="G38" s="7">
+        <v>28.451000000000001</v>
+      </c>
+      <c r="H38" s="7">
+        <v>27.475000000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>25.754999999999999</v>
+      </c>
+      <c r="J38" s="7">
+        <v>233</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>31.908999999999999</v>
+      </c>
+      <c r="G39" s="7">
+        <v>28.440999999999999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>27.452000000000002</v>
+      </c>
+      <c r="I39" s="7">
+        <v>25.722000000000001</v>
+      </c>
+      <c r="J39" s="7">
+        <v>233</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>75</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>31.904</v>
+      </c>
+      <c r="G40" s="7">
+        <v>28.423999999999999</v>
+      </c>
+      <c r="H40" s="7">
+        <v>27.46</v>
+      </c>
+      <c r="I40" s="7">
+        <v>25.744</v>
+      </c>
+      <c r="J40" s="7">
+        <v>233</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>75</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>31.844999999999999</v>
+      </c>
+      <c r="G41" s="7">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H41" s="7">
+        <v>27.463000000000001</v>
+      </c>
+      <c r="I41" s="7">
+        <v>25.736000000000001</v>
+      </c>
+      <c r="J41" s="7">
+        <v>233</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>32.064</v>
+      </c>
+      <c r="G42" s="7">
+        <v>28.526</v>
+      </c>
+      <c r="H42" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I42" s="7">
+        <v>25.95</v>
+      </c>
+      <c r="J42" s="7">
+        <v>233</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>75</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3</v>
+      </c>
+      <c r="F43" s="7">
+        <v>32.076000000000001</v>
+      </c>
+      <c r="G43" s="7">
+        <v>28.552</v>
+      </c>
+      <c r="H43" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I43" s="7">
+        <v>26.021999999999998</v>
+      </c>
+      <c r="J43" s="7">
+        <v>233</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>75</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>32.067</v>
+      </c>
+      <c r="G44" s="7">
+        <v>28.542000000000002</v>
+      </c>
+      <c r="H44" s="7">
+        <v>27.530999999999999</v>
+      </c>
+      <c r="I44" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J44" s="7">
+        <v>233</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>75</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7">
+        <v>32.125</v>
+      </c>
+      <c r="G45" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H45" s="7">
+        <v>27.542999999999999</v>
+      </c>
+      <c r="I45" s="7">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="J45" s="7">
+        <v>233</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>75</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="G46" s="7">
+        <v>28.562999999999999</v>
+      </c>
+      <c r="H46" s="7">
+        <v>27.562000000000001</v>
+      </c>
+      <c r="I46" s="7">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>233</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>75</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>32.093000000000004</v>
+      </c>
+      <c r="G47" s="7">
+        <v>28.577999999999999</v>
+      </c>
+      <c r="H47" s="7">
+        <v>27.567</v>
+      </c>
+      <c r="I47" s="7">
+        <v>26.050999999999998</v>
+      </c>
+      <c r="J47" s="7">
+        <v>233</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>75</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>32.125999999999998</v>
+      </c>
+      <c r="G48" s="7">
+        <v>28.594999999999999</v>
+      </c>
+      <c r="H48" s="7">
+        <v>27.562999999999999</v>
+      </c>
+      <c r="I48" s="7">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="J48" s="7">
+        <v>233</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>75</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>32.15</v>
+      </c>
+      <c r="G49" s="7">
+        <v>28.556999999999999</v>
+      </c>
+      <c r="H49" s="7">
+        <v>27.571999999999999</v>
+      </c>
+      <c r="I49" s="7">
+        <v>26.03</v>
+      </c>
+      <c r="J49" s="7">
+        <v>233</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>75</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="G50" s="7">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H50" s="7">
+        <v>27.352</v>
+      </c>
+      <c r="I50" s="7">
+        <v>25.427</v>
+      </c>
+      <c r="J50" s="7">
+        <v>234</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>75</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3</v>
+      </c>
+      <c r="F51" s="7">
+        <v>31.727</v>
+      </c>
+      <c r="G51" s="7">
+        <v>28.295000000000002</v>
+      </c>
+      <c r="H51" s="7">
+        <v>27.358000000000001</v>
+      </c>
+      <c r="I51" s="7">
+        <v>25.420999999999999</v>
+      </c>
+      <c r="J51" s="7">
+        <v>234</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>75</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>31.654</v>
+      </c>
+      <c r="G52" s="7">
+        <v>28.297999999999998</v>
+      </c>
+      <c r="H52" s="7">
+        <v>27.355</v>
+      </c>
+      <c r="I52" s="7">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="J52" s="7">
+        <v>234</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>75</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>3</v>
+      </c>
+      <c r="F53" s="7">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="G53" s="7">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H53" s="7">
+        <v>27.352</v>
+      </c>
+      <c r="I53" s="7">
+        <v>25.427</v>
+      </c>
+      <c r="J53" s="7">
+        <v>234</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>75</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>31.919</v>
+      </c>
+      <c r="G54" s="7">
+        <v>28.454999999999998</v>
+      </c>
+      <c r="H54" s="7">
+        <v>27.465</v>
+      </c>
+      <c r="I54" s="7">
+        <v>25.754999999999999</v>
+      </c>
+      <c r="J54" s="7">
+        <v>234</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>75</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7">
+        <v>31.866</v>
+      </c>
+      <c r="G55" s="7">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H55" s="7">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I55" s="7">
+        <v>25.713000000000001</v>
+      </c>
+      <c r="J55" s="7">
+        <v>234</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>75</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>31.934000000000001</v>
+      </c>
+      <c r="G56" s="7">
+        <v>28.443000000000001</v>
+      </c>
+      <c r="H56" s="7">
+        <v>27.466000000000001</v>
+      </c>
+      <c r="I56" s="7">
+        <v>25.762</v>
+      </c>
+      <c r="J56" s="7">
+        <v>234</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>75</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7">
+        <v>3</v>
+      </c>
+      <c r="F57" s="7">
+        <v>31.866</v>
+      </c>
+      <c r="G57" s="7">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H57" s="7">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I57" s="7">
+        <v>25.713000000000001</v>
+      </c>
+      <c r="J57" s="7">
+        <v>234</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>75</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>32.106999999999999</v>
+      </c>
+      <c r="G58" s="7">
+        <v>28.541</v>
+      </c>
+      <c r="H58" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I58" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J58" s="7">
+        <v>234</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>75</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>32.095999999999997</v>
+      </c>
+      <c r="G59" s="7">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H59" s="7">
+        <v>27.547000000000001</v>
+      </c>
+      <c r="I59" s="7">
+        <v>26.047000000000001</v>
+      </c>
+      <c r="J59" s="7">
+        <v>234</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>32.106999999999999</v>
+      </c>
+      <c r="G60" s="7">
+        <v>28.541</v>
+      </c>
+      <c r="H60" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I60" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J60" s="7">
+        <v>234</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>75</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>3</v>
+      </c>
+      <c r="F61" s="7">
+        <v>32.142000000000003</v>
+      </c>
+      <c r="G61" s="7">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="H61" s="7">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="I61" s="7">
+        <v>26.032</v>
+      </c>
+      <c r="J61" s="7">
+        <v>234</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>75</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>32.103000000000002</v>
+      </c>
+      <c r="G62" s="7">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="H62" s="7">
+        <v>27.558</v>
+      </c>
+      <c r="I62" s="7">
+        <v>26.04</v>
+      </c>
+      <c r="J62" s="7">
+        <v>234</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>75</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
+        <v>3</v>
+      </c>
+      <c r="F63" s="7">
+        <v>32.118000000000002</v>
+      </c>
+      <c r="G63" s="7">
+        <v>28.617000000000001</v>
+      </c>
+      <c r="H63" s="7">
+        <v>27.577000000000002</v>
+      </c>
+      <c r="I63" s="7">
+        <v>26.050999999999998</v>
+      </c>
+      <c r="J63" s="7">
+        <v>234</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>75</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>32.146000000000001</v>
+      </c>
+      <c r="G64" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H64" s="7">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="I64" s="7">
+        <v>26.044</v>
+      </c>
+      <c r="J64" s="7">
+        <v>234</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>75</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7">
+        <v>32.204999999999998</v>
+      </c>
+      <c r="G65" s="7">
+        <v>28.597000000000001</v>
+      </c>
+      <c r="H65" s="7">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="I65" s="7">
+        <v>26.056999999999999</v>
+      </c>
+      <c r="J65" s="7">
+        <v>234</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G66" s="7">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H66" s="7">
+        <v>27.305</v>
+      </c>
+      <c r="I66" s="7">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J66" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>64</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>3</v>
+      </c>
+      <c r="F67" s="7">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G67" s="7">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H67" s="7">
+        <v>27.305</v>
+      </c>
+      <c r="I67" s="7">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J67" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>64</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G68" s="7">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H68" s="7">
+        <v>27.305</v>
+      </c>
+      <c r="I68" s="7">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J68" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>64</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <v>3</v>
+      </c>
+      <c r="F69" s="7">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G69" s="7">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H69" s="7">
+        <v>27.305</v>
+      </c>
+      <c r="I69" s="7">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J69" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="G70" s="7">
+        <v>28.391999999999999</v>
+      </c>
+      <c r="H70" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I70" s="7">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="J70" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>64</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7">
+        <v>31.776</v>
+      </c>
+      <c r="G71" s="7">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H71" s="7">
+        <v>27.408999999999999</v>
+      </c>
+      <c r="I71" s="7">
+        <v>25.584</v>
+      </c>
+      <c r="J71" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>64</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="G72" s="7">
+        <v>28.391999999999999</v>
+      </c>
+      <c r="H72" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I72" s="7">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="J72" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>64</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7">
+        <v>31.776</v>
+      </c>
+      <c r="G73" s="7">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H73" s="7">
+        <v>27.408999999999999</v>
+      </c>
+      <c r="I73" s="7">
+        <v>25.584</v>
+      </c>
+      <c r="J73" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>64</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G74" s="7">
+        <v>28.521999999999998</v>
+      </c>
+      <c r="H74" s="7">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I74" s="7">
+        <v>25.923999999999999</v>
+      </c>
+      <c r="J74" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>64</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <v>3</v>
+      </c>
+      <c r="F75" s="7">
+        <v>32.048000000000002</v>
+      </c>
+      <c r="G75" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H75" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I75" s="7">
+        <v>25.988</v>
+      </c>
+      <c r="J75" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>64</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G76" s="7">
+        <v>28.521999999999998</v>
+      </c>
+      <c r="H76" s="7">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I76" s="7">
+        <v>25.923999999999999</v>
+      </c>
+      <c r="J76" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>64</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7">
+        <v>3</v>
+      </c>
+      <c r="F77" s="7">
+        <v>32.048000000000002</v>
+      </c>
+      <c r="G77" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H77" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I77" s="7">
+        <v>25.988</v>
+      </c>
+      <c r="J77" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>64</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>32.08</v>
+      </c>
+      <c r="G78" s="7">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="H78" s="7">
+        <v>27.541</v>
+      </c>
+      <c r="I78" s="7">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="J78" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>64</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>3</v>
+      </c>
+      <c r="F79" s="7">
+        <v>32.055</v>
+      </c>
+      <c r="G79" s="7">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H79" s="7">
+        <v>27.553000000000001</v>
+      </c>
+      <c r="I79" s="7">
+        <v>25.994</v>
+      </c>
+      <c r="J79" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>64</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>32.08</v>
+      </c>
+      <c r="G80" s="7">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="H80" s="7">
+        <v>27.541</v>
+      </c>
+      <c r="I80" s="7">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="J80" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>64</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
+        <v>3</v>
+      </c>
+      <c r="F81" s="7">
+        <v>32.055</v>
+      </c>
+      <c r="G81" s="7">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H81" s="7">
+        <v>27.553000000000001</v>
+      </c>
+      <c r="I81" s="7">
+        <v>25.994</v>
+      </c>
+      <c r="J81" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197268FB-5014-4CBE-ACEE-AA1A1C218351}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="8" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>31.590999999999998</v>
+      </c>
+      <c r="F2">
+        <v>28.224333333333334</v>
+      </c>
+      <c r="G2">
+        <v>27.314999999999998</v>
+      </c>
+      <c r="H2">
+        <v>25.310333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>32.030333333333331</v>
+      </c>
+      <c r="F3">
+        <v>28.518666666666665</v>
+      </c>
+      <c r="G3">
+        <v>27.521333333333299</v>
+      </c>
+      <c r="H3">
+        <v>25.913666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>31.831</v>
+      </c>
+      <c r="F4">
+        <v>28.389666666666667</v>
+      </c>
+      <c r="G4">
+        <v>27.435000000000002</v>
+      </c>
+      <c r="H4">
+        <v>25.666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>31.824000000000002</v>
+      </c>
+      <c r="F5">
+        <v>28.397666666666666</v>
+      </c>
+      <c r="G5">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="H5">
+        <v>25.665666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>32.082666666666668</v>
+      </c>
+      <c r="F6">
+        <v>28.532</v>
+      </c>
+      <c r="G6">
+        <v>27.545666666666701</v>
+      </c>
+      <c r="H6">
+        <v>25.976333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>32.095000000000006</v>
+      </c>
+      <c r="F7">
+        <v>28.561333333333334</v>
+      </c>
+      <c r="G7">
+        <v>27.546333333333301</v>
+      </c>
+      <c r="H7">
+        <v>25.963333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>32.089666666666666</v>
+      </c>
+      <c r="F8">
+        <v>28.542666666666666</v>
+      </c>
+      <c r="G8">
+        <v>27.533666666666701</v>
+      </c>
+      <c r="H8">
+        <v>25.969333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="F9">
+        <v>28.565999999999995</v>
+      </c>
+      <c r="G9">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="H9">
+        <v>25.990250000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>32.084666666666664</v>
+      </c>
+      <c r="F11" s="9">
+        <v>28.557000000000002</v>
+      </c>
+      <c r="G11" s="9">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="H11" s="9">
+        <v>25.992666666666668</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="15">
+        <v>31.590999999999998</v>
+      </c>
+      <c r="E21" s="15">
+        <v>28.224333333333334</v>
+      </c>
+      <c r="F21" s="15">
+        <v>27.314999999999998</v>
+      </c>
+      <c r="G21" s="15">
+        <v>25.310333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>32.089666666666666</v>
+      </c>
+      <c r="E22" s="15">
+        <v>28.542666666666666</v>
+      </c>
+      <c r="F22" s="15">
+        <v>27.533666666666701</v>
+      </c>
+      <c r="G22" s="15">
+        <v>25.969333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>31.831</v>
+      </c>
+      <c r="E23" s="15">
+        <v>28.389666666666667</v>
+      </c>
+      <c r="F23" s="15">
+        <v>27.435000000000002</v>
+      </c>
+      <c r="G23" s="15">
+        <v>25.666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>31.824000000000002</v>
+      </c>
+      <c r="E24" s="15">
+        <v>28.397666666666666</v>
+      </c>
+      <c r="F24" s="15">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="G24" s="15">
+        <v>25.665666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>32.084666666666664</v>
+      </c>
+      <c r="E25" s="15">
+        <v>28.557000000000002</v>
+      </c>
+      <c r="F25" s="15">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="G25" s="15">
+        <v>25.992666666666668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="E26" s="15">
+        <v>28.565999999999995</v>
+      </c>
+      <c r="F26" s="15">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="G26" s="15">
+        <v>25.990250000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="39"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>560</v>
+      </c>
+      <c r="B39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" t="s">
+        <v>563</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="37">
+        <v>32.030333333333331</v>
+      </c>
+      <c r="F40" s="37">
+        <v>28.518666666666665</v>
+      </c>
+      <c r="G40" s="37">
+        <v>27.521333333333299</v>
+      </c>
+      <c r="H40" s="37">
+        <v>25.913666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="37">
+        <v>32.089666666666666</v>
+      </c>
+      <c r="F41" s="37">
+        <v>28.542666666666666</v>
+      </c>
+      <c r="G41" s="37">
+        <v>27.533666666666701</v>
+      </c>
+      <c r="H41" s="37">
+        <v>25.969333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="37">
+        <v>32.095000000000006</v>
+      </c>
+      <c r="F42" s="37">
+        <v>28.561333333333334</v>
+      </c>
+      <c r="G42" s="37">
+        <v>27.546333333333301</v>
+      </c>
+      <c r="H42" s="37">
+        <v>25.963333333333335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="37">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="F43" s="37">
+        <v>28.565999999999995</v>
+      </c>
+      <c r="G43" s="37">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="H43" s="37">
+        <v>25.990250000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11537,10 +11573,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="41">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -11560,8 +11596,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="10" t="s">
         <v>546</v>
       </c>
@@ -11579,8 +11615,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="10" t="s">
         <v>525</v>
       </c>
@@ -11598,8 +11634,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>555</v>
       </c>
@@ -11617,8 +11653,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10" t="s">
         <v>566</v>
       </c>
@@ -11636,8 +11672,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -11657,8 +11693,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="10" t="s">
         <v>546</v>
       </c>
@@ -11676,8 +11712,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="10" t="s">
         <v>525</v>
       </c>
@@ -11695,8 +11731,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="10" t="s">
         <v>555</v>
       </c>
@@ -11714,8 +11750,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
         <v>566</v>
       </c>
@@ -11833,7 +11869,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>569</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11853,7 +11889,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10" t="s">
         <v>571</v>
       </c>
@@ -11871,7 +11907,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
         <v>572</v>
       </c>
@@ -11889,7 +11925,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="10" t="s">
         <v>566</v>
       </c>
@@ -11907,7 +11943,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -11927,7 +11963,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10" t="s">
         <v>571</v>
       </c>
@@ -11945,7 +11981,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="10" t="s">
         <v>572</v>
       </c>
@@ -11963,7 +11999,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="10" t="s">
         <v>566</v>
       </c>
@@ -11999,7 +12035,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>569</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -12017,7 +12053,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="21" t="s">
         <v>571</v>
       </c>
@@ -12033,7 +12069,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="21" t="s">
         <v>572</v>
       </c>
@@ -12049,7 +12085,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="21" t="s">
         <v>566</v>
       </c>
@@ -12065,7 +12101,7 @@
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="41" t="s">
         <v>570</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -12083,7 +12119,7 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="21" t="s">
         <v>571</v>
       </c>
@@ -12099,7 +12135,7 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="21" t="s">
         <v>572</v>
       </c>
@@ -12115,7 +12151,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="21" t="s">
         <v>566</v>
       </c>
@@ -12200,7 +12236,7 @@
       <c r="D2" s="11">
         <v>27.305499999999999</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="41" t="s">
         <v>757</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -12232,7 +12268,7 @@
       <c r="D3" s="11">
         <v>27.302499999999998</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="25" t="s">
         <v>576</v>
       </c>
@@ -12262,7 +12298,7 @@
       <c r="D4" s="11">
         <v>27.3065</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="25" t="s">
         <v>573</v>
       </c>
@@ -12292,7 +12328,7 @@
       <c r="D5" s="11">
         <v>27.303999999999998</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="25" t="s">
         <v>574</v>
       </c>
@@ -12322,7 +12358,7 @@
       <c r="D6" s="12">
         <v>27.548999999999999</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="25" t="s">
         <v>566</v>
       </c>
@@ -12340,7 +12376,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="41" t="s">
         <v>758</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -12360,7 +12396,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="38"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="25" t="s">
         <v>576</v>
       </c>
@@ -12378,7 +12414,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="38"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="25" t="s">
         <v>573</v>
       </c>
@@ -12396,7 +12432,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="38"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="25" t="s">
         <v>574</v>
       </c>
@@ -12414,7 +12450,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="38"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="25" t="s">
         <v>566</v>
       </c>
@@ -12432,7 +12468,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="41" t="s">
         <v>759</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -12452,7 +12488,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="38"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="25" t="s">
         <v>576</v>
       </c>
@@ -12470,7 +12506,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="38"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="25" t="s">
         <v>573</v>
       </c>
@@ -12488,7 +12524,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="38"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="25" t="s">
         <v>574</v>
       </c>
@@ -12506,7 +12542,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="38"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="25" t="s">
         <v>566</v>
       </c>
@@ -12553,12 +12589,117 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6184F-6DA3-4772-A05C-954F976C3294}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>32.116</v>
+      </c>
+      <c r="C2" s="24">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="D2" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="E2" s="24">
+        <v>25.968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="24">
+        <v>32.112499999999997</v>
+      </c>
+      <c r="C3" s="24">
+        <v>28.567499999999999</v>
+      </c>
+      <c r="D3" s="24">
+        <v>27.548499999999997</v>
+      </c>
+      <c r="E3" s="24">
+        <v>25.986000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="24">
+        <v>32.084500000000006</v>
+      </c>
+      <c r="C4" s="24">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="D4" s="24">
+        <v>27.551000000000002</v>
+      </c>
+      <c r="E4" s="24">
+        <v>25.980499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24">
+        <v>32.085999999999999</v>
+      </c>
+      <c r="C5" s="24">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>27.552</v>
+      </c>
+      <c r="E5" s="24">
+        <v>25.981000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24">
+        <v>32.082000000000001</v>
+      </c>
+      <c r="C6" s="24">
+        <v>28.564</v>
+      </c>
+      <c r="D6" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="E6" s="24">
+        <v>25.983000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13192,7 +13333,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+  <sortState ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13726,7 +13867,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+  <sortState ref="A2:J22">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13790,7 +13931,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13816,7 +13957,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -13840,7 +13981,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -13864,7 +14005,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
@@ -13888,7 +14029,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -13912,7 +14053,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -13936,7 +14077,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -13960,7 +14101,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -13984,7 +14125,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -14008,7 +14149,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
@@ -14032,7 +14173,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="3" t="s">
         <v>233</v>
       </c>
@@ -14056,7 +14197,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -14080,7 +14221,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -14104,7 +14245,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -14130,7 +14271,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -14154,7 +14295,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -14178,7 +14319,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -14202,7 +14343,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -14226,7 +14367,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="3" t="s">
         <v>201</v>
       </c>
@@ -14250,7 +14391,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14274,7 +14415,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
@@ -14298,7 +14439,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -14322,7 +14463,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
         <v>226</v>
       </c>
@@ -14346,7 +14487,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
@@ -14370,7 +14511,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
@@ -14394,7 +14535,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -14418,7 +14559,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="41" t="s">
         <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -14444,7 +14585,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -14468,7 +14609,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -14492,7 +14633,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="3" t="s">
         <v>189</v>
       </c>
@@ -14516,7 +14657,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -14540,7 +14681,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="3" t="s">
         <v>201</v>
       </c>
@@ -14564,7 +14705,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -14588,7 +14729,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
@@ -14612,7 +14753,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -14636,7 +14777,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
@@ -14660,7 +14801,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
@@ -14684,7 +14825,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
@@ -14708,7 +14849,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="3" t="s">
         <v>29</v>
       </c>
@@ -15304,7 +15445,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+  <sortState ref="A2:J21">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15363,7 +15504,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -15395,7 +15536,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -15426,7 +15567,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
         <v>605</v>
       </c>
@@ -15456,7 +15597,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="3" t="s">
         <v>591</v>
       </c>
@@ -15486,7 +15627,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -15519,7 +15660,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="3" t="s">
         <v>609</v>
       </c>
@@ -15552,7 +15693,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -15585,7 +15726,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -15618,7 +15759,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -15651,7 +15792,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -15684,7 +15825,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="3" t="s">
         <v>608</v>
       </c>
@@ -15714,7 +15855,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
         <v>607</v>
       </c>
@@ -15732,7 +15873,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="3" t="s">
         <v>580</v>
       </c>
@@ -15762,7 +15903,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>581</v>
       </c>
@@ -15792,7 +15933,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>664</v>
       </c>
@@ -15816,14 +15957,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
@@ -15855,7 +15996,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="3" t="s">
         <v>176</v>
       </c>
@@ -15885,7 +16026,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -15916,7 +16057,7 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>591</v>
       </c>
@@ -15946,7 +16087,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="41"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -15976,7 +16117,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="3" t="s">
         <v>609</v>
       </c>
@@ -16006,7 +16147,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -16036,7 +16177,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -16066,7 +16207,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="41"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -16096,7 +16237,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="41"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -16126,7 +16267,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
         <v>608</v>
       </c>
@@ -16157,7 +16298,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>607</v>
       </c>
@@ -16175,7 +16316,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>570</v>
       </c>
@@ -16205,7 +16346,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
         <v>581</v>
       </c>
@@ -16235,19 +16376,19 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="41" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -16279,7 +16420,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="s">
         <v>176</v>
       </c>
@@ -16309,7 +16450,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
@@ -16340,7 +16481,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="3" t="s">
         <v>591</v>
       </c>
@@ -16373,7 +16514,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
@@ -16406,7 +16547,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="3" t="s">
         <v>609</v>
       </c>
@@ -16439,7 +16580,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -16472,7 +16613,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
@@ -16505,7 +16646,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -16541,7 +16682,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
@@ -16574,7 +16715,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="3" t="s">
         <v>608</v>
       </c>
@@ -16605,7 +16746,7 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="3" t="s">
         <v>607</v>
       </c>
@@ -16623,7 +16764,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="3" t="s">
         <v>570</v>
       </c>
@@ -16653,7 +16794,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="3" t="s">
         <v>581</v>
       </c>
@@ -16683,7 +16824,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="3" t="s">
         <v>838</v>
       </c>
@@ -16713,11 +16854,11 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -16811,22 +16952,22 @@
       <c r="J71" s="13"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="42" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -16843,12 +16984,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
       <c r="G74" s="25" t="s">
         <v>752</v>
       </c>
@@ -16863,7 +17004,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
@@ -16895,7 +17036,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="3" t="s">
         <v>176</v>
       </c>
@@ -16925,7 +17066,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
+      <c r="A77" s="41"/>
       <c r="B77" t="s">
         <v>605</v>
       </c>
@@ -16955,7 +17096,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="3" t="s">
         <v>591</v>
       </c>
@@ -16985,7 +17126,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="3" t="s">
         <v>55</v>
       </c>
@@ -17015,7 +17156,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
@@ -17045,7 +17186,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
@@ -17075,7 +17216,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
@@ -17105,7 +17246,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="3" t="s">
         <v>608</v>
       </c>
@@ -17135,7 +17276,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="3" t="s">
         <v>570</v>
       </c>
@@ -17165,7 +17306,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="3" t="s">
         <v>581</v>
       </c>
@@ -17195,7 +17336,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
@@ -17227,7 +17368,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
@@ -17257,7 +17398,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
+      <c r="A88" s="41"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
@@ -17287,7 +17428,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="3" t="s">
         <v>591</v>
       </c>
@@ -17317,7 +17458,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
+      <c r="A90" s="41"/>
       <c r="B90" t="s">
         <v>55</v>
       </c>
@@ -17347,7 +17488,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
+      <c r="A91" s="41"/>
       <c r="B91" t="s">
         <v>48</v>
       </c>
@@ -17377,7 +17518,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
+      <c r="A92" s="41"/>
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -17407,7 +17548,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
+      <c r="A93" s="41"/>
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -17437,7 +17578,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="3" t="s">
         <v>608</v>
       </c>
@@ -17467,7 +17608,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="3" t="s">
         <v>570</v>
       </c>
@@ -17497,7 +17638,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="3" t="s">
         <v>581</v>
       </c>
@@ -17527,7 +17668,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="41" t="s">
         <v>165</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -17559,7 +17700,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="3" t="s">
         <v>176</v>
       </c>
@@ -17589,7 +17730,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="38"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="3" t="s">
         <v>68</v>
       </c>
@@ -17619,7 +17760,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="3" t="s">
         <v>591</v>
       </c>
@@ -17649,7 +17790,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="38"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -17679,7 +17820,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="38"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
@@ -17709,7 +17850,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="38"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
@@ -17739,7 +17880,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="3" t="s">
         <v>29</v>
       </c>
@@ -17769,7 +17910,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="38"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="3" t="s">
         <v>608</v>
       </c>
@@ -17799,7 +17940,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="38"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="3" t="s">
         <v>570</v>
       </c>
@@ -17829,7 +17970,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="38"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="3" t="s">
         <v>581</v>
       </c>
@@ -17881,10 +18022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A20:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20305,126 +20446,874 @@
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="A64" s="20">
+        <v>4</v>
+      </c>
+      <c r="B64" s="20">
+        <v>100</v>
+      </c>
+      <c r="C64" s="20">
+        <v>100</v>
+      </c>
+      <c r="D64" s="24">
+        <v>32.155999999999999</v>
+      </c>
+      <c r="E64" s="24">
+        <v>28.605</v>
+      </c>
+      <c r="F64" s="24">
+        <v>27.582999999999998</v>
+      </c>
+      <c r="G64" s="24">
+        <v>26.114000000000001</v>
+      </c>
+      <c r="H64" s="6">
+        <v>233</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J64" s="20">
+        <v>236</v>
+      </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="F65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="A65" s="20">
+        <v>4</v>
+      </c>
+      <c r="B65" s="20">
+        <v>100</v>
+      </c>
+      <c r="C65" s="20">
+        <v>100</v>
+      </c>
+      <c r="D65" s="24">
+        <v>32.225000000000001</v>
+      </c>
+      <c r="E65" s="24">
+        <v>28.594999999999999</v>
+      </c>
+      <c r="F65" s="24">
+        <v>27.588999999999999</v>
+      </c>
+      <c r="G65" s="24">
+        <v>26.113</v>
+      </c>
+      <c r="H65" s="6">
+        <v>234</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J65" s="20">
+        <v>236</v>
+      </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="26"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="F66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="A66" s="20">
+        <v>4</v>
+      </c>
+      <c r="B66" s="20">
+        <v>100</v>
+      </c>
+      <c r="C66" s="20">
+        <v>100</v>
+      </c>
+      <c r="D66" s="24">
+        <v>32.124000000000002</v>
+      </c>
+      <c r="E66" s="24">
+        <v>28.643999999999998</v>
+      </c>
+      <c r="F66" s="24">
+        <v>27.585999999999999</v>
+      </c>
+      <c r="G66" s="24">
+        <v>26.116</v>
+      </c>
+      <c r="H66" s="6">
+        <v>235</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J66" s="20">
+        <v>236</v>
+      </c>
       <c r="K66" s="26"/>
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="A67" s="20">
+        <v>4</v>
+      </c>
+      <c r="B67" s="20">
+        <v>100</v>
+      </c>
+      <c r="C67" s="20">
+        <v>100</v>
+      </c>
+      <c r="D67" s="24">
+        <v>32.213000000000001</v>
+      </c>
+      <c r="E67" s="24">
+        <v>28.623000000000001</v>
+      </c>
+      <c r="F67" s="24">
+        <v>27.587</v>
+      </c>
+      <c r="G67" s="24">
+        <v>26.116</v>
+      </c>
+      <c r="H67" s="6">
+        <v>236</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J67" s="20">
+        <v>236</v>
+      </c>
       <c r="K67" s="26"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="A68" s="20">
+        <v>3</v>
+      </c>
+      <c r="B68" s="20">
+        <v>100</v>
+      </c>
+      <c r="C68" s="20">
+        <v>100</v>
+      </c>
+      <c r="D68" s="24">
+        <v>34.441000000000003</v>
+      </c>
+      <c r="E68" s="24">
+        <v>30.353999999999999</v>
+      </c>
+      <c r="F68" s="24">
+        <v>29.123999999999999</v>
+      </c>
+      <c r="G68" s="24">
+        <v>28.233000000000001</v>
+      </c>
+      <c r="H68" s="6">
+        <v>233</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J68" s="20">
+        <v>236</v>
+      </c>
       <c r="K68" s="26"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="A69" s="20">
+        <v>3</v>
+      </c>
+      <c r="B69" s="20">
+        <v>100</v>
+      </c>
+      <c r="C69" s="20">
+        <v>100</v>
+      </c>
+      <c r="D69" s="24">
+        <v>34.398000000000003</v>
+      </c>
+      <c r="E69" s="24">
+        <v>30.359000000000002</v>
+      </c>
+      <c r="F69" s="24">
+        <v>29.128</v>
+      </c>
+      <c r="G69" s="24">
+        <v>28.239000000000001</v>
+      </c>
+      <c r="H69" s="6">
+        <v>236</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="J69" s="20">
+        <v>236</v>
+      </c>
       <c r="K69" s="26"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="A70" s="20">
+        <v>4</v>
+      </c>
+      <c r="B70" s="20">
+        <v>64</v>
+      </c>
+      <c r="C70" s="20">
+        <v>48</v>
+      </c>
+      <c r="D70" s="24">
+        <v>31.954000000000001</v>
+      </c>
+      <c r="E70" s="24">
+        <v>28.478000000000002</v>
+      </c>
+      <c r="F70" s="24">
+        <v>27.483000000000001</v>
+      </c>
+      <c r="G70" s="24">
+        <v>25.834</v>
+      </c>
+      <c r="H70" s="6">
+        <v>235</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J70" s="20">
+        <v>19</v>
+      </c>
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="A71" s="20">
+        <v>4</v>
+      </c>
+      <c r="B71" s="20">
+        <v>64</v>
+      </c>
+      <c r="C71" s="20">
+        <v>48</v>
+      </c>
+      <c r="D71" s="24">
+        <v>31.98</v>
+      </c>
+      <c r="E71" s="24">
+        <v>28.486000000000001</v>
+      </c>
+      <c r="F71" s="24">
+        <v>27.483000000000001</v>
+      </c>
+      <c r="G71" s="24">
+        <v>25.84</v>
+      </c>
+      <c r="H71" s="6">
+        <v>236</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J71" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="A72" s="20">
+        <v>4</v>
+      </c>
+      <c r="B72" s="20">
+        <v>64</v>
+      </c>
+      <c r="C72" s="20">
+        <v>56</v>
+      </c>
+      <c r="D72" s="24">
+        <v>32.015000000000001</v>
+      </c>
+      <c r="E72" s="24">
+        <v>28.527999999999999</v>
+      </c>
+      <c r="F72" s="24">
+        <v>27.515999999999998</v>
+      </c>
+      <c r="G72" s="24">
+        <v>25.925000000000001</v>
+      </c>
+      <c r="H72" s="6">
+        <v>235</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J72" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="A73" s="20">
+        <v>4</v>
+      </c>
+      <c r="B73" s="20">
+        <v>64</v>
+      </c>
+      <c r="C73" s="20">
+        <v>56</v>
+      </c>
+      <c r="D73" s="24">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="E73" s="24">
+        <v>28.52</v>
+      </c>
+      <c r="F73" s="24">
+        <v>27.507000000000001</v>
+      </c>
+      <c r="G73" s="24">
+        <v>25.907</v>
+      </c>
+      <c r="H73" s="6">
+        <v>236</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J73" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
+        <v>4</v>
+      </c>
+      <c r="B74" s="20">
+        <v>64</v>
+      </c>
+      <c r="C74" s="20">
+        <v>72</v>
+      </c>
+      <c r="D74" s="24">
+        <v>32.076000000000001</v>
+      </c>
+      <c r="E74" s="24">
+        <v>28.577000000000002</v>
+      </c>
+      <c r="F74" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="G74" s="24">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="H74" s="6">
+        <v>235</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J74" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
+        <v>4</v>
+      </c>
+      <c r="B75" s="20">
+        <v>64</v>
+      </c>
+      <c r="C75" s="20">
+        <v>72</v>
+      </c>
+      <c r="D75" s="24">
+        <v>32.076999999999998</v>
+      </c>
+      <c r="E75" s="24">
+        <v>28.564</v>
+      </c>
+      <c r="F75" s="24">
+        <v>27.545999999999999</v>
+      </c>
+      <c r="G75" s="24">
+        <v>26.024000000000001</v>
+      </c>
+      <c r="H75" s="6">
+        <v>236</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J75" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
+        <v>4</v>
+      </c>
+      <c r="B76" s="20">
+        <v>64</v>
+      </c>
+      <c r="C76" s="20">
+        <v>80</v>
+      </c>
+      <c r="D76" s="24">
+        <v>32.161999999999999</v>
+      </c>
+      <c r="E76" s="24">
+        <v>28.573</v>
+      </c>
+      <c r="F76" s="24">
+        <v>27.558</v>
+      </c>
+      <c r="G76" s="24">
+        <v>26.068999999999999</v>
+      </c>
+      <c r="H76" s="6">
+        <v>235</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J76" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="20">
+        <v>4</v>
+      </c>
+      <c r="B77" s="20">
+        <v>64</v>
+      </c>
+      <c r="C77" s="20">
+        <v>80</v>
+      </c>
+      <c r="D77" s="24">
+        <v>32.08</v>
+      </c>
+      <c r="E77" s="24">
+        <v>28.564</v>
+      </c>
+      <c r="F77" s="24">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="G77" s="24">
+        <v>26.071000000000002</v>
+      </c>
+      <c r="H77" s="6">
+        <v>236</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J77" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="A78" s="20">
+        <v>4</v>
+      </c>
+      <c r="B78" s="20">
+        <v>64</v>
+      </c>
+      <c r="C78" s="20">
+        <v>64</v>
+      </c>
+      <c r="D78" s="24">
+        <v>32.116</v>
+      </c>
+      <c r="E78" s="24">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="F78" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="G78" s="24">
+        <v>25.968</v>
+      </c>
+      <c r="H78" s="6">
+        <v>235</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="J78" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="A79" s="20">
+        <v>4</v>
+      </c>
+      <c r="B79" s="20">
+        <v>64</v>
+      </c>
+      <c r="C79" s="20">
+        <v>64</v>
+      </c>
+      <c r="D79" s="24">
+        <v>32.115000000000002</v>
+      </c>
+      <c r="E79" s="24">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="F79" s="24">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="G79" s="24">
+        <v>25.989000000000001</v>
+      </c>
+      <c r="H79" s="6">
+        <v>235</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J79" s="20">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="A80" s="20">
+        <v>4</v>
+      </c>
+      <c r="B80" s="20">
+        <v>64</v>
+      </c>
+      <c r="C80" s="20">
+        <v>64</v>
+      </c>
+      <c r="D80" s="24">
+        <v>32.11</v>
+      </c>
+      <c r="E80" s="24">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="F80" s="24">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="G80" s="24">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="H80" s="6">
+        <v>236</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J80" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="20">
+        <v>4</v>
+      </c>
+      <c r="B81" s="20">
+        <v>64</v>
+      </c>
+      <c r="C81" s="20">
+        <v>64</v>
+      </c>
+      <c r="D81" s="24">
+        <v>32.103000000000002</v>
+      </c>
+      <c r="E81" s="24">
+        <v>28.568000000000001</v>
+      </c>
+      <c r="F81" s="24">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="G81" s="24">
+        <v>25.984999999999999</v>
+      </c>
+      <c r="H81" s="6">
+        <v>235</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="J81" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
+        <v>4</v>
+      </c>
+      <c r="B82" s="20">
+        <v>64</v>
+      </c>
+      <c r="C82" s="20">
+        <v>64</v>
+      </c>
+      <c r="D82" s="24">
+        <v>32.066000000000003</v>
+      </c>
+      <c r="E82" s="24">
+        <v>28.544</v>
+      </c>
+      <c r="F82" s="24">
+        <v>27.553000000000001</v>
+      </c>
+      <c r="G82" s="24">
+        <v>25.975999999999999</v>
+      </c>
+      <c r="H82" s="6">
+        <v>236</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="J82" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
+        <v>4</v>
+      </c>
+      <c r="B83" s="20">
+        <v>64</v>
+      </c>
+      <c r="C83" s="20">
+        <v>64</v>
+      </c>
+      <c r="D83" s="24">
+        <v>32.085999999999999</v>
+      </c>
+      <c r="E83" s="24">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="F83" s="24">
+        <v>27.552</v>
+      </c>
+      <c r="G83" s="24">
+        <v>25.981000000000002</v>
+      </c>
+      <c r="H83" s="6">
+        <v>235</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="J83" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="20">
+        <v>4</v>
+      </c>
+      <c r="B84" s="20">
+        <v>64</v>
+      </c>
+      <c r="C84" s="20">
+        <v>64</v>
+      </c>
+      <c r="D84" s="24">
+        <v>32.082000000000001</v>
+      </c>
+      <c r="E84" s="24">
+        <v>28.564</v>
+      </c>
+      <c r="F84" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="G84" s="24">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="H84" s="6">
+        <v>235</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="J84" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="44"/>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="44"/>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="44"/>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="44"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I36">
+  <sortState ref="A2:I36">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20620,7 +21509,7 @@
       <c r="C35" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+  <sortState ref="A2:D36">
     <sortCondition ref="B2:B36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25420,7 +26309,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="41">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -25443,7 +26332,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>754</v>
       </c>
@@ -25464,7 +26353,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
         <v>755</v>
       </c>
@@ -25485,7 +26374,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" t="s">
         <v>756</v>
       </c>
@@ -25506,7 +26395,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -25529,7 +26418,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" t="s">
         <v>754</v>
       </c>
@@ -25550,7 +26439,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" t="s">
         <v>755</v>
       </c>
@@ -25571,7 +26460,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" t="s">
         <v>756</v>
       </c>
@@ -25592,7 +26481,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="41">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -25615,7 +26504,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
@@ -25636,7 +26525,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
@@ -25657,7 +26546,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292D44D-D391-459B-8A5C-4A7CE7DD4434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D103996-2499-4804-9771-5E4AD69954CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="855">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3141,6 +3141,10 @@
   </si>
   <si>
     <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3409,16 +3413,16 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11573,10 +11577,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="43">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -11596,8 +11600,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="10" t="s">
         <v>546</v>
       </c>
@@ -11615,8 +11619,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="10" t="s">
         <v>525</v>
       </c>
@@ -11634,8 +11638,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="10" t="s">
         <v>555</v>
       </c>
@@ -11653,8 +11657,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="10" t="s">
         <v>566</v>
       </c>
@@ -11672,8 +11676,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -11693,8 +11697,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="10" t="s">
         <v>546</v>
       </c>
@@ -11712,8 +11716,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="10" t="s">
         <v>525</v>
       </c>
@@ -11731,8 +11735,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="10" t="s">
         <v>555</v>
       </c>
@@ -11750,8 +11754,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="10" t="s">
         <v>566</v>
       </c>
@@ -11869,7 +11873,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>569</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11889,7 +11893,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="10" t="s">
         <v>571</v>
       </c>
@@ -11907,7 +11911,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="10" t="s">
         <v>572</v>
       </c>
@@ -11925,7 +11929,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="10" t="s">
         <v>566</v>
       </c>
@@ -11943,7 +11947,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -11963,7 +11967,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="10" t="s">
         <v>571</v>
       </c>
@@ -11981,7 +11985,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="10" t="s">
         <v>572</v>
       </c>
@@ -11999,7 +12003,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="10" t="s">
         <v>566</v>
       </c>
@@ -12035,7 +12039,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>569</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -12053,7 +12057,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>571</v>
       </c>
@@ -12069,7 +12073,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="21" t="s">
         <v>572</v>
       </c>
@@ -12085,7 +12089,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="21" t="s">
         <v>566</v>
       </c>
@@ -12101,7 +12105,7 @@
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>570</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -12119,7 +12123,7 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="21" t="s">
         <v>571</v>
       </c>
@@ -12135,7 +12139,7 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>572</v>
       </c>
@@ -12151,7 +12155,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="21" t="s">
         <v>566</v>
       </c>
@@ -12236,7 +12240,7 @@
       <c r="D2" s="11">
         <v>27.305499999999999</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>757</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -12268,7 +12272,7 @@
       <c r="D3" s="11">
         <v>27.302499999999998</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="25" t="s">
         <v>576</v>
       </c>
@@ -12298,7 +12302,7 @@
       <c r="D4" s="11">
         <v>27.3065</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="25" t="s">
         <v>573</v>
       </c>
@@ -12328,7 +12332,7 @@
       <c r="D5" s="11">
         <v>27.303999999999998</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="25" t="s">
         <v>574</v>
       </c>
@@ -12358,7 +12362,7 @@
       <c r="D6" s="12">
         <v>27.548999999999999</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="25" t="s">
         <v>566</v>
       </c>
@@ -12376,7 +12380,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="43" t="s">
         <v>758</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -12396,7 +12400,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="41"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="25" t="s">
         <v>576</v>
       </c>
@@ -12414,7 +12418,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="41"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="25" t="s">
         <v>573</v>
       </c>
@@ -12432,7 +12436,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="41"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="25" t="s">
         <v>574</v>
       </c>
@@ -12450,7 +12454,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="41"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="25" t="s">
         <v>566</v>
       </c>
@@ -12468,7 +12472,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>759</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -12488,7 +12492,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="41"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="25" t="s">
         <v>576</v>
       </c>
@@ -12506,7 +12510,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="41"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="25" t="s">
         <v>573</v>
       </c>
@@ -12524,7 +12528,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="41"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="25" t="s">
         <v>574</v>
       </c>
@@ -12542,7 +12546,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="41"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="25" t="s">
         <v>566</v>
       </c>
@@ -12615,7 +12619,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+      <c r="A2" s="41">
         <v>0.1</v>
       </c>
       <c r="B2" s="24">
@@ -12632,7 +12636,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="42">
         <v>0.3</v>
       </c>
       <c r="B3" s="24">
@@ -12649,7 +12653,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="A4" s="42">
         <v>0.5</v>
       </c>
       <c r="B4" s="24">
@@ -12666,7 +12670,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
       <c r="B5" s="24">
@@ -12683,7 +12687,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
       <c r="B6" s="24">
@@ -13931,7 +13935,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13957,7 +13961,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -13981,7 +13985,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -14005,7 +14009,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
@@ -14029,7 +14033,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -14053,7 +14057,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -14077,7 +14081,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -14101,7 +14105,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -14125,7 +14129,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -14149,7 +14153,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
@@ -14173,7 +14177,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3" t="s">
         <v>233</v>
       </c>
@@ -14197,7 +14201,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -14221,7 +14225,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -14245,7 +14249,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -14271,7 +14275,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -14295,7 +14299,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -14319,7 +14323,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -14343,7 +14347,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -14367,7 +14371,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>201</v>
       </c>
@@ -14391,7 +14395,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14415,7 +14419,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
@@ -14439,7 +14443,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -14463,7 +14467,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>226</v>
       </c>
@@ -14487,7 +14491,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
@@ -14511,7 +14515,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
@@ -14535,7 +14539,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -14559,7 +14563,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -14585,7 +14589,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -14609,7 +14613,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -14633,7 +14637,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="3" t="s">
         <v>189</v>
       </c>
@@ -14657,7 +14661,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -14681,7 +14685,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3" t="s">
         <v>201</v>
       </c>
@@ -14705,7 +14709,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -14729,7 +14733,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
@@ -14753,7 +14757,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -14777,7 +14781,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
@@ -14801,7 +14805,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
@@ -14825,7 +14829,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
@@ -14849,7 +14853,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="3" t="s">
         <v>29</v>
       </c>
@@ -15504,7 +15508,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -15536,7 +15540,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -15567,7 +15571,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>605</v>
       </c>
@@ -15597,7 +15601,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>591</v>
       </c>
@@ -15627,7 +15631,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -15660,7 +15664,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>609</v>
       </c>
@@ -15693,7 +15697,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -15726,7 +15730,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -15759,7 +15763,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -15792,7 +15796,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -15825,7 +15829,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3" t="s">
         <v>608</v>
       </c>
@@ -15855,7 +15859,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3" t="s">
         <v>607</v>
       </c>
@@ -15873,7 +15877,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>580</v>
       </c>
@@ -15903,7 +15907,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>581</v>
       </c>
@@ -15933,7 +15937,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>664</v>
       </c>
@@ -15957,14 +15961,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
@@ -15996,7 +16000,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="3" t="s">
         <v>176</v>
       </c>
@@ -16026,7 +16030,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="43"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -16057,7 +16061,7 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>591</v>
       </c>
@@ -16087,7 +16091,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="43"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -16117,7 +16121,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>609</v>
       </c>
@@ -16147,7 +16151,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="43"/>
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -16177,7 +16181,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="43"/>
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -16207,7 +16211,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="43"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -16237,7 +16241,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="43"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -16267,7 +16271,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>608</v>
       </c>
@@ -16298,7 +16302,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>607</v>
       </c>
@@ -16316,7 +16320,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>570</v>
       </c>
@@ -16346,7 +16350,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>581</v>
       </c>
@@ -16376,19 +16380,19 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -16420,7 +16424,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>176</v>
       </c>
@@ -16450,7 +16454,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
@@ -16481,7 +16485,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="3" t="s">
         <v>591</v>
       </c>
@@ -16514,7 +16518,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
@@ -16547,7 +16551,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="3" t="s">
         <v>609</v>
       </c>
@@ -16580,7 +16584,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -16613,7 +16617,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
@@ -16646,7 +16650,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -16682,7 +16686,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
@@ -16715,7 +16719,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="3" t="s">
         <v>608</v>
       </c>
@@ -16746,7 +16750,7 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="3" t="s">
         <v>607</v>
       </c>
@@ -16764,7 +16768,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="3" t="s">
         <v>570</v>
       </c>
@@ -16794,7 +16798,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
         <v>581</v>
       </c>
@@ -16824,7 +16828,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="3" t="s">
         <v>838</v>
       </c>
@@ -16854,11 +16858,11 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -16952,22 +16956,22 @@
       <c r="J71" s="13"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="44" t="s">
         <v>666</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -16984,12 +16988,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="25" t="s">
         <v>752</v>
       </c>
@@ -17004,7 +17008,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
@@ -17036,7 +17040,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="3" t="s">
         <v>176</v>
       </c>
@@ -17066,7 +17070,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
+      <c r="A77" s="43"/>
       <c r="B77" t="s">
         <v>605</v>
       </c>
@@ -17096,7 +17100,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="3" t="s">
         <v>591</v>
       </c>
@@ -17126,7 +17130,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="3" t="s">
         <v>55</v>
       </c>
@@ -17156,7 +17160,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
@@ -17186,7 +17190,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
@@ -17216,7 +17220,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
@@ -17246,7 +17250,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="3" t="s">
         <v>608</v>
       </c>
@@ -17276,7 +17280,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="3" t="s">
         <v>570</v>
       </c>
@@ -17306,7 +17310,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="3" t="s">
         <v>581</v>
       </c>
@@ -17336,7 +17340,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
@@ -17368,7 +17372,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
@@ -17398,7 +17402,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
+      <c r="A88" s="43"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
@@ -17428,7 +17432,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="3" t="s">
         <v>591</v>
       </c>
@@ -17458,7 +17462,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
+      <c r="A90" s="43"/>
       <c r="B90" t="s">
         <v>55</v>
       </c>
@@ -17488,7 +17492,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
+      <c r="A91" s="43"/>
       <c r="B91" t="s">
         <v>48</v>
       </c>
@@ -17518,7 +17522,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
+      <c r="A92" s="43"/>
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -17548,7 +17552,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
+      <c r="A93" s="43"/>
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -17578,7 +17582,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="3" t="s">
         <v>608</v>
       </c>
@@ -17608,7 +17612,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="3" t="s">
         <v>570</v>
       </c>
@@ -17638,7 +17642,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="3" t="s">
         <v>581</v>
       </c>
@@ -17668,7 +17672,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -17700,7 +17704,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="3" t="s">
         <v>176</v>
       </c>
@@ -17730,7 +17734,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="3" t="s">
         <v>68</v>
       </c>
@@ -17760,7 +17764,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="3" t="s">
         <v>591</v>
       </c>
@@ -17790,7 +17794,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -17820,7 +17824,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
@@ -17850,7 +17854,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="41"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
@@ -17880,7 +17884,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="3" t="s">
         <v>29</v>
       </c>
@@ -17910,7 +17914,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="3" t="s">
         <v>608</v>
       </c>
@@ -17940,7 +17944,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="41"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="3" t="s">
         <v>570</v>
       </c>
@@ -17970,7 +17974,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="41"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="3" t="s">
         <v>581</v>
       </c>
@@ -18001,18 +18005,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A36:A52"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18024,8 +18028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21146,49 +21150,204 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="20"/>
+      <c r="A85" s="20">
+        <v>3</v>
+      </c>
+      <c r="B85" s="20">
+        <v>64</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D85" s="24">
+        <v>34.377000000000002</v>
+      </c>
+      <c r="E85" s="24">
+        <v>30.303999999999998</v>
+      </c>
+      <c r="F85" s="24">
+        <v>29.088999999999999</v>
+      </c>
+      <c r="G85" s="24">
+        <v>28.111999999999998</v>
+      </c>
+      <c r="H85" s="6">
+        <v>233</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="J85" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
+        <v>3</v>
+      </c>
+      <c r="B86" s="20">
+        <v>64</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D86" s="24">
+        <v>34.384</v>
+      </c>
+      <c r="E86" s="24">
+        <v>30.295000000000002</v>
+      </c>
+      <c r="F86" s="24">
+        <v>29.088999999999999</v>
+      </c>
+      <c r="G86" s="24">
+        <v>28.123000000000001</v>
+      </c>
+      <c r="H86" s="6">
+        <v>234</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="J86" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="20">
+        <v>3</v>
+      </c>
+      <c r="B87" s="20">
+        <v>64</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D87" s="24">
+        <v>34.378</v>
+      </c>
+      <c r="E87" s="24">
+        <v>30.306999999999999</v>
+      </c>
+      <c r="F87" s="24">
+        <v>29.096</v>
+      </c>
+      <c r="G87" s="24">
+        <v>28.146999999999998</v>
+      </c>
+      <c r="H87" s="6">
+        <v>235</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="J87" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
+        <v>3</v>
+      </c>
+      <c r="B88" s="20">
+        <v>64</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D88" s="24">
+        <v>34.341999999999999</v>
+      </c>
+      <c r="E88" s="24">
+        <v>30.309000000000001</v>
+      </c>
+      <c r="F88" s="24">
+        <v>29.094999999999999</v>
+      </c>
+      <c r="G88" s="24">
+        <v>28.120999999999999</v>
+      </c>
+      <c r="H88" s="6">
+        <v>236</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="J88" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" s="44"/>
+      <c r="H97" s="42"/>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="44"/>
+      <c r="H98" s="42"/>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
-      <c r="H99" s="44"/>
+      <c r="H99" s="42"/>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
-      <c r="H100" s="44"/>
+      <c r="H100" s="42"/>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" s="44"/>
+      <c r="H101" s="42"/>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
-      <c r="H102" s="44"/>
+      <c r="H102" s="42"/>
       <c r="I102" s="40"/>
       <c r="J102" s="40"/>
     </row>
@@ -21197,7 +21356,7 @@
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
-      <c r="H103" s="44"/>
+      <c r="H103" s="42"/>
       <c r="I103" s="40"/>
       <c r="J103" s="40"/>
     </row>
@@ -21206,7 +21365,7 @@
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
-      <c r="H104" s="44"/>
+      <c r="H104" s="42"/>
       <c r="I104" s="40"/>
       <c r="J104" s="40"/>
     </row>
@@ -26309,7 +26468,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41">
+      <c r="A2" s="43">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -26332,7 +26491,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>754</v>
       </c>
@@ -26353,7 +26512,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>755</v>
       </c>
@@ -26374,7 +26533,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>756</v>
       </c>
@@ -26395,7 +26554,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -26418,7 +26577,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>754</v>
       </c>
@@ -26439,7 +26598,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>755</v>
       </c>
@@ -26460,7 +26619,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>756</v>
       </c>
@@ -26481,7 +26640,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
+      <c r="A10" s="43">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -26504,7 +26663,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
@@ -26525,7 +26684,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
@@ -26546,7 +26705,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,37 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D103996-2499-4804-9771-5E4AD69954CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A64D40-D530-471C-B2F1-FE606B4FBC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="main" sheetId="7" r:id="rId4"/>
-    <sheet name="fig1" sheetId="16" r:id="rId5"/>
-    <sheet name="fig5" sheetId="20" r:id="rId6"/>
-    <sheet name="baseline" sheetId="19" r:id="rId7"/>
-    <sheet name="ablation_init" sheetId="8" r:id="rId8"/>
-    <sheet name="ablation_repvgg" sheetId="9" r:id="rId9"/>
-    <sheet name="ablation_distill" sheetId="10" r:id="rId10"/>
-    <sheet name="structure detail" sheetId="17" r:id="rId11"/>
-    <sheet name="Ablation" sheetId="11" r:id="rId12"/>
-    <sheet name="table1" sheetId="12" r:id="rId13"/>
-    <sheet name="tabel2" sheetId="13" r:id="rId14"/>
-    <sheet name="table3" sheetId="14" r:id="rId15"/>
-    <sheet name="table4" sheetId="15" r:id="rId16"/>
-    <sheet name="table5" sheetId="18" r:id="rId17"/>
-    <sheet name="x2" sheetId="4" r:id="rId18"/>
-    <sheet name="x3" sheetId="5" r:id="rId19"/>
-    <sheet name="x4" sheetId="6" r:id="rId20"/>
+    <sheet name="extra" sheetId="21" r:id="rId4"/>
+    <sheet name="main" sheetId="7" r:id="rId5"/>
+    <sheet name="fig1" sheetId="16" r:id="rId6"/>
+    <sheet name="fig5" sheetId="20" r:id="rId7"/>
+    <sheet name="baseline" sheetId="19" r:id="rId8"/>
+    <sheet name="ablation_init" sheetId="8" r:id="rId9"/>
+    <sheet name="ablation_repvgg" sheetId="9" r:id="rId10"/>
+    <sheet name="ablation_distill" sheetId="10" r:id="rId11"/>
+    <sheet name="structure detail" sheetId="17" r:id="rId12"/>
+    <sheet name="Ablation" sheetId="11" r:id="rId13"/>
+    <sheet name="table1" sheetId="12" r:id="rId14"/>
+    <sheet name="tabel2" sheetId="13" r:id="rId15"/>
+    <sheet name="table3" sheetId="14" r:id="rId16"/>
+    <sheet name="table4" sheetId="15" r:id="rId17"/>
+    <sheet name="table5" sheetId="18" r:id="rId18"/>
+    <sheet name="x2" sheetId="4" r:id="rId19"/>
+    <sheet name="x3" sheetId="5" r:id="rId20"/>
+    <sheet name="x4" sheetId="6" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Ablation!$A$1:$J$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ablation_distill!$A$1:$H$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">main!$A$1:$I$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">table1!$F$14:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Ablation!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ablation_distill!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">main!$A$1:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">table1!$F$14:$I$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="855">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3309,7 +3310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3425,6 +3426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6968,6 +6970,693 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31.587</v>
+      </c>
+      <c r="D2" s="6">
+        <v>28.234000000000002</v>
+      </c>
+      <c r="E2" s="6">
+        <v>27.306999999999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25.308</v>
+      </c>
+      <c r="G2" s="6">
+        <v>233</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12.686999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13.831</v>
+      </c>
+      <c r="E3" s="6">
+        <v>14.673</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12.827999999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>235</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31.562000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28.210999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>27.295000000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>25.259</v>
+      </c>
+      <c r="G4" s="6">
+        <v>236</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="6">
+        <v>31.541</v>
+      </c>
+      <c r="D5" s="6">
+        <v>28.190999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>27.283000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25.234000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>234</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>27.620999999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>26.925000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24.559000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>233</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" s="6">
+        <v>30.571999999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>26.905000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>234</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="6">
+        <v>30.616</v>
+      </c>
+      <c r="D8" s="6">
+        <v>27.603999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>26.927</v>
+      </c>
+      <c r="F8" s="6">
+        <v>24.550999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>235</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30.616</v>
+      </c>
+      <c r="D9" s="6">
+        <v>27.622</v>
+      </c>
+      <c r="E9" s="6">
+        <v>26.931999999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24.559000000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>236</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30.454999999999998</v>
+      </c>
+      <c r="D10" s="6">
+        <v>27.515999999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <v>26.826000000000001</v>
+      </c>
+      <c r="F10" s="6">
+        <v>24.504000000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>233</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30.509</v>
+      </c>
+      <c r="D11" s="6">
+        <v>27.539000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>26.876000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>24.521000000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>234</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.332999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>27.49</v>
+      </c>
+      <c r="E12" s="6">
+        <v>26.824000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>24.512</v>
+      </c>
+      <c r="G12" s="6">
+        <v>235</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30.443000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>27.535</v>
+      </c>
+      <c r="E13" s="6">
+        <v>26.858000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>24.536999999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>236</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C14" s="6">
+        <v>31.581</v>
+      </c>
+      <c r="D14" s="6">
+        <v>28.24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>27.321999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>25.327999999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>233</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="6">
+        <v>31.619</v>
+      </c>
+      <c r="D15" s="6">
+        <v>28.251000000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>27.332999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>25.353999999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>234</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="6">
+        <v>31.623999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G16" s="6">
+        <v>235</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="6">
+        <v>31.667000000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>28.282</v>
+      </c>
+      <c r="E17" s="6">
+        <v>27.337</v>
+      </c>
+      <c r="F17" s="6">
+        <v>25.381</v>
+      </c>
+      <c r="G17" s="6">
+        <v>236</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="6">
+        <v>31.581</v>
+      </c>
+      <c r="D18" s="6">
+        <v>28.24</v>
+      </c>
+      <c r="E18" s="6">
+        <v>27.321999999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>25.327999999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>233</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="6">
+        <v>31.619</v>
+      </c>
+      <c r="D19" s="6">
+        <v>28.251000000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>27.332999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <v>25.353999999999999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>234</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" s="6">
+        <v>31.623999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="E20" s="6">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G20" s="6">
+        <v>235</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" s="6">
+        <v>31.667000000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <v>28.282</v>
+      </c>
+      <c r="E21" s="6">
+        <v>27.337</v>
+      </c>
+      <c r="F21" s="6">
+        <v>25.381</v>
+      </c>
+      <c r="G21" s="6">
+        <v>236</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -8081,7 +8770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA297270-BE99-422C-AD24-47AB151FDBB7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8202,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
   <dimension ref="A1:L92"/>
   <sheetViews>
@@ -10974,7 +11663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197268FB-5014-4CBE-ACEE-AA1A1C218351}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -11539,7 +12228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F0C222-6B9C-4A39-963D-078067F1D5EF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -11838,7 +12527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0169BF-30AC-4003-815F-EBCDFF37B6C4}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -12182,7 +12871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B627207C-A133-4208-9972-E557E884096D}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -12591,7 +13280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6184F-6DA3-4772-A05C-954F976C3294}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -12709,7 +13398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -13338,540 +14027,6 @@
     </row>
   </sheetData>
   <sortState ref="A2:J24">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:J22">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14888,6 +15043,540 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J22">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -18005,18 +18694,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="A75:A85"/>
     <mergeCell ref="A86:A96"/>
     <mergeCell ref="A97:A107"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A35"/>
     <mergeCell ref="A36:A52"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18025,11 +18714,418 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515ACA67-2B07-43A7-AFC1-63479B1C8D16}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20">
+        <v>100</v>
+      </c>
+      <c r="C2" s="20">
+        <v>100</v>
+      </c>
+      <c r="D2" s="24">
+        <v>38.076999999999998</v>
+      </c>
+      <c r="E2" s="24">
+        <v>33.711500000000001</v>
+      </c>
+      <c r="F2" s="24">
+        <v>32.230999999999995</v>
+      </c>
+      <c r="G2" s="24">
+        <v>32.283500000000004</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20">
+        <v>100</v>
+      </c>
+      <c r="C3" s="20">
+        <v>100</v>
+      </c>
+      <c r="D3" s="24">
+        <v>34.419499999999999</v>
+      </c>
+      <c r="E3" s="24">
+        <v>30.3565</v>
+      </c>
+      <c r="F3" s="24">
+        <v>29.125999999999998</v>
+      </c>
+      <c r="G3" s="24">
+        <v>28.236000000000001</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20">
+        <v>100</v>
+      </c>
+      <c r="C4" s="20">
+        <v>100</v>
+      </c>
+      <c r="D4" s="24">
+        <v>32.179499999999997</v>
+      </c>
+      <c r="E4" s="24">
+        <v>28.61675</v>
+      </c>
+      <c r="F4" s="24">
+        <v>27.58625</v>
+      </c>
+      <c r="G4" s="24">
+        <v>26.114750000000001</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D5" s="24">
+        <v>34.370249999999999</v>
+      </c>
+      <c r="E5" s="24">
+        <v>30.303750000000001</v>
+      </c>
+      <c r="F5" s="24">
+        <v>29.09225</v>
+      </c>
+      <c r="G5" s="24">
+        <v>28.12575</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21481,7 +22577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDFF42-FC2B-4015-9D91-BA5AF59AC887}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -21678,7 +22774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F4671F-0BBA-466F-9277-37125943434C}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
@@ -26104,7 +27200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD43CFF-D1BB-4DA6-8825-FD089A3C1E18}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -26430,7 +27526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -26735,691 +27831,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C2" s="6">
-        <v>31.587</v>
-      </c>
-      <c r="D2" s="6">
-        <v>28.234000000000002</v>
-      </c>
-      <c r="E2" s="6">
-        <v>27.306999999999999</v>
-      </c>
-      <c r="F2" s="6">
-        <v>25.308</v>
-      </c>
-      <c r="G2" s="6">
-        <v>233</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="6">
-        <v>12.686999999999999</v>
-      </c>
-      <c r="D3" s="6">
-        <v>13.831</v>
-      </c>
-      <c r="E3" s="6">
-        <v>14.673</v>
-      </c>
-      <c r="F3" s="6">
-        <v>12.827999999999999</v>
-      </c>
-      <c r="G3" s="6">
-        <v>235</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C4" s="6">
-        <v>31.562000000000001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>28.210999999999999</v>
-      </c>
-      <c r="E4" s="6">
-        <v>27.295000000000002</v>
-      </c>
-      <c r="F4" s="6">
-        <v>25.259</v>
-      </c>
-      <c r="G4" s="6">
-        <v>236</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C5" s="6">
-        <v>31.541</v>
-      </c>
-      <c r="D5" s="6">
-        <v>28.190999999999999</v>
-      </c>
-      <c r="E5" s="6">
-        <v>27.283000000000001</v>
-      </c>
-      <c r="F5" s="6">
-        <v>25.234000000000002</v>
-      </c>
-      <c r="G5" s="6">
-        <v>234</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C6" s="6">
-        <v>30.6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>27.620999999999999</v>
-      </c>
-      <c r="E6" s="6">
-        <v>26.925000000000001</v>
-      </c>
-      <c r="F6" s="6">
-        <v>24.559000000000001</v>
-      </c>
-      <c r="G6" s="6">
-        <v>233</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C7" s="6">
-        <v>30.571999999999999</v>
-      </c>
-      <c r="D7" s="6">
-        <v>27.6</v>
-      </c>
-      <c r="E7" s="6">
-        <v>26.905000000000001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>24.524000000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>234</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C8" s="6">
-        <v>30.616</v>
-      </c>
-      <c r="D8" s="6">
-        <v>27.603999999999999</v>
-      </c>
-      <c r="E8" s="6">
-        <v>26.927</v>
-      </c>
-      <c r="F8" s="6">
-        <v>24.550999999999998</v>
-      </c>
-      <c r="G8" s="6">
-        <v>235</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C9" s="6">
-        <v>30.616</v>
-      </c>
-      <c r="D9" s="6">
-        <v>27.622</v>
-      </c>
-      <c r="E9" s="6">
-        <v>26.931999999999999</v>
-      </c>
-      <c r="F9" s="6">
-        <v>24.559000000000001</v>
-      </c>
-      <c r="G9" s="6">
-        <v>236</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C10" s="6">
-        <v>30.454999999999998</v>
-      </c>
-      <c r="D10" s="6">
-        <v>27.515999999999998</v>
-      </c>
-      <c r="E10" s="6">
-        <v>26.826000000000001</v>
-      </c>
-      <c r="F10" s="6">
-        <v>24.504000000000001</v>
-      </c>
-      <c r="G10" s="6">
-        <v>233</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C11" s="6">
-        <v>30.509</v>
-      </c>
-      <c r="D11" s="6">
-        <v>27.539000000000001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>26.876000000000001</v>
-      </c>
-      <c r="F11" s="6">
-        <v>24.521000000000001</v>
-      </c>
-      <c r="G11" s="6">
-        <v>234</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C12" s="6">
-        <v>30.332999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>27.49</v>
-      </c>
-      <c r="E12" s="6">
-        <v>26.824000000000002</v>
-      </c>
-      <c r="F12" s="6">
-        <v>24.512</v>
-      </c>
-      <c r="G12" s="6">
-        <v>235</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C13" s="6">
-        <v>30.443000000000001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>27.535</v>
-      </c>
-      <c r="E13" s="6">
-        <v>26.858000000000001</v>
-      </c>
-      <c r="F13" s="6">
-        <v>24.536999999999999</v>
-      </c>
-      <c r="G13" s="6">
-        <v>236</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C14" s="6">
-        <v>31.581</v>
-      </c>
-      <c r="D14" s="6">
-        <v>28.24</v>
-      </c>
-      <c r="E14" s="6">
-        <v>27.321999999999999</v>
-      </c>
-      <c r="F14" s="6">
-        <v>25.327999999999999</v>
-      </c>
-      <c r="G14" s="6">
-        <v>233</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C15" s="6">
-        <v>31.619</v>
-      </c>
-      <c r="D15" s="6">
-        <v>28.251000000000001</v>
-      </c>
-      <c r="E15" s="6">
-        <v>27.332999999999998</v>
-      </c>
-      <c r="F15" s="6">
-        <v>25.353999999999999</v>
-      </c>
-      <c r="G15" s="6">
-        <v>234</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="6">
-        <v>31.623999999999999</v>
-      </c>
-      <c r="D16" s="6">
-        <v>28.248999999999999</v>
-      </c>
-      <c r="E16" s="6">
-        <v>27.327999999999999</v>
-      </c>
-      <c r="F16" s="6">
-        <v>25.34</v>
-      </c>
-      <c r="G16" s="6">
-        <v>235</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" s="6">
-        <v>31.667000000000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>28.282</v>
-      </c>
-      <c r="E17" s="6">
-        <v>27.337</v>
-      </c>
-      <c r="F17" s="6">
-        <v>25.381</v>
-      </c>
-      <c r="G17" s="6">
-        <v>236</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C18" s="6">
-        <v>31.581</v>
-      </c>
-      <c r="D18" s="6">
-        <v>28.24</v>
-      </c>
-      <c r="E18" s="6">
-        <v>27.321999999999999</v>
-      </c>
-      <c r="F18" s="6">
-        <v>25.327999999999999</v>
-      </c>
-      <c r="G18" s="6">
-        <v>233</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" s="6">
-        <v>31.619</v>
-      </c>
-      <c r="D19" s="6">
-        <v>28.251000000000001</v>
-      </c>
-      <c r="E19" s="6">
-        <v>27.332999999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <v>25.353999999999999</v>
-      </c>
-      <c r="G19" s="6">
-        <v>234</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" s="6">
-        <v>31.623999999999999</v>
-      </c>
-      <c r="D20" s="6">
-        <v>28.248999999999999</v>
-      </c>
-      <c r="E20" s="6">
-        <v>27.327999999999999</v>
-      </c>
-      <c r="F20" s="6">
-        <v>25.34</v>
-      </c>
-      <c r="G20" s="6">
-        <v>235</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C21" s="6">
-        <v>31.667000000000002</v>
-      </c>
-      <c r="D21" s="6">
-        <v>28.282</v>
-      </c>
-      <c r="E21" s="6">
-        <v>27.337</v>
-      </c>
-      <c r="F21" s="6">
-        <v>25.381</v>
-      </c>
-      <c r="G21" s="6">
-        <v>236</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A64D40-D530-471C-B2F1-FE606B4FBC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9622D-4DCB-495D-B624-C4945316D0B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,11 @@
     <sheet name="table3" sheetId="14" r:id="rId16"/>
     <sheet name="table4" sheetId="15" r:id="rId17"/>
     <sheet name="table5" sheetId="18" r:id="rId18"/>
-    <sheet name="x2" sheetId="4" r:id="rId19"/>
-    <sheet name="x3" sheetId="5" r:id="rId20"/>
-    <sheet name="x4" sheetId="6" r:id="rId21"/>
+    <sheet name="table6" sheetId="23" r:id="rId19"/>
+    <sheet name="x2" sheetId="4" r:id="rId20"/>
+    <sheet name="Sheet4" sheetId="22" r:id="rId21"/>
+    <sheet name="x3" sheetId="5" r:id="rId22"/>
+    <sheet name="x4" sheetId="6" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Ablation!$A$1:$J$82</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="879">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3079,14 +3081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2934K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2078G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plain-X_0.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3146,6 +3140,110 @@
   </si>
   <si>
     <t>plain-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-X,0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain-X,0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>547MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1106K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1595G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>641MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_coe=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_coe=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_coe=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_coe=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_coe=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3310,7 +3408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3423,10 +3521,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12266,10 +12370,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -12289,8 +12393,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="10" t="s">
         <v>546</v>
       </c>
@@ -12308,8 +12412,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="10" t="s">
         <v>525</v>
       </c>
@@ -12327,8 +12431,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="10" t="s">
         <v>555</v>
       </c>
@@ -12346,8 +12450,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="10" t="s">
         <v>566</v>
       </c>
@@ -12365,8 +12469,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -12386,8 +12490,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="10" t="s">
         <v>546</v>
       </c>
@@ -12405,8 +12509,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="10" t="s">
         <v>525</v>
       </c>
@@ -12424,8 +12528,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="10" t="s">
         <v>555</v>
       </c>
@@ -12443,8 +12547,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="10" t="s">
         <v>566</v>
       </c>
@@ -12562,7 +12666,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>569</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -12582,7 +12686,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="10" t="s">
         <v>571</v>
       </c>
@@ -12600,7 +12704,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="10" t="s">
         <v>572</v>
       </c>
@@ -12618,7 +12722,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="10" t="s">
         <v>566</v>
       </c>
@@ -12636,7 +12740,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -12656,7 +12760,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="10" t="s">
         <v>571</v>
       </c>
@@ -12674,7 +12778,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="10" t="s">
         <v>572</v>
       </c>
@@ -12692,7 +12796,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="10" t="s">
         <v>566</v>
       </c>
@@ -12728,7 +12832,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="45" t="s">
         <v>569</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -12746,7 +12850,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="21" t="s">
         <v>571</v>
       </c>
@@ -12762,7 +12866,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="21" t="s">
         <v>572</v>
       </c>
@@ -12778,7 +12882,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="21" t="s">
         <v>566</v>
       </c>
@@ -12794,7 +12898,7 @@
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>570</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -12812,7 +12916,7 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="21" t="s">
         <v>571</v>
       </c>
@@ -12828,7 +12932,7 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="21" t="s">
         <v>572</v>
       </c>
@@ -12844,7 +12948,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="21" t="s">
         <v>566</v>
       </c>
@@ -12929,7 +13033,7 @@
       <c r="D2" s="11">
         <v>27.305499999999999</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="45" t="s">
         <v>757</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -12961,7 +13065,7 @@
       <c r="D3" s="11">
         <v>27.302499999999998</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="25" t="s">
         <v>576</v>
       </c>
@@ -12991,7 +13095,7 @@
       <c r="D4" s="11">
         <v>27.3065</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="25" t="s">
         <v>573</v>
       </c>
@@ -13021,7 +13125,7 @@
       <c r="D5" s="11">
         <v>27.303999999999998</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="25" t="s">
         <v>574</v>
       </c>
@@ -13051,7 +13155,7 @@
       <c r="D6" s="12">
         <v>27.548999999999999</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="25" t="s">
         <v>566</v>
       </c>
@@ -13069,7 +13173,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="45" t="s">
         <v>758</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -13089,7 +13193,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="43"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="25" t="s">
         <v>576</v>
       </c>
@@ -13107,7 +13211,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="43"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="25" t="s">
         <v>573</v>
       </c>
@@ -13125,7 +13229,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="43"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="25" t="s">
         <v>574</v>
       </c>
@@ -13143,7 +13247,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="43"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="25" t="s">
         <v>566</v>
       </c>
@@ -13161,7 +13265,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="45" t="s">
         <v>759</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -13181,7 +13285,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="43"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="25" t="s">
         <v>576</v>
       </c>
@@ -13199,7 +13303,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="43"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="25" t="s">
         <v>573</v>
       </c>
@@ -13217,7 +13321,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="43"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="25" t="s">
         <v>574</v>
       </c>
@@ -13235,7 +13339,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="43"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="25" t="s">
         <v>566</v>
       </c>
@@ -13282,17 +13386,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6184F-6DA3-4772-A05C-954F976C3294}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>19</v>
@@ -13307,24 +13411,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="41">
         <v>0.1</v>
       </c>
       <c r="B2" s="24">
-        <v>32.116</v>
+        <v>32.104333333333336</v>
       </c>
       <c r="C2" s="24">
-        <v>28.565000000000001</v>
+        <v>28.556666666666668</v>
       </c>
       <c r="D2" s="24">
-        <v>27.550999999999998</v>
+        <v>27.548666666666666</v>
       </c>
       <c r="E2" s="24">
-        <v>25.968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25.983333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="42">
         <v>0.3</v>
       </c>
@@ -13341,692 +13445,355 @@
         <v>25.986000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="42">
         <v>0.5</v>
       </c>
       <c r="B4" s="24">
-        <v>32.084500000000006</v>
+        <v>32.100666666666662</v>
       </c>
       <c r="C4" s="24">
-        <v>28.556000000000001</v>
+        <v>28.563999999999997</v>
       </c>
       <c r="D4" s="24">
-        <v>27.551000000000002</v>
+        <v>27.550666666666661</v>
       </c>
       <c r="E4" s="24">
-        <v>25.980499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25.983000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="42">
         <v>1</v>
       </c>
       <c r="B5" s="24">
-        <v>32.085999999999999</v>
+        <v>32.109666666666662</v>
       </c>
       <c r="C5" s="24">
-        <v>28.568999999999999</v>
+        <v>28.563333333333333</v>
       </c>
       <c r="D5" s="24">
-        <v>27.552</v>
+        <v>27.552333333333333</v>
       </c>
       <c r="E5" s="24">
-        <v>25.981000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25.98266666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
         <v>2</v>
       </c>
       <c r="B6" s="24">
-        <v>32.082000000000001</v>
+        <v>32.099666666666671</v>
       </c>
       <c r="C6" s="24">
-        <v>28.564</v>
+        <v>28.558333333333337</v>
       </c>
       <c r="D6" s="24">
-        <v>27.550999999999998</v>
+        <v>27.549666666666667</v>
       </c>
       <c r="E6" s="24">
-        <v>25.983000000000001</v>
-      </c>
+        <v>25.983999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="6"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="6"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="6"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="6"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
     </row>
   </sheetData>
+  <sortState ref="I9:M23">
+    <sortCondition ref="I9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" t="s">
-        <v>394</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B2" s="37">
+        <v>32.085999999999999</v>
+      </c>
+      <c r="C2" s="37">
+        <v>28.558</v>
+      </c>
+      <c r="D2" s="37">
+        <v>27.547000000000001</v>
+      </c>
+      <c r="E2" s="37">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B3" s="37">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="C3" s="37">
+        <v>28.570500000000003</v>
+      </c>
+      <c r="D3" s="37">
+        <v>27.549499999999998</v>
+      </c>
+      <c r="E3" s="37">
+        <v>25.9985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="B4" s="37">
+        <v>32.113</v>
+      </c>
+      <c r="C4" s="37">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>27.548499999999997</v>
+      </c>
+      <c r="E4" s="37">
+        <v>25.991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="B5" s="37">
+        <v>32.072000000000003</v>
+      </c>
+      <c r="C5" s="37">
+        <v>28.545999999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>27.541</v>
+      </c>
+      <c r="E5" s="37">
+        <v>25.954999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
+  <sortState ref="A2:E7">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14090,7 +13857,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14116,7 +13883,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -14140,7 +13907,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -14164,7 +13931,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
@@ -14188,7 +13955,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -14212,7 +13979,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -14236,7 +14003,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -14260,7 +14027,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -14284,7 +14051,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -14308,7 +14075,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
@@ -14332,7 +14099,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="3" t="s">
         <v>233</v>
       </c>
@@ -14356,7 +14123,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -14380,7 +14147,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -14404,7 +14171,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="45" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -14430,7 +14197,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -14454,7 +14221,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -14478,7 +14245,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -14502,7 +14269,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -14526,7 +14293,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>201</v>
       </c>
@@ -14550,7 +14317,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14574,7 +14341,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
@@ -14598,7 +14365,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -14622,7 +14389,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>226</v>
       </c>
@@ -14646,7 +14413,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
@@ -14670,7 +14437,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
@@ -14694,7 +14461,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -14718,7 +14485,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -14744,7 +14511,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -14768,7 +14535,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -14792,7 +14559,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
         <v>189</v>
       </c>
@@ -14816,7 +14583,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -14840,7 +14607,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>201</v>
       </c>
@@ -14864,7 +14631,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -14888,7 +14655,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
@@ -14912,7 +14679,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -14936,7 +14703,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
@@ -14960,7 +14727,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
@@ -14984,7 +14751,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
@@ -15008,7 +14775,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="3" t="s">
         <v>29</v>
       </c>
@@ -15043,6 +14810,655 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J24">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -15576,7 +15992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -16150,8 +16566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16197,7 +16613,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -16229,7 +16645,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -16260,7 +16676,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>605</v>
       </c>
@@ -16290,7 +16706,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
         <v>591</v>
       </c>
@@ -16320,7 +16736,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -16353,7 +16769,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="3" t="s">
         <v>609</v>
       </c>
@@ -16386,7 +16802,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -16419,7 +16835,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -16452,7 +16868,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -16485,7 +16901,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -16518,7 +16934,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="3" t="s">
         <v>608</v>
       </c>
@@ -16548,7 +16964,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
         <v>607</v>
       </c>
@@ -16566,7 +16982,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
         <v>580</v>
       </c>
@@ -16596,7 +17012,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>581</v>
       </c>
@@ -16626,15 +17042,21 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>664</v>
       </c>
       <c r="C16" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>863</v>
+      </c>
+      <c r="E16" t="s">
+        <v>864</v>
+      </c>
+      <c r="F16" t="s">
+        <v>865</v>
       </c>
       <c r="G16">
         <v>38.076999999999998</v>
@@ -16650,14 +17072,41 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E17" t="s">
+        <v>855</v>
+      </c>
+      <c r="F17" t="s">
+        <v>858</v>
+      </c>
+      <c r="G17" s="24">
+        <v>37.974666666666671</v>
+      </c>
+      <c r="H17" s="24">
+        <v>33.601333333333336</v>
+      </c>
+      <c r="I17" s="24">
+        <v>32.171999999999997</v>
+      </c>
+      <c r="J17" s="24">
+        <v>32.037666666666667</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
@@ -16689,7 +17138,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="3" t="s">
         <v>176</v>
       </c>
@@ -16719,7 +17168,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="45"/>
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -16750,7 +17199,7 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>591</v>
       </c>
@@ -16780,7 +17229,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="45"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -16810,7 +17259,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>609</v>
       </c>
@@ -16840,7 +17289,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="45"/>
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -16870,7 +17319,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="45"/>
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -16900,7 +17349,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -16930,7 +17379,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="45"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -16960,7 +17409,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>608</v>
       </c>
@@ -16991,7 +17440,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>607</v>
       </c>
@@ -17009,7 +17458,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>570</v>
       </c>
@@ -17039,7 +17488,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>581</v>
       </c>
@@ -17069,19 +17518,71 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C33" t="s">
+        <v>859</v>
+      </c>
+      <c r="D33" t="s">
+        <v>860</v>
+      </c>
+      <c r="E33" t="s">
+        <v>620</v>
+      </c>
+      <c r="F33" t="s">
+        <v>861</v>
+      </c>
+      <c r="G33" s="24">
+        <v>34.370249999999999</v>
+      </c>
+      <c r="H33" s="24">
+        <v>30.303750000000001</v>
+      </c>
+      <c r="I33" s="24">
+        <v>29.09225</v>
+      </c>
+      <c r="J33" s="24">
+        <v>28.12575</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C34" t="s">
+        <v>862</v>
+      </c>
+      <c r="D34" t="s">
+        <v>866</v>
+      </c>
+      <c r="E34" t="s">
+        <v>867</v>
+      </c>
+      <c r="F34" t="s">
+        <v>868</v>
+      </c>
+      <c r="G34" s="24">
+        <v>34.419499999999999</v>
+      </c>
+      <c r="H34" s="24">
+        <v>30.3565</v>
+      </c>
+      <c r="I34" s="24">
+        <v>29.125999999999998</v>
+      </c>
+      <c r="J34" s="24">
+        <v>28.236000000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -17113,7 +17614,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>176</v>
       </c>
@@ -17143,7 +17644,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
@@ -17174,7 +17675,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>591</v>
       </c>
@@ -17207,7 +17708,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
@@ -17240,7 +17741,7 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="3" t="s">
         <v>609</v>
       </c>
@@ -17273,7 +17774,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -17306,7 +17807,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
@@ -17339,7 +17840,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -17375,7 +17876,7 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
@@ -17408,7 +17909,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="3" t="s">
         <v>608</v>
       </c>
@@ -17439,7 +17940,7 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="3" t="s">
         <v>607</v>
       </c>
@@ -17457,7 +17958,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>570</v>
       </c>
@@ -17487,7 +17988,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="3" t="s">
         <v>581</v>
       </c>
@@ -17517,41 +18018,67 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D50" t="s">
         <v>838</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E50" t="s">
         <v>839</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>840</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>843</v>
+      </c>
+      <c r="H50" t="s">
         <v>841</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
+        <v>844</v>
+      </c>
+      <c r="J50" t="s">
         <v>842</v>
       </c>
-      <c r="G50" t="s">
-        <v>845</v>
-      </c>
-      <c r="H50" t="s">
-        <v>843</v>
-      </c>
-      <c r="I50" t="s">
-        <v>846</v>
-      </c>
-      <c r="J50" t="s">
-        <v>844</v>
-      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C51" t="s">
+        <v>862</v>
+      </c>
+      <c r="D51" t="s">
+        <v>869</v>
+      </c>
+      <c r="E51" t="s">
+        <v>870</v>
+      </c>
+      <c r="F51" t="s">
+        <v>871</v>
+      </c>
+      <c r="G51" s="24">
+        <v>32.179499999999997</v>
+      </c>
+      <c r="H51" s="24">
+        <v>28.61675</v>
+      </c>
+      <c r="I51" s="24">
+        <v>27.58625</v>
+      </c>
+      <c r="J51" s="24">
+        <v>26.114750000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -17603,36 +18130,215 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="A63" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="J64" s="43" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="47">
+        <v>2</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="G65" s="24">
+        <v>37.974666666666671</v>
+      </c>
+      <c r="H65" s="24">
+        <v>33.601333333333336</v>
+      </c>
+      <c r="I65" s="24">
+        <v>32.171999999999997</v>
+      </c>
+      <c r="J65" s="24">
+        <v>32.037666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="G66" s="24">
+        <v>38.076999999999998</v>
+      </c>
+      <c r="H66" s="24">
+        <v>33.711500000000001</v>
+      </c>
+      <c r="I66" s="24">
+        <v>32.230999999999995</v>
+      </c>
+      <c r="J66" s="24">
+        <v>32.283500000000004</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="A67" s="47">
+        <v>3</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="G67" s="24">
+        <v>34.370249999999999</v>
+      </c>
+      <c r="H67" s="24">
+        <v>30.303750000000001</v>
+      </c>
+      <c r="I67" s="24">
+        <v>29.09225</v>
+      </c>
+      <c r="J67" s="24">
+        <v>28.12575</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="G68" s="24">
+        <v>34.419499999999999</v>
+      </c>
+      <c r="H68" s="24">
+        <v>30.3565</v>
+      </c>
+      <c r="I68" s="24">
+        <v>29.125999999999998</v>
+      </c>
+      <c r="J68" s="24">
+        <v>28.236000000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="A69" s="6">
+        <v>4</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="G69" s="24">
+        <v>32.179499999999997</v>
+      </c>
+      <c r="H69" s="24">
+        <v>28.61675</v>
+      </c>
+      <c r="I69" s="24">
+        <v>27.58625</v>
+      </c>
+      <c r="J69" s="24">
+        <v>26.114750000000001</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -17645,22 +18351,22 @@
       <c r="J71" s="13"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="46" t="s">
         <v>666</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="46" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -17677,12 +18383,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="25" t="s">
         <v>752</v>
       </c>
@@ -17697,7 +18403,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
@@ -17729,7 +18435,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="3" t="s">
         <v>176</v>
       </c>
@@ -17759,7 +18465,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
+      <c r="A77" s="45"/>
       <c r="B77" t="s">
         <v>605</v>
       </c>
@@ -17789,7 +18495,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="43"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="3" t="s">
         <v>591</v>
       </c>
@@ -17819,7 +18525,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="43"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="3" t="s">
         <v>55</v>
       </c>
@@ -17849,7 +18555,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
@@ -17879,7 +18585,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
@@ -17909,7 +18615,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
@@ -17939,7 +18645,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="43"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="3" t="s">
         <v>608</v>
       </c>
@@ -17969,7 +18675,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="43"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="3" t="s">
         <v>570</v>
       </c>
@@ -17999,7 +18705,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="3" t="s">
         <v>581</v>
       </c>
@@ -18029,7 +18735,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="45" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
@@ -18061,7 +18767,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="43"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
@@ -18091,7 +18797,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="43"/>
+      <c r="A88" s="45"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
@@ -18121,7 +18827,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="3" t="s">
         <v>591</v>
       </c>
@@ -18151,7 +18857,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="43"/>
+      <c r="A90" s="45"/>
       <c r="B90" t="s">
         <v>55</v>
       </c>
@@ -18181,7 +18887,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
+      <c r="A91" s="45"/>
       <c r="B91" t="s">
         <v>48</v>
       </c>
@@ -18211,7 +18917,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="43"/>
+      <c r="A92" s="45"/>
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -18241,7 +18947,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="43"/>
+      <c r="A93" s="45"/>
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -18271,7 +18977,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="43"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="3" t="s">
         <v>608</v>
       </c>
@@ -18301,7 +19007,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="43"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="3" t="s">
         <v>570</v>
       </c>
@@ -18331,7 +19037,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="43"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="3" t="s">
         <v>581</v>
       </c>
@@ -18361,7 +19067,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -18393,7 +19099,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="43"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="3" t="s">
         <v>176</v>
       </c>
@@ -18423,7 +19129,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="43"/>
+      <c r="A99" s="45"/>
       <c r="B99" s="3" t="s">
         <v>68</v>
       </c>
@@ -18453,7 +19159,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="43"/>
+      <c r="A100" s="45"/>
       <c r="B100" s="3" t="s">
         <v>591</v>
       </c>
@@ -18483,7 +19189,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="43"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -18513,7 +19219,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="43"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
@@ -18543,7 +19249,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="43"/>
+      <c r="A103" s="45"/>
       <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
@@ -18573,7 +19279,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
+      <c r="A104" s="45"/>
       <c r="B104" s="3" t="s">
         <v>29</v>
       </c>
@@ -18603,7 +19309,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="43"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="3" t="s">
         <v>608</v>
       </c>
@@ -18633,7 +19339,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="43"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="3" t="s">
         <v>570</v>
       </c>
@@ -18663,7 +19369,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="43"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="3" t="s">
         <v>581</v>
       </c>
@@ -18693,19 +19399,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A36:A52"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18715,10 +19429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515ACA67-2B07-43A7-AFC1-63479B1C8D16}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18727,7 +19441,7 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>169</v>
       </c>
@@ -18753,7 +19467,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -18779,7 +19493,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>3</v>
       </c>
@@ -18805,7 +19519,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>4</v>
       </c>
@@ -18831,7 +19545,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -18854,20 +19568,36 @@
         <v>28.12575</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D6" s="24">
+        <v>37.974666666666671</v>
+      </c>
+      <c r="E6" s="24">
+        <v>33.601333333333336</v>
+      </c>
+      <c r="F6" s="24">
+        <v>32.171999999999997</v>
+      </c>
+      <c r="G6" s="24">
+        <v>32.037666666666667</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -18877,7 +19607,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -18887,13 +19617,13 @@
       <c r="G8" s="24"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -18903,7 +19633,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -18912,8 +19642,11 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -18922,8 +19655,11 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -18932,8 +19668,11 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -18942,8 +19681,11 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -18953,7 +19695,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -18962,8 +19704,12 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -18972,8 +19718,12 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -18982,8 +19732,12 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -18992,8 +19746,12 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -19003,7 +19761,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -19013,7 +19771,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -19023,7 +19781,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -19033,7 +19791,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -19043,7 +19801,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -19053,7 +19811,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -19063,7 +19821,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -19073,7 +19831,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -19083,35 +19841,35 @@
       <c r="G28" s="24"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19124,8 +19882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J92" sqref="A78:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21787,7 +22545,7 @@
         <v>235</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J70" s="20">
         <v>19</v>
@@ -21823,7 +22581,7 @@
         <v>236</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J71" s="20">
         <v>19</v>
@@ -21855,7 +22613,7 @@
         <v>235</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J72" s="20">
         <v>19</v>
@@ -21887,7 +22645,7 @@
         <v>236</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J73" s="20">
         <v>19</v>
@@ -21919,7 +22677,7 @@
         <v>235</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J74" s="20">
         <v>19</v>
@@ -21951,7 +22709,7 @@
         <v>236</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J75" s="20">
         <v>19</v>
@@ -21983,7 +22741,7 @@
         <v>235</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J76" s="20">
         <v>19</v>
@@ -22015,7 +22773,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J77" s="20">
         <v>19</v>
@@ -22047,7 +22805,7 @@
         <v>235</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J78" s="20">
         <v>19</v>
@@ -22079,7 +22837,7 @@
         <v>235</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J79" s="20">
         <v>19</v>
@@ -22111,13 +22869,13 @@
         <v>236</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J80" s="20">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>4</v>
       </c>
@@ -22143,13 +22901,13 @@
         <v>235</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J81" s="20">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>4</v>
       </c>
@@ -22175,13 +22933,25 @@
         <v>236</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J82" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82" s="5">
+        <v>32.125</v>
+      </c>
+      <c r="M82" s="5">
+        <v>32.076999999999998</v>
+      </c>
+      <c r="N82" s="5">
+        <v>32.122999999999998</v>
+      </c>
+      <c r="O82" s="5">
+        <v>32.081000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>4</v>
       </c>
@@ -22207,13 +22977,25 @@
         <v>235</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J83" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83" s="5">
+        <v>28.545999999999999</v>
+      </c>
+      <c r="M83" s="5">
+        <v>28.556999999999999</v>
+      </c>
+      <c r="N83" s="5">
+        <v>28.55</v>
+      </c>
+      <c r="O83" s="5">
+        <v>28.559000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>4</v>
       </c>
@@ -22239,206 +23021,439 @@
         <v>235</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J84" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84" s="5">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="M84" s="5">
+        <v>27.555</v>
+      </c>
+      <c r="N84" s="5">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="O84" s="5">
+        <v>27.548999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" s="20">
         <v>64</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>828</v>
+      <c r="C85" s="20">
+        <v>64</v>
       </c>
       <c r="D85" s="24">
-        <v>34.377000000000002</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="E85" s="24">
-        <v>30.303999999999998</v>
+        <v>28.571000000000002</v>
       </c>
       <c r="F85" s="24">
-        <v>29.088999999999999</v>
+        <v>27.548999999999999</v>
       </c>
       <c r="G85" s="24">
-        <v>28.111999999999998</v>
-      </c>
-      <c r="H85" s="6">
-        <v>233</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>854</v>
+        <v>25.97</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>873</v>
       </c>
       <c r="J85" s="20">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L85" s="5">
+        <v>25.986999999999998</v>
+      </c>
+      <c r="M85" s="5">
+        <v>25.977</v>
+      </c>
+      <c r="N85" s="5">
+        <v>25.997</v>
+      </c>
+      <c r="O85" s="5">
+        <v>25.983000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" s="20">
         <v>64</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>828</v>
+      <c r="C86" s="20">
+        <v>64</v>
       </c>
       <c r="D86" s="24">
-        <v>34.384</v>
+        <v>32.136000000000003</v>
       </c>
       <c r="E86" s="24">
-        <v>30.295000000000002</v>
+        <v>28.552</v>
       </c>
       <c r="F86" s="24">
-        <v>29.088999999999999</v>
+        <v>27.548999999999999</v>
       </c>
       <c r="G86" s="24">
-        <v>28.123000000000001</v>
-      </c>
-      <c r="H86" s="6">
-        <v>234</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>854</v>
+        <v>25.986000000000001</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="J86" s="20">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" s="20">
         <v>64</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>828</v>
+      <c r="C87" s="20">
+        <v>64</v>
       </c>
       <c r="D87" s="24">
-        <v>34.378</v>
+        <v>32.072000000000003</v>
       </c>
       <c r="E87" s="24">
-        <v>30.306999999999999</v>
+        <v>28.559000000000001</v>
       </c>
       <c r="F87" s="24">
-        <v>29.096</v>
+        <v>27.544</v>
       </c>
       <c r="G87" s="24">
-        <v>28.146999999999998</v>
-      </c>
-      <c r="H87" s="6">
-        <v>235</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>854</v>
+        <v>25.995000000000001</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>875</v>
       </c>
       <c r="J87" s="20">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88" s="20">
         <v>64</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>828</v>
+      <c r="C88" s="20">
+        <v>64</v>
       </c>
       <c r="D88" s="24">
-        <v>34.341999999999999</v>
+        <v>32.11</v>
       </c>
       <c r="E88" s="24">
-        <v>30.309000000000001</v>
+        <v>28.564</v>
       </c>
       <c r="F88" s="24">
-        <v>29.094999999999999</v>
+        <v>27.556000000000001</v>
       </c>
       <c r="G88" s="24">
-        <v>28.120999999999999</v>
-      </c>
-      <c r="H88" s="6">
-        <v>236</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>854</v>
+        <v>25.995000000000001</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>876</v>
       </c>
       <c r="J88" s="20">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
+        <v>4</v>
+      </c>
+      <c r="B89" s="20">
+        <v>64</v>
+      </c>
+      <c r="C89" s="20">
+        <v>64</v>
+      </c>
+      <c r="D89" s="24">
+        <v>32.125</v>
+      </c>
+      <c r="E89" s="24">
+        <v>28.545999999999999</v>
+      </c>
+      <c r="F89" s="24">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="G89" s="24">
+        <v>25.986999999999998</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J89" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
+        <v>4</v>
+      </c>
+      <c r="B90" s="20">
+        <v>64</v>
+      </c>
+      <c r="C90" s="20">
+        <v>64</v>
+      </c>
+      <c r="D90" s="24">
+        <v>32.076999999999998</v>
+      </c>
+      <c r="E90" s="24">
+        <v>28.556999999999999</v>
+      </c>
+      <c r="F90" s="24">
+        <v>27.555</v>
+      </c>
+      <c r="G90" s="24">
+        <v>25.977</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="J90" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="20">
+        <v>4</v>
+      </c>
+      <c r="B91" s="20">
+        <v>64</v>
+      </c>
+      <c r="C91" s="20">
+        <v>64</v>
+      </c>
+      <c r="D91" s="24">
+        <v>32.122999999999998</v>
+      </c>
+      <c r="E91" s="24">
+        <v>28.55</v>
+      </c>
+      <c r="F91" s="24">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="G91" s="24">
+        <v>25.997</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J91" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="20">
+        <v>4</v>
+      </c>
+      <c r="B92" s="20">
+        <v>64</v>
+      </c>
+      <c r="C92" s="20">
+        <v>64</v>
+      </c>
+      <c r="D92" s="24">
+        <v>32.081000000000003</v>
+      </c>
+      <c r="E92" s="24">
+        <v>28.559000000000001</v>
+      </c>
+      <c r="F92" s="24">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="G92" s="24">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="J92" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="42"/>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>3</v>
+      </c>
+      <c r="B94" s="20">
+        <v>64</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D94" s="24">
+        <v>34.377000000000002</v>
+      </c>
+      <c r="E94" s="24">
+        <v>30.303999999999998</v>
+      </c>
+      <c r="F94" s="24">
+        <v>29.088999999999999</v>
+      </c>
+      <c r="G94" s="24">
+        <v>28.111999999999998</v>
+      </c>
+      <c r="H94" s="6">
+        <v>233</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="J94" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>3</v>
+      </c>
+      <c r="B95" s="20">
+        <v>64</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D95" s="24">
+        <v>34.384</v>
+      </c>
+      <c r="E95" s="24">
+        <v>30.295000000000002</v>
+      </c>
+      <c r="F95" s="24">
+        <v>29.088999999999999</v>
+      </c>
+      <c r="G95" s="24">
+        <v>28.123000000000001</v>
+      </c>
+      <c r="H95" s="6">
+        <v>234</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="J95" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>3</v>
+      </c>
+      <c r="B96" s="20">
+        <v>64</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D96" s="24">
+        <v>34.378</v>
+      </c>
+      <c r="E96" s="24">
+        <v>30.306999999999999</v>
+      </c>
+      <c r="F96" s="24">
+        <v>29.096</v>
+      </c>
+      <c r="G96" s="24">
+        <v>28.146999999999998</v>
+      </c>
+      <c r="H96" s="6">
+        <v>235</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="J96" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>3</v>
+      </c>
+      <c r="B97" s="20">
+        <v>64</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D97" s="24">
+        <v>34.341999999999999</v>
+      </c>
+      <c r="E97" s="24">
+        <v>30.309000000000001</v>
+      </c>
+      <c r="F97" s="24">
+        <v>29.094999999999999</v>
+      </c>
+      <c r="G97" s="24">
+        <v>28.120999999999999</v>
+      </c>
+      <c r="H97" s="6">
+        <v>236</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="J97" s="20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="42"/>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
       <c r="H99" s="42"/>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
       <c r="H100" s="42"/>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="42"/>
     </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -22447,7 +23462,7 @@
       <c r="I102" s="40"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -22456,7 +23471,7 @@
       <c r="I103" s="40"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -22465,7 +23480,7 @@
       <c r="I104" s="40"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
@@ -22474,7 +23489,7 @@
       <c r="I105" s="40"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
@@ -22483,7 +23498,7 @@
       <c r="I106" s="40"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -22492,7 +23507,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -22501,7 +23516,7 @@
       <c r="I108" s="40"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
@@ -22510,7 +23525,7 @@
       <c r="I109" s="40"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
@@ -22519,7 +23534,7 @@
       <c r="I110" s="40"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -22528,7 +23543,7 @@
       <c r="I111" s="40"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -27564,7 +28579,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+      <c r="A2" s="45">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -27587,7 +28602,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" t="s">
         <v>754</v>
       </c>
@@ -27608,7 +28623,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" t="s">
         <v>755</v>
       </c>
@@ -27629,7 +28644,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>756</v>
       </c>
@@ -27650,7 +28665,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -27673,7 +28688,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" t="s">
         <v>754</v>
       </c>
@@ -27694,7 +28709,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>755</v>
       </c>
@@ -27715,7 +28730,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>756</v>
       </c>
@@ -27736,7 +28751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="45">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -27759,7 +28774,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
@@ -27780,7 +28795,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
@@ -27801,7 +28816,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9622D-4DCB-495D-B624-C4945316D0B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E43C0E-C4D5-44B5-9749-E8A379D7D8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="table4" sheetId="15" r:id="rId17"/>
     <sheet name="table5" sheetId="18" r:id="rId18"/>
     <sheet name="table6" sheetId="23" r:id="rId19"/>
-    <sheet name="x2" sheetId="4" r:id="rId20"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId21"/>
+    <sheet name="Sheet4" sheetId="22" r:id="rId20"/>
+    <sheet name="x2" sheetId="4" r:id="rId21"/>
     <sheet name="x3" sheetId="5" r:id="rId22"/>
     <sheet name="x4" sheetId="6" r:id="rId23"/>
   </sheets>
@@ -13672,7 +13672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
@@ -14810,6 +14810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -15440,19 +15453,6 @@
   <sortState ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15996,8 +15996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19400,11 +19400,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="A75:A85"/>
     <mergeCell ref="A86:A96"/>
     <mergeCell ref="A97:A107"/>
@@ -19414,12 +19415,11 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E43C0E-C4D5-44B5-9749-E8A379D7D8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9622D-4DCB-495D-B624-C4945316D0B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="table4" sheetId="15" r:id="rId17"/>
     <sheet name="table5" sheetId="18" r:id="rId18"/>
     <sheet name="table6" sheetId="23" r:id="rId19"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId20"/>
-    <sheet name="x2" sheetId="4" r:id="rId21"/>
+    <sheet name="x2" sheetId="4" r:id="rId20"/>
+    <sheet name="Sheet4" sheetId="22" r:id="rId21"/>
     <sheet name="x3" sheetId="5" r:id="rId22"/>
     <sheet name="x4" sheetId="6" r:id="rId23"/>
   </sheets>
@@ -13672,7 +13672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
@@ -14810,19 +14810,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -15453,6 +15440,19 @@
   <sortState ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15996,8 +15996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19400,12 +19400,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="A75:A85"/>
     <mergeCell ref="A86:A96"/>
     <mergeCell ref="A97:A107"/>
@@ -19415,11 +19414,12 @@
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9622D-4DCB-495D-B624-C4945316D0B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780119CB-C080-4004-96DE-DC885E8B8967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,8 @@
     <sheet name="table5" sheetId="18" r:id="rId18"/>
     <sheet name="table6" sheetId="23" r:id="rId19"/>
     <sheet name="x2" sheetId="4" r:id="rId20"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId21"/>
-    <sheet name="x3" sheetId="5" r:id="rId22"/>
-    <sheet name="x4" sheetId="6" r:id="rId23"/>
+    <sheet name="x3" sheetId="5" r:id="rId21"/>
+    <sheet name="x4" sheetId="6" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Ablation!$A$1:$J$82</definedName>
@@ -38,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">main!$A$1:$I$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">table1!$F$14:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="915">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1930,10 +1929,6 @@
   </si>
   <si>
     <t>6064G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* memory runtime and footprint are estimated by (960, 540)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3246,6 +3241,152 @@
     <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LatticeNet</t>
+  </si>
+  <si>
+    <t>SwinIR </t>
+  </si>
+  <si>
+    <t>SwinIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">878K </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.14 / 0.9611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33.86 / 0.9206 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">32.31 / 0.9012 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.76 / 0.9340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* memory runtime and footprint are estimated by (960, 540) -&gt; (1920, 1080)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2910MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2877ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1204ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1305MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>759MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>654ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LatticeNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>473MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>787MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1710MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>279G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1731MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>457MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3258,7 +3399,7 @@
     <numFmt numFmtId="179" formatCode="0.000"/>
     <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3346,6 +3487,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3408,7 +3555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3531,6 +3678,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3570,8 +3718,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10859654179669445"/>
-          <c:y val="0.11489583333333335"/>
+          <c:x val="0.11277299668695319"/>
+          <c:y val="0.11489572350464741"/>
           <c:w val="0.84462716343240796"/>
           <c:h val="0.71703712817147858"/>
         </c:manualLayout>
@@ -3609,8 +3757,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0882274451293381E-3"/>
-                  <c:y val="-3.2876712328767189E-2"/>
+                  <c:x val="6.2646823353880721E-3"/>
+                  <c:y val="-3.8431179008606833E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3632,7 +3780,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3642,8 +3792,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8029231237975221E-2"/>
-                  <c:y val="-0.17397245892208679"/>
+                  <c:x val="-5.8470368463622011E-2"/>
+                  <c:y val="-0.19559395616088529"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3665,7 +3815,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3675,8 +3827,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2646823353880721E-3"/>
-                  <c:y val="-7.055750907848847E-2"/>
+                  <c:x val="-1.4617592115905541E-2"/>
+                  <c:y val="-9.9386252394126406E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3698,7 +3850,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3708,8 +3862,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.9223744292237442E-2"/>
+                  <c:x val="-4.1764548902587535E-3"/>
+                  <c:y val="-2.4552571954146826E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3731,7 +3885,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3741,8 +3897,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7588094012328474E-2"/>
-                  <c:y val="0.14977168949771688"/>
+                  <c:x val="-4.1764548902587149E-2"/>
+                  <c:y val="7.915741301568073E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3764,7 +3920,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3774,8 +3932,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6705819561034861E-2"/>
-                  <c:y val="6.8645309747240493E-2"/>
+                  <c:x val="-4.1764548902587191E-2"/>
+                  <c:y val="0.18659906827885839"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3797,7 +3955,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3807,8 +3967,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="5.4794520547945202E-2"/>
+                  <c:x val="2.0882274451293576E-3"/>
+                  <c:y val="0.11839678159888127"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3830,7 +3990,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3840,8 +4002,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0882274451293958E-3"/>
-                  <c:y val="-1.8122173084528785E-2"/>
+                  <c:x val="8.3529097805174306E-3"/>
+                  <c:y val="-5.2310085170977592E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3863,7 +4025,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3873,8 +4037,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4617592115905503E-2"/>
-                  <c:y val="-0.13646309279833174"/>
+                  <c:x val="-7.6567455140967565E-17"/>
+                  <c:y val="-5.4473532688755821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3896,7 +4060,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3906,8 +4072,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8794047006164216E-2"/>
-                  <c:y val="7.5589688275266964E-2"/>
+                  <c:x val="8.3529097805174306E-3"/>
+                  <c:y val="-2.317577824139504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3929,7 +4095,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-81A2-43F5-989D-DC7B4FB758DB}"/>
                 </c:ext>
@@ -3939,8 +4107,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5058729341552288E-2"/>
-                  <c:y val="-9.786905403947796E-2"/>
+                  <c:x val="-4.3852776347716504E-2"/>
+                  <c:y val="-0.10080863823645976"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3950,7 +4118,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:t>SRFBN</a:t>
+                      <a:t>HAN</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -3962,18 +4130,20 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-9DBF-464D-BE69-112C56932003}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.5941003792845825E-2"/>
-                  <c:y val="7.9861111111111105E-2"/>
+                  <c:x val="3.3411639122069722E-2"/>
+                  <c:y val="9.125722532546672E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3983,7 +4153,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:t>VDSR</a:t>
+                      <a:t>RFDN</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -3995,9 +4165,78 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E476-4A44-9CEE-D96146136EE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2646823353880721E-3"/>
+                  <c:y val="-0.1519468186134853"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>LatticeNet</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-9DBF-464D-BE69-112C56932003}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6705819561034861E-2"/>
+                  <c:y val="-0.14073565590625961"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:t>SwinIR-S</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4058,10 +4297,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'fig1'!$B$2:$B$12</c:f>
+              <c:f>'fig1'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>368</c:v>
                 </c:pt>
@@ -4093,17 +4332,26 @@
                   <c:v>4112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8319</c:v>
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fig1'!$C$2:$C$12</c:f>
+              <c:f>'fig1'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>31.53</c:v>
                 </c:pt>
@@ -4135,17 +4383,26 @@
                   <c:v>32.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.29</c:v>
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'fig1'!$D$2:$D$12</c:f>
+              <c:f>'fig1'!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -4177,7 +4434,16 @@
                   <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3032</c:v>
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4205,10 +4471,9 @@
       <c:valAx>
         <c:axId val="730769664"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="19200"/>
-          <c:min val="300"/>
+          <c:max val="5000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6573,7 +6838,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8891,18 +9156,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -8913,7 +9178,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -8924,7 +9189,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8935,13 +9200,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
         <v>662</v>
-      </c>
-      <c r="C7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8974,12 +9239,12 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -13034,7 +13299,7 @@
         <v>27.305499999999999</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>575</v>
@@ -13174,7 +13439,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G7" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>575</v>
@@ -13266,7 +13531,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G12" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>575</v>
@@ -13396,7 +13661,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>19</v>
@@ -13660,7 +13925,7 @@
       <c r="M24" s="44"/>
     </row>
   </sheetData>
-  <sortState ref="I9:M23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I9:M23">
     <sortCondition ref="I9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13672,7 +13937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
@@ -13680,7 +13945,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -13793,7 +14058,7 @@
       <c r="G18" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13805,7 +14070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D950B001-5A70-49CF-B0AD-A1C1268DEB55}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -15437,7 +15702,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15446,24 +15711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7E11B-7039-4903-94A8-3DC0B1778328}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15984,7 +16236,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15992,7 +16244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -16554,7 +16806,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16566,8 +16818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:J64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16591,7 +16843,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -16653,13 +16905,13 @@
         <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E3" t="s">
         <v>583</v>
       </c>
       <c r="F3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>178</v>
@@ -16678,19 +16930,19 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C4" t="s">
         <v>584</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E4" t="s">
         <v>586</v>
       </c>
       <c r="F4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>184</v>
@@ -16708,19 +16960,19 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" t="s">
         <v>596</v>
       </c>
-      <c r="D5" t="s">
-        <v>622</v>
-      </c>
-      <c r="E5" t="s">
-        <v>597</v>
-      </c>
       <c r="F5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>191</v>
@@ -16741,7 +16993,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D6" t="s">
         <v>587</v>
@@ -16750,7 +17002,7 @@
         <v>588</v>
       </c>
       <c r="F6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>209</v>
@@ -16771,19 +17023,19 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D7" t="s">
         <v>589</v>
       </c>
       <c r="E7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>215</v>
@@ -16807,16 +17059,16 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E8" t="s">
         <v>592</v>
       </c>
-      <c r="D8" t="s">
-        <v>627</v>
-      </c>
-      <c r="E8" t="s">
-        <v>593</v>
-      </c>
       <c r="F8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>240</v>
@@ -16840,16 +17092,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>221</v>
@@ -16873,28 +17125,28 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>724</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -16906,16 +17158,16 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D11" t="s">
         <v>601</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>602</v>
       </c>
-      <c r="E11" t="s">
-        <v>603</v>
-      </c>
       <c r="F11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>245</v>
@@ -16936,19 +17188,19 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>228</v>
@@ -16966,19 +17218,19 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E13" t="s">
         <v>654</v>
       </c>
-      <c r="E13" t="s">
-        <v>655</v>
-      </c>
       <c r="F13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -16987,28 +17239,28 @@
         <v>580</v>
       </c>
       <c r="C14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D14" t="s">
+        <v>647</v>
+      </c>
+      <c r="E14" t="s">
         <v>648</v>
       </c>
-      <c r="E14" t="s">
-        <v>649</v>
-      </c>
       <c r="F14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G14" t="s">
+        <v>748</v>
+      </c>
+      <c r="H14" t="s">
         <v>749</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>750</v>
       </c>
-      <c r="I14" t="s">
-        <v>751</v>
-      </c>
       <c r="J14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -17017,46 +17269,46 @@
         <v>581</v>
       </c>
       <c r="C15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" t="s">
         <v>699</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>700</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>701</v>
       </c>
-      <c r="F15" t="s">
-        <v>702</v>
-      </c>
       <c r="G15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H15" t="s">
+        <v>745</v>
+      </c>
+      <c r="I15" t="s">
         <v>746</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>747</v>
-      </c>
-      <c r="J15" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C16" t="s">
+        <v>861</v>
+      </c>
+      <c r="D16" t="s">
         <v>862</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>863</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>864</v>
-      </c>
-      <c r="F16" t="s">
-        <v>865</v>
       </c>
       <c r="G16">
         <v>38.076999999999998</v>
@@ -17071,22 +17323,22 @@
         <v>32.283500000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C17" t="s">
+        <v>856</v>
+      </c>
+      <c r="D17" t="s">
+        <v>855</v>
+      </c>
+      <c r="E17" t="s">
+        <v>854</v>
+      </c>
+      <c r="F17" t="s">
         <v>857</v>
-      </c>
-      <c r="D17" t="s">
-        <v>856</v>
-      </c>
-      <c r="E17" t="s">
-        <v>855</v>
-      </c>
-      <c r="F17" t="s">
-        <v>858</v>
       </c>
       <c r="G17" s="24">
         <v>37.974666666666671</v>
@@ -17101,1005 +17353,1106 @@
         <v>32.037666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
+      <c r="B18" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D18" t="s">
+        <v>905</v>
+      </c>
+      <c r="E18" t="s">
+        <v>904</v>
+      </c>
+      <c r="F18" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>906</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>907</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>585</v>
+        <v>882</v>
+      </c>
+      <c r="C20" t="s">
+        <v>883</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>583</v>
+        <v>891</v>
       </c>
       <c r="F20" t="s">
-        <v>667</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+        <v>890</v>
+      </c>
+      <c r="G20" t="s">
+        <v>884</v>
+      </c>
+      <c r="H20" t="s">
+        <v>885</v>
+      </c>
+      <c r="I20" t="s">
+        <v>886</v>
+      </c>
+      <c r="J20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>584</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>623</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>683</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C22" t="s">
-        <v>596</v>
+        <v>176</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="D22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E22" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F22" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E23" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="F23" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D24" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F24" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D25" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E25" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="F25" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
-      <c r="B26" t="s">
-        <v>40</v>
+      <c r="B26" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="C26" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D26" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="E26" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="F26" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="D27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>686</v>
-      </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>726</v>
-      </c>
-      <c r="I27" t="s">
-        <v>728</v>
-      </c>
-      <c r="J27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D28" t="s">
+        <v>624</v>
+      </c>
+      <c r="E28" t="s">
+        <v>617</v>
+      </c>
+      <c r="F28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" t="s">
+        <v>612</v>
+      </c>
+      <c r="E29" t="s">
+        <v>613</v>
+      </c>
+      <c r="F29" t="s">
+        <v>685</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>725</v>
+      </c>
+      <c r="I29" t="s">
+        <v>727</v>
+      </c>
+      <c r="J29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>631</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
+        <v>630</v>
+      </c>
+      <c r="D30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E30" t="s">
         <v>619</v>
       </c>
-      <c r="E28" t="s">
-        <v>620</v>
-      </c>
-      <c r="F28" t="s">
-        <v>687</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F30" t="s">
+        <v>686</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" t="s">
-        <v>621</v>
-      </c>
-      <c r="E29" t="s">
-        <v>629</v>
-      </c>
-      <c r="F29" t="s">
-        <v>688</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C30" t="s">
-        <v>650</v>
-      </c>
-      <c r="D30" t="s">
-        <v>646</v>
-      </c>
-      <c r="E30" t="s">
-        <v>653</v>
-      </c>
-      <c r="F30" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C31" t="s">
-        <v>643</v>
+        <v>607</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="D31" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="E31" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
-        <v>690</v>
-      </c>
-      <c r="G31" t="s">
-        <v>742</v>
-      </c>
-      <c r="H31" t="s">
-        <v>743</v>
-      </c>
-      <c r="I31" t="s">
-        <v>744</v>
-      </c>
-      <c r="J31" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="C32" t="s">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="D32" t="s">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="E32" t="s">
-        <v>705</v>
+        <v>652</v>
       </c>
       <c r="F32" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" t="s">
-        <v>738</v>
-      </c>
-      <c r="H32" t="s">
-        <v>739</v>
-      </c>
-      <c r="I32" t="s">
-        <v>740</v>
-      </c>
-      <c r="J32" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
-        <v>854</v>
+        <v>570</v>
       </c>
       <c r="C33" t="s">
-        <v>859</v>
+        <v>642</v>
       </c>
       <c r="D33" t="s">
-        <v>860</v>
+        <v>645</v>
       </c>
       <c r="E33" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="F33" t="s">
-        <v>861</v>
-      </c>
-      <c r="G33" s="24">
-        <v>34.370249999999999</v>
-      </c>
-      <c r="H33" s="24">
-        <v>30.303750000000001</v>
-      </c>
-      <c r="I33" s="24">
-        <v>29.09225</v>
-      </c>
-      <c r="J33" s="24">
-        <v>28.12575</v>
+        <v>689</v>
+      </c>
+      <c r="G33" t="s">
+        <v>741</v>
+      </c>
+      <c r="H33" t="s">
+        <v>742</v>
+      </c>
+      <c r="I33" t="s">
+        <v>743</v>
+      </c>
+      <c r="J33" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
       <c r="C34" t="s">
-        <v>862</v>
+        <v>702</v>
       </c>
       <c r="D34" t="s">
-        <v>866</v>
+        <v>703</v>
       </c>
       <c r="E34" t="s">
-        <v>867</v>
+        <v>704</v>
       </c>
       <c r="F34" t="s">
-        <v>868</v>
-      </c>
-      <c r="G34" s="24">
-        <v>34.419499999999999</v>
-      </c>
-      <c r="H34" s="24">
-        <v>30.3565</v>
-      </c>
-      <c r="I34" s="24">
-        <v>29.125999999999998</v>
-      </c>
-      <c r="J34" s="24">
-        <v>28.236000000000001</v>
+        <v>705</v>
+      </c>
+      <c r="G34" t="s">
+        <v>737</v>
+      </c>
+      <c r="H34" t="s">
+        <v>738</v>
+      </c>
+      <c r="I34" t="s">
+        <v>739</v>
+      </c>
+      <c r="J34" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C35" t="s">
+        <v>858</v>
+      </c>
+      <c r="D35" t="s">
+        <v>859</v>
+      </c>
+      <c r="E35" t="s">
+        <v>619</v>
+      </c>
+      <c r="F35" t="s">
+        <v>860</v>
+      </c>
+      <c r="G35" s="24">
+        <v>34.370249999999999</v>
+      </c>
+      <c r="H35" s="24">
+        <v>30.303750000000001</v>
+      </c>
+      <c r="I35" s="24">
+        <v>29.09225</v>
+      </c>
+      <c r="J35" s="24">
+        <v>28.12575</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>165</v>
-      </c>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>663</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>861</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>865</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>866</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>329</v>
+        <v>867</v>
+      </c>
+      <c r="G36" s="24">
+        <v>34.419499999999999</v>
+      </c>
+      <c r="H36" s="24">
+        <v>30.3565</v>
+      </c>
+      <c r="I36" s="24">
+        <v>29.125999999999998</v>
+      </c>
+      <c r="J36" s="24">
+        <v>28.236000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>585</v>
+        <v>897</v>
       </c>
       <c r="D37" t="s">
-        <v>582</v>
+        <v>902</v>
       </c>
       <c r="E37" t="s">
-        <v>583</v>
+        <v>901</v>
       </c>
       <c r="F37" t="s">
-        <v>667</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>334</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>584</v>
+        <v>879</v>
       </c>
       <c r="D38" t="s">
-        <v>623</v>
+        <v>910</v>
       </c>
       <c r="E38" t="s">
-        <v>630</v>
+        <v>909</v>
       </c>
       <c r="F38" t="s">
-        <v>691</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>339</v>
+        <v>911</v>
       </c>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C39" t="s">
-        <v>596</v>
+        <v>882</v>
       </c>
       <c r="D39" t="s">
-        <v>622</v>
+        <v>893</v>
       </c>
       <c r="E39" t="s">
-        <v>597</v>
+        <v>892</v>
       </c>
       <c r="F39" t="s">
-        <v>670</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>344</v>
+        <v>894</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+      <c r="A40" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>598</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>587</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>588</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>672</v>
+        <v>25</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+        <v>329</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C41" t="s">
-        <v>594</v>
+        <v>176</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="D41" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E41" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F41" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+        <v>334</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D42" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E42" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F42" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+        <v>339</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>590</v>
       </c>
       <c r="C43" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D43" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E43" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="F43" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+        <v>344</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>597</v>
       </c>
       <c r="D44" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="E44" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="F44" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>155</v>
+        <v>357</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>729</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+        <v>728</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>608</v>
       </c>
       <c r="C45" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="D45" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="E45" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="F45" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+        <v>364</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>371</v>
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>591</v>
       </c>
       <c r="D46" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E46" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F46" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="M46" s="3"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="3" t="s">
-        <v>607</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="D47" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="E47" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="F47" t="s">
-        <v>697</v>
+        <v>692</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
-        <v>570</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>643</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E48" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F48" t="s">
-        <v>698</v>
-      </c>
-      <c r="G48" t="s">
-        <v>730</v>
-      </c>
-      <c r="H48" t="s">
-        <v>731</v>
-      </c>
-      <c r="I48" t="s">
-        <v>732</v>
-      </c>
-      <c r="J48" t="s">
-        <v>733</v>
+        <v>693</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="3" t="s">
-        <v>581</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>707</v>
+        <v>631</v>
       </c>
       <c r="D49" t="s">
-        <v>708</v>
+        <v>638</v>
       </c>
       <c r="E49" t="s">
-        <v>709</v>
+        <v>639</v>
       </c>
       <c r="F49" t="s">
-        <v>710</v>
-      </c>
-      <c r="G49" t="s">
-        <v>734</v>
-      </c>
-      <c r="H49" t="s">
-        <v>735</v>
-      </c>
-      <c r="I49" t="s">
-        <v>736</v>
-      </c>
-      <c r="J49" t="s">
-        <v>737</v>
+        <v>694</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
-        <v>836</v>
+        <v>607</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>837</v>
+        <v>371</v>
       </c>
       <c r="D50" t="s">
-        <v>838</v>
+        <v>640</v>
       </c>
       <c r="E50" t="s">
-        <v>839</v>
+        <v>641</v>
       </c>
       <c r="F50" t="s">
-        <v>840</v>
-      </c>
-      <c r="G50" t="s">
-        <v>843</v>
-      </c>
-      <c r="H50" t="s">
-        <v>841</v>
-      </c>
-      <c r="I50" t="s">
-        <v>844</v>
-      </c>
-      <c r="J50" t="s">
-        <v>842</v>
+        <v>695</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="3" t="s">
-        <v>664</v>
+        <v>606</v>
       </c>
       <c r="C51" t="s">
-        <v>862</v>
+        <v>649</v>
       </c>
       <c r="D51" t="s">
-        <v>869</v>
+        <v>650</v>
       </c>
       <c r="E51" t="s">
-        <v>870</v>
+        <v>651</v>
       </c>
       <c r="F51" t="s">
-        <v>871</v>
-      </c>
-      <c r="G51" s="24">
-        <v>32.179499999999997</v>
-      </c>
-      <c r="H51" s="24">
-        <v>28.61675</v>
-      </c>
-      <c r="I51" s="24">
-        <v>27.58625</v>
-      </c>
-      <c r="J51" s="24">
-        <v>26.114750000000001</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D52" t="s">
+        <v>643</v>
+      </c>
+      <c r="E52" t="s">
+        <v>644</v>
+      </c>
+      <c r="F52" t="s">
+        <v>697</v>
+      </c>
+      <c r="G52" t="s">
+        <v>729</v>
+      </c>
+      <c r="H52" t="s">
+        <v>730</v>
+      </c>
+      <c r="I52" t="s">
+        <v>731</v>
+      </c>
+      <c r="J52" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53" t="s">
+        <v>706</v>
+      </c>
+      <c r="D53" t="s">
+        <v>707</v>
+      </c>
+      <c r="E53" t="s">
+        <v>708</v>
+      </c>
+      <c r="F53" t="s">
+        <v>709</v>
+      </c>
+      <c r="G53" t="s">
+        <v>733</v>
+      </c>
+      <c r="H53" t="s">
+        <v>734</v>
+      </c>
+      <c r="I53" t="s">
+        <v>735</v>
+      </c>
+      <c r="J53" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D54" t="s">
+        <v>837</v>
+      </c>
+      <c r="E54" t="s">
+        <v>838</v>
+      </c>
+      <c r="F54" t="s">
+        <v>839</v>
+      </c>
+      <c r="G54" t="s">
+        <v>842</v>
+      </c>
+      <c r="H54" t="s">
+        <v>840</v>
+      </c>
+      <c r="I54" t="s">
+        <v>843</v>
+      </c>
+      <c r="J54" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C55" t="s">
+        <v>861</v>
+      </c>
+      <c r="D55" t="s">
+        <v>868</v>
+      </c>
+      <c r="E55" t="s">
+        <v>869</v>
+      </c>
+      <c r="F55" t="s">
+        <v>870</v>
+      </c>
+      <c r="G55" s="24">
+        <v>32.179499999999997</v>
+      </c>
+      <c r="H55" s="24">
+        <v>28.61675</v>
+      </c>
+      <c r="I55" s="24">
+        <v>27.58625</v>
+      </c>
+      <c r="J55" s="24">
+        <v>26.114750000000001</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D56" t="s">
+        <v>898</v>
+      </c>
+      <c r="E56" t="s">
+        <v>651</v>
+      </c>
+      <c r="F56" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D57" t="s">
+        <v>914</v>
+      </c>
+      <c r="E57" t="s">
+        <v>912</v>
+      </c>
+      <c r="F57" t="s">
+        <v>913</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D58" t="s">
+        <v>632</v>
+      </c>
+      <c r="E58" t="s">
+        <v>896</v>
+      </c>
+      <c r="F58" t="s">
+        <v>895</v>
+      </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -18122,7 +18475,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>590</v>
+        <v>888</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -18140,7 +18493,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>17</v>
@@ -18169,16 +18522,16 @@
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
       <c r="G64" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -18186,19 +18539,19 @@
         <v>2</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C65" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>857</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>856</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>858</v>
       </c>
       <c r="G65" s="24">
         <v>37.974666666666671</v>
@@ -18216,19 +18569,19 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="47"/>
       <c r="B66" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C66" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>862</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="E66" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="F66" s="24" t="s">
         <v>864</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>865</v>
       </c>
       <c r="G66" s="24">
         <v>38.076999999999998</v>
@@ -18248,19 +18601,19 @@
         <v>3</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C67" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>859</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="E67" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="F67" s="24" t="s">
         <v>860</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>861</v>
       </c>
       <c r="G67" s="24">
         <v>34.370249999999999</v>
@@ -18278,19 +18631,19 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
       <c r="B68" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D68" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="F68" s="24" t="s">
         <v>867</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>868</v>
       </c>
       <c r="G68" s="24">
         <v>34.419499999999999</v>
@@ -18310,19 +18663,19 @@
         <v>4</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D69" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>869</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="F69" s="24" t="s">
         <v>870</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>871</v>
       </c>
       <c r="G69" s="24">
         <v>32.179499999999997</v>
@@ -18361,7 +18714,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>17</v>
@@ -18390,16 +18743,16 @@
       <c r="E74" s="46"/>
       <c r="F74" s="46"/>
       <c r="G74" s="25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H74" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I74" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J74" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -18443,13 +18796,13 @@
         <v>585</v>
       </c>
       <c r="D76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E76" t="s">
         <v>583</v>
       </c>
       <c r="F76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>178</v>
@@ -18467,19 +18820,19 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C77" t="s">
         <v>584</v>
       </c>
       <c r="D77" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E77" t="s">
         <v>586</v>
       </c>
       <c r="F77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>184</v>
@@ -18497,19 +18850,19 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C78" t="s">
+        <v>595</v>
+      </c>
+      <c r="D78" t="s">
+        <v>797</v>
+      </c>
+      <c r="E78" t="s">
         <v>596</v>
       </c>
-      <c r="D78" t="s">
-        <v>798</v>
-      </c>
-      <c r="E78" t="s">
-        <v>597</v>
-      </c>
       <c r="F78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>191</v>
@@ -18530,16 +18883,16 @@
         <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D79" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E79" t="s">
         <v>588</v>
       </c>
       <c r="F79" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>209</v>
@@ -18560,16 +18913,16 @@
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E80" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F80" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>240</v>
@@ -18590,16 +18943,16 @@
         <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>221</v>
@@ -18620,16 +18973,16 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
+        <v>600</v>
+      </c>
+      <c r="D82" t="s">
         <v>601</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>602</v>
       </c>
-      <c r="E82" t="s">
-        <v>603</v>
-      </c>
       <c r="F82" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G82" s="31" t="s">
         <v>245</v>
@@ -18641,25 +18994,25 @@
         <v>247</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F83" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>228</v>
@@ -18680,28 +19033,28 @@
         <v>570</v>
       </c>
       <c r="C84" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D84" t="s">
+        <v>647</v>
+      </c>
+      <c r="E84" t="s">
         <v>648</v>
       </c>
-      <c r="E84" t="s">
-        <v>649</v>
-      </c>
       <c r="F84" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G84" t="s">
+        <v>759</v>
+      </c>
+      <c r="H84" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="H84" s="34" t="s">
+      <c r="I84" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="I84" s="34" t="s">
-        <v>762</v>
-      </c>
       <c r="J84" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -18710,28 +19063,28 @@
         <v>581</v>
       </c>
       <c r="C85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E85" t="s">
+        <v>700</v>
+      </c>
+      <c r="F85" t="s">
         <v>701</v>
       </c>
-      <c r="F85" t="s">
-        <v>702</v>
-      </c>
       <c r="G85" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H85" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="J85" s="29" t="s">
         <v>764</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -18775,13 +19128,13 @@
         <v>585</v>
       </c>
       <c r="D87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E87" t="s">
         <v>583</v>
       </c>
       <c r="F87" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>261</v>
@@ -18805,13 +19158,13 @@
         <v>584</v>
       </c>
       <c r="D88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>266</v>
@@ -18829,19 +19182,19 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C89" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" t="s">
+        <v>797</v>
+      </c>
+      <c r="E89" t="s">
         <v>596</v>
       </c>
-      <c r="D89" t="s">
-        <v>798</v>
-      </c>
-      <c r="E89" t="s">
-        <v>597</v>
-      </c>
       <c r="F89" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>271</v>
@@ -18862,16 +19215,16 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E90" t="s">
         <v>588</v>
       </c>
       <c r="F90" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>286</v>
@@ -18892,16 +19245,16 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D91" t="s">
+        <v>615</v>
+      </c>
+      <c r="E91" t="s">
         <v>616</v>
       </c>
-      <c r="E91" t="s">
-        <v>617</v>
-      </c>
       <c r="F91" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>309</v>
@@ -18922,16 +19275,16 @@
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D92" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E92" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F92" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>296</v>
@@ -18952,46 +19305,46 @@
         <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D93" t="s">
+        <v>618</v>
+      </c>
+      <c r="E93" t="s">
         <v>619</v>
       </c>
-      <c r="E93" t="s">
-        <v>620</v>
-      </c>
       <c r="F93" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>314</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>316</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D94" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E94" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F94" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>301</v>
@@ -19000,10 +19353,10 @@
         <v>302</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -19012,28 +19365,28 @@
         <v>570</v>
       </c>
       <c r="C95" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D95" t="s">
+        <v>645</v>
+      </c>
+      <c r="E95" t="s">
         <v>646</v>
       </c>
-      <c r="E95" t="s">
-        <v>647</v>
-      </c>
       <c r="F95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G95" t="s">
+        <v>765</v>
+      </c>
+      <c r="H95" t="s">
         <v>766</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>767</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>768</v>
-      </c>
-      <c r="J95" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -19042,28 +19395,28 @@
         <v>581</v>
       </c>
       <c r="C96" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D96" t="s">
+        <v>703</v>
+      </c>
+      <c r="E96" t="s">
         <v>704</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>705</v>
       </c>
-      <c r="F96" t="s">
-        <v>706</v>
-      </c>
       <c r="G96" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="H96" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="I96" s="29" t="s">
         <v>771</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="J96" s="29" t="s">
         <v>772</v>
-      </c>
-      <c r="J96" s="29" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -19113,7 +19466,7 @@
         <v>583</v>
       </c>
       <c r="F98" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>331</v>
@@ -19137,13 +19490,13 @@
         <v>584</v>
       </c>
       <c r="D99" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E99" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F99" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>336</v>
@@ -19161,19 +19514,19 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C100" t="s">
+        <v>595</v>
+      </c>
+      <c r="D100" t="s">
+        <v>797</v>
+      </c>
+      <c r="E100" t="s">
         <v>596</v>
       </c>
-      <c r="D100" t="s">
-        <v>798</v>
-      </c>
-      <c r="E100" t="s">
-        <v>597</v>
-      </c>
       <c r="F100" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>341</v>
@@ -19194,16 +19547,16 @@
         <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D101" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E101" t="s">
         <v>588</v>
       </c>
       <c r="F101" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>356</v>
@@ -19224,28 +19577,28 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D102" t="s">
+        <v>632</v>
+      </c>
+      <c r="E102" t="s">
         <v>633</v>
       </c>
-      <c r="E102" t="s">
-        <v>634</v>
-      </c>
       <c r="F102" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>383</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -19254,16 +19607,16 @@
         <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D103" t="s">
+        <v>634</v>
+      </c>
+      <c r="E103" t="s">
         <v>635</v>
       </c>
-      <c r="E103" t="s">
-        <v>636</v>
-      </c>
       <c r="F103" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>366</v>
@@ -19284,16 +19637,16 @@
         <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D104" t="s">
+        <v>638</v>
+      </c>
+      <c r="E104" t="s">
         <v>639</v>
       </c>
-      <c r="E104" t="s">
-        <v>640</v>
-      </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G104" s="31" t="s">
         <v>389</v>
@@ -19311,31 +19664,31 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D105" t="s">
+        <v>640</v>
+      </c>
+      <c r="E105" t="s">
         <v>641</v>
       </c>
-      <c r="E105" t="s">
-        <v>642</v>
-      </c>
       <c r="F105" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>372</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -19344,28 +19697,28 @@
         <v>570</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E106" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F106" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G106" t="s">
+        <v>773</v>
+      </c>
+      <c r="H106" t="s">
         <v>774</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>775</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>776</v>
-      </c>
-      <c r="J106" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -19374,52 +19727,52 @@
         <v>581</v>
       </c>
       <c r="C107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D107" t="s">
+        <v>707</v>
+      </c>
+      <c r="E107" t="s">
         <v>708</v>
       </c>
-      <c r="E107" t="s">
-        <v>709</v>
-      </c>
       <c r="F107" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G107" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="H107" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="I107" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="I107" s="29" t="s">
+      <c r="J107" s="29" t="s">
         <v>780</v>
-      </c>
-      <c r="J107" s="29" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A52"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A39"/>
+    <mergeCell ref="A40:A58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19490,7 +19843,7 @@
         <v>32.283500000000004</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -19516,7 +19869,7 @@
         <v>28.236000000000001</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -19542,7 +19895,7 @@
         <v>26.114750000000001</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -19553,7 +19906,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D5" s="24">
         <v>34.370249999999999</v>
@@ -19568,7 +19921,7 @@
         <v>28.12575</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -19579,7 +19932,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D6" s="24">
         <v>37.974666666666671</v>
@@ -19594,7 +19947,7 @@
         <v>32.037666666666667</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -19882,7 +20235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J92" sqref="A78:J92"/>
     </sheetView>
   </sheetViews>
@@ -19927,16 +20280,16 @@
         <v>557</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>714</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>715</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -20917,7 +21270,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D27" s="20">
         <v>32.201000000000001</v>
@@ -20964,7 +21317,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D28" s="20">
         <v>32.146000000000001</v>
@@ -20982,7 +21335,7 @@
         <v>234</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J28" s="20">
         <v>20</v>
@@ -21003,7 +21356,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D29" s="20">
         <v>32.191000000000003</v>
@@ -21021,7 +21374,7 @@
         <v>235</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J29" s="20">
         <v>20</v>
@@ -21050,7 +21403,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D30" s="20">
         <v>32.226999999999997</v>
@@ -21491,7 +21844,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D41" s="20">
         <v>34.487000000000002</v>
@@ -21509,7 +21862,7 @@
         <v>233</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J41" s="20">
         <v>17</v>
@@ -21535,7 +21888,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D42" s="20">
         <v>34.457999999999998</v>
@@ -21553,7 +21906,7 @@
         <v>234</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J42" s="20">
         <v>17</v>
@@ -21579,7 +21932,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D43" s="20">
         <v>34.421999999999997</v>
@@ -21597,7 +21950,7 @@
         <v>235</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J43" s="20">
         <v>17</v>
@@ -21623,7 +21976,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D44" s="20">
         <v>34.497</v>
@@ -21641,7 +21994,7 @@
         <v>236</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J44" s="20">
         <v>17</v>
@@ -21667,7 +22020,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D45" s="20">
         <v>34.460999999999999</v>
@@ -21703,7 +22056,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D46" s="20">
         <v>34.448999999999998</v>
@@ -21735,7 +22088,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
@@ -21759,7 +22112,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D48" s="20">
         <v>34.465000000000003</v>
@@ -21791,7 +22144,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D49" s="20">
         <v>38.095999999999997</v>
@@ -21809,7 +22162,7 @@
         <v>235</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J49" s="20">
         <v>30</v>
@@ -21835,7 +22188,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D50" s="20">
         <v>38.094999999999999</v>
@@ -21879,7 +22232,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D51" s="20">
         <v>38.095999999999997</v>
@@ -21915,7 +22268,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D52" s="20">
         <v>38.067</v>
@@ -21947,7 +22300,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D53" s="24">
         <v>32.042000000000002</v>
@@ -21965,7 +22318,7 @@
         <v>235</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J53" s="20">
         <v>19</v>
@@ -21979,7 +22332,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D54" s="24">
         <v>32.116</v>
@@ -21997,7 +22350,7 @@
         <v>236</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J54" s="20">
         <v>19</v>
@@ -22011,7 +22364,7 @@
         <v>64</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D55" s="24">
         <v>32.04</v>
@@ -22029,7 +22382,7 @@
         <v>235</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J55" s="20">
         <v>19</v>
@@ -22043,7 +22396,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D56" s="24">
         <v>32.179000000000002</v>
@@ -22061,7 +22414,7 @@
         <v>233</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J56" s="20">
         <v>20</v>
@@ -22075,7 +22428,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D57" s="24">
         <v>32.106999999999999</v>
@@ -22093,7 +22446,7 @@
         <v>233</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J57" s="20">
         <v>20</v>
@@ -22107,7 +22460,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D58" s="24">
         <v>32.119999999999997</v>
@@ -22125,7 +22478,7 @@
         <v>234</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J58" s="20">
         <v>20</v>
@@ -22139,7 +22492,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D59" s="24">
         <v>32.131</v>
@@ -22157,7 +22510,7 @@
         <v>233</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J59" s="20">
         <v>20</v>
@@ -22171,7 +22524,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D60" s="24">
         <v>32.101999999999997</v>
@@ -22189,7 +22542,7 @@
         <v>233</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J60" s="20">
         <v>20</v>
@@ -22203,7 +22556,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D61" s="24">
         <v>32.113999999999997</v>
@@ -22221,7 +22574,7 @@
         <v>234</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J61" s="20">
         <v>20</v>
@@ -22257,7 +22610,7 @@
         <v>236</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J62" s="20">
         <v>30</v>
@@ -22293,7 +22646,7 @@
         <v>235</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J63" s="20">
         <v>30</v>
@@ -22329,7 +22682,7 @@
         <v>233</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J64" s="20">
         <v>236</v>
@@ -22365,7 +22718,7 @@
         <v>234</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J65" s="20">
         <v>236</v>
@@ -22401,7 +22754,7 @@
         <v>235</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J66" s="20">
         <v>236</v>
@@ -22437,7 +22790,7 @@
         <v>236</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J67" s="20">
         <v>236</v>
@@ -22473,7 +22826,7 @@
         <v>233</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J68" s="20">
         <v>236</v>
@@ -22509,7 +22862,7 @@
         <v>236</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J69" s="20">
         <v>236</v>
@@ -22545,7 +22898,7 @@
         <v>235</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J70" s="20">
         <v>19</v>
@@ -22581,7 +22934,7 @@
         <v>236</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J71" s="20">
         <v>19</v>
@@ -22613,7 +22966,7 @@
         <v>235</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J72" s="20">
         <v>19</v>
@@ -22645,7 +22998,7 @@
         <v>236</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J73" s="20">
         <v>19</v>
@@ -22677,7 +23030,7 @@
         <v>235</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J74" s="20">
         <v>19</v>
@@ -22709,7 +23062,7 @@
         <v>236</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J75" s="20">
         <v>19</v>
@@ -22741,7 +23094,7 @@
         <v>235</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J76" s="20">
         <v>19</v>
@@ -22773,7 +23126,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J77" s="20">
         <v>19</v>
@@ -22805,7 +23158,7 @@
         <v>235</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J78" s="20">
         <v>19</v>
@@ -22837,7 +23190,7 @@
         <v>235</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J79" s="20">
         <v>19</v>
@@ -22869,7 +23222,7 @@
         <v>236</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J80" s="20">
         <v>19</v>
@@ -22901,7 +23254,7 @@
         <v>235</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J81" s="20">
         <v>19</v>
@@ -22933,7 +23286,7 @@
         <v>236</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J82" s="20">
         <v>19</v>
@@ -22977,7 +23330,7 @@
         <v>235</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J83" s="20">
         <v>19</v>
@@ -23021,7 +23374,7 @@
         <v>235</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J84" s="20">
         <v>19</v>
@@ -23062,7 +23415,7 @@
         <v>25.97</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J85" s="20">
         <v>45</v>
@@ -23103,7 +23456,7 @@
         <v>25.986000000000001</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J86" s="20">
         <v>45</v>
@@ -23136,7 +23489,7 @@
         <v>25.995000000000001</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J87" s="20">
         <v>45</v>
@@ -23169,7 +23522,7 @@
         <v>25.995000000000001</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J88" s="20">
         <v>45</v>
@@ -23198,7 +23551,7 @@
         <v>25.986999999999998</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J89" s="20">
         <v>45</v>
@@ -23227,7 +23580,7 @@
         <v>25.977</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J90" s="20">
         <v>45</v>
@@ -23256,7 +23609,7 @@
         <v>25.997</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J91" s="20">
         <v>45</v>
@@ -23285,7 +23638,7 @@
         <v>25.983000000000001</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J92" s="20">
         <v>45</v>
@@ -23305,7 +23658,7 @@
         <v>64</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D94" s="24">
         <v>34.377000000000002</v>
@@ -23323,7 +23676,7 @@
         <v>233</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J94" s="20">
         <v>233</v>
@@ -23337,7 +23690,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D95" s="24">
         <v>34.384</v>
@@ -23355,7 +23708,7 @@
         <v>234</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J95" s="20">
         <v>233</v>
@@ -23369,7 +23722,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D96" s="24">
         <v>34.378</v>
@@ -23387,7 +23740,7 @@
         <v>235</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J96" s="20">
         <v>233</v>
@@ -23401,7 +23754,7 @@
         <v>64</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D97" s="24">
         <v>34.341999999999999</v>
@@ -23419,7 +23772,7 @@
         <v>236</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J97" s="20">
         <v>233</v>
@@ -23583,7 +23936,7 @@
       <c r="J116" s="40"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I36">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23594,10 +23947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEDFF42-FC2B-4015-9D91-BA5AF59AC887}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23623,7 +23976,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2">
         <v>368</v>
@@ -23693,7 +24046,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7">
         <v>1306</v>
@@ -23707,7 +24060,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B8">
         <v>1581</v>
@@ -23762,25 +24115,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
+      <c r="A12" t="s">
+        <v>878</v>
       </c>
       <c r="B12">
-        <v>8319</v>
-      </c>
-      <c r="C12" s="3">
-        <v>32.29</v>
+        <v>4615</v>
+      </c>
+      <c r="C12">
+        <v>32.450000000000003</v>
       </c>
       <c r="D12">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B13">
+        <v>1731</v>
+      </c>
+      <c r="C13">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="D13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>880</v>
+      </c>
+      <c r="B14">
+        <v>1710</v>
+      </c>
+      <c r="C14">
+        <v>32.25</v>
+      </c>
+      <c r="D14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
+        <v>881</v>
+      </c>
+      <c r="B15">
+        <v>2910</v>
+      </c>
+      <c r="C15">
+        <v>32.31</v>
+      </c>
+      <c r="D15">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D36">
-    <sortCondition ref="B2:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
+    <sortCondition ref="B2:B35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23801,10 +24196,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1" t="s">
         <v>833</v>
-      </c>
-      <c r="B1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -28227,10 +28622,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C1" t="s">
         <v>521</v>
@@ -28583,7 +28978,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2">
         <v>31.5855</v>
@@ -28604,7 +28999,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C3">
         <v>31.558700000000002</v>
@@ -28625,7 +29020,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C4">
         <v>31.578499999999998</v>
@@ -28646,7 +29041,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C5">
         <v>31.552700000000002</v>
@@ -28669,7 +29064,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C6">
         <v>33.880000000000003</v>
@@ -28690,7 +29085,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C7">
         <v>33.861499999999999</v>
@@ -28711,7 +29106,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C8">
         <v>33.884</v>
@@ -28732,7 +29127,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C9">
         <v>33.859299999999998</v>
@@ -28755,7 +29150,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C10">
         <v>37.588000000000001</v>
@@ -28776,7 +29171,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C11">
         <v>37.585999999999999</v>
@@ -28797,7 +29192,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C12">
         <v>37.593499999999999</v>
@@ -28818,7 +29213,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C13">
         <v>37.587000000000003</v>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780119CB-C080-4004-96DE-DC885E8B8967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871545F-79D4-434A-AB6E-54F464D858D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,26 +16,27 @@
     <sheet name="fig1" sheetId="16" r:id="rId6"/>
     <sheet name="fig5" sheetId="20" r:id="rId7"/>
     <sheet name="baseline" sheetId="19" r:id="rId8"/>
-    <sheet name="ablation_init" sheetId="8" r:id="rId9"/>
-    <sheet name="ablation_repvgg" sheetId="9" r:id="rId10"/>
-    <sheet name="ablation_distill" sheetId="10" r:id="rId11"/>
-    <sheet name="structure detail" sheetId="17" r:id="rId12"/>
-    <sheet name="Ablation" sheetId="11" r:id="rId13"/>
-    <sheet name="table1" sheetId="12" r:id="rId14"/>
-    <sheet name="tabel2" sheetId="13" r:id="rId15"/>
-    <sheet name="table3" sheetId="14" r:id="rId16"/>
-    <sheet name="table4" sheetId="15" r:id="rId17"/>
-    <sheet name="table5" sheetId="18" r:id="rId18"/>
-    <sheet name="table6" sheetId="23" r:id="rId19"/>
-    <sheet name="x2" sheetId="4" r:id="rId20"/>
-    <sheet name="x3" sheetId="5" r:id="rId21"/>
-    <sheet name="x4" sheetId="6" r:id="rId22"/>
+    <sheet name="ablation_tail" sheetId="24" r:id="rId9"/>
+    <sheet name="ablation_init" sheetId="8" r:id="rId10"/>
+    <sheet name="ablation_repvgg" sheetId="9" r:id="rId11"/>
+    <sheet name="ablation_distill" sheetId="10" r:id="rId12"/>
+    <sheet name="structure detail" sheetId="17" r:id="rId13"/>
+    <sheet name="Ablation" sheetId="11" r:id="rId14"/>
+    <sheet name="table1" sheetId="12" r:id="rId15"/>
+    <sheet name="tabel2" sheetId="13" r:id="rId16"/>
+    <sheet name="table3" sheetId="14" r:id="rId17"/>
+    <sheet name="table4" sheetId="15" r:id="rId18"/>
+    <sheet name="table5" sheetId="18" r:id="rId19"/>
+    <sheet name="table6" sheetId="23" r:id="rId20"/>
+    <sheet name="x2" sheetId="4" r:id="rId21"/>
+    <sheet name="x3" sheetId="5" r:id="rId22"/>
+    <sheet name="x4" sheetId="6" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Ablation!$A$1:$J$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ablation_distill!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Ablation!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">ablation_distill!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">main!$A$1:$I$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">table1!$F$14:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">table1!$F$14:$I$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="942">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3280,10 +3281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* memory runtime and footprint are estimated by (960, 540) -&gt; (1920, 1080)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>810G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3385,6 +3382,118 @@
   </si>
   <si>
     <t>72G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backbone-Init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tail-Init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LARAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>594K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>548K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4090MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">32.15/0.8944 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">28.61/0.7818 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">27.61/0.7366 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.14/0.7871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">34.36/0.9267 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30.34/0.8421 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">29.11/0.8054 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.15/0.8523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4092MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">38.01/0.9605 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">33.62/0.9183 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">32.19/0.8999 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.10/0.9283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4098MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3669,6 +3778,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3678,7 +3788,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4237,6 +4346,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3CE5-4D6E-B40E-659BF9D82A5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7339,6 +7451,313 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="46">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2">
+        <v>31.5855</v>
+      </c>
+      <c r="D2">
+        <v>28.208300000000001</v>
+      </c>
+      <c r="E2">
+        <v>27.305499999999999</v>
+      </c>
+      <c r="F2">
+        <v>25.289300000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3">
+        <v>31.558700000000002</v>
+      </c>
+      <c r="D3">
+        <v>28.203299999999999</v>
+      </c>
+      <c r="E3">
+        <v>27.302499999999998</v>
+      </c>
+      <c r="F3">
+        <v>25.28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4">
+        <v>31.578499999999998</v>
+      </c>
+      <c r="D4">
+        <v>28.220300000000002</v>
+      </c>
+      <c r="E4">
+        <v>27.3065</v>
+      </c>
+      <c r="F4">
+        <v>25.2913</v>
+      </c>
+      <c r="G4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5">
+        <v>31.552700000000002</v>
+      </c>
+      <c r="D5">
+        <v>28.212299999999999</v>
+      </c>
+      <c r="E5">
+        <v>27.303999999999998</v>
+      </c>
+      <c r="F5">
+        <v>25.2835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C6">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="D6">
+        <v>29.9785</v>
+      </c>
+      <c r="E6">
+        <v>28.831</v>
+      </c>
+      <c r="F6">
+        <v>27.304300000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7">
+        <v>33.861499999999999</v>
+      </c>
+      <c r="D7">
+        <v>29.971800000000002</v>
+      </c>
+      <c r="E7">
+        <v>28.8278</v>
+      </c>
+      <c r="F7">
+        <v>27.288499999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8">
+        <v>33.884</v>
+      </c>
+      <c r="D8">
+        <v>29.991800000000001</v>
+      </c>
+      <c r="E8">
+        <v>28.8352</v>
+      </c>
+      <c r="F8">
+        <v>27.3187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C9">
+        <v>33.859299999999998</v>
+      </c>
+      <c r="D9">
+        <v>29.984500000000001</v>
+      </c>
+      <c r="E9">
+        <v>28.828499999999998</v>
+      </c>
+      <c r="F9">
+        <v>27.2943</v>
+      </c>
+      <c r="G9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C10">
+        <v>37.588000000000001</v>
+      </c>
+      <c r="D10">
+        <v>33.199199999999998</v>
+      </c>
+      <c r="E10">
+        <v>31.921299999999999</v>
+      </c>
+      <c r="F10">
+        <v>31.092500000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11">
+        <v>37.585999999999999</v>
+      </c>
+      <c r="D11">
+        <v>33.200499999999998</v>
+      </c>
+      <c r="E11">
+        <v>31.918299999999999</v>
+      </c>
+      <c r="F11">
+        <v>31.096800000000002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" t="s">
+        <v>754</v>
+      </c>
+      <c r="C12">
+        <v>37.593499999999999</v>
+      </c>
+      <c r="D12">
+        <v>33.191499999999998</v>
+      </c>
+      <c r="E12">
+        <v>31.9175</v>
+      </c>
+      <c r="F12">
+        <v>31.070499999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C13">
+        <v>37.587000000000003</v>
+      </c>
+      <c r="D13">
+        <v>33.1843</v>
+      </c>
+      <c r="E13">
+        <v>31.9068</v>
+      </c>
+      <c r="F13">
+        <v>31.049499999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -8025,7 +8444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -9139,7 +9558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA297270-BE99-422C-AD24-47AB151FDBB7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -9260,12 +9679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12032,7 +12451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197268FB-5014-4CBE-ACEE-AA1A1C218351}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -12597,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F0C222-6B9C-4A39-963D-078067F1D5EF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -12635,10 +13054,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -12658,8 +13077,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="10" t="s">
         <v>546</v>
       </c>
@@ -12677,8 +13096,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="10" t="s">
         <v>525</v>
       </c>
@@ -12696,8 +13115,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="10" t="s">
         <v>555</v>
       </c>
@@ -12715,8 +13134,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10" t="s">
         <v>566</v>
       </c>
@@ -12734,8 +13153,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46">
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -12755,8 +13174,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="10" t="s">
         <v>546</v>
       </c>
@@ -12774,8 +13193,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="10" t="s">
         <v>525</v>
       </c>
@@ -12793,8 +13212,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="10" t="s">
         <v>555</v>
       </c>
@@ -12812,8 +13231,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="10" t="s">
         <v>566</v>
       </c>
@@ -12896,7 +13315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0169BF-30AC-4003-815F-EBCDFF37B6C4}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -12931,7 +13350,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>569</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -12951,7 +13370,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="10" t="s">
         <v>571</v>
       </c>
@@ -12969,7 +13388,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="10" t="s">
         <v>572</v>
       </c>
@@ -12987,7 +13406,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="10" t="s">
         <v>566</v>
       </c>
@@ -13005,7 +13424,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -13025,7 +13444,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="10" t="s">
         <v>571</v>
       </c>
@@ -13043,7 +13462,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="10" t="s">
         <v>572</v>
       </c>
@@ -13061,7 +13480,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="10" t="s">
         <v>566</v>
       </c>
@@ -13097,7 +13516,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>569</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -13115,7 +13534,7 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>571</v>
       </c>
@@ -13131,7 +13550,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="21" t="s">
         <v>572</v>
       </c>
@@ -13147,7 +13566,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="21" t="s">
         <v>566</v>
       </c>
@@ -13163,7 +13582,7 @@
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>570</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -13181,7 +13600,7 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="21" t="s">
         <v>571</v>
       </c>
@@ -13197,7 +13616,7 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>572</v>
       </c>
@@ -13213,7 +13632,7 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="21" t="s">
         <v>566</v>
       </c>
@@ -13240,7 +13659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B627207C-A133-4208-9972-E557E884096D}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -13298,7 +13717,7 @@
       <c r="D2" s="11">
         <v>27.305499999999999</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="46" t="s">
         <v>756</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -13330,7 +13749,7 @@
       <c r="D3" s="11">
         <v>27.302499999999998</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="25" t="s">
         <v>576</v>
       </c>
@@ -13360,7 +13779,7 @@
       <c r="D4" s="11">
         <v>27.3065</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="25" t="s">
         <v>573</v>
       </c>
@@ -13390,7 +13809,7 @@
       <c r="D5" s="11">
         <v>27.303999999999998</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="25" t="s">
         <v>574</v>
       </c>
@@ -13420,7 +13839,7 @@
       <c r="D6" s="12">
         <v>27.548999999999999</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="25" t="s">
         <v>566</v>
       </c>
@@ -13438,7 +13857,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="46" t="s">
         <v>757</v>
       </c>
       <c r="H7" s="25" t="s">
@@ -13458,7 +13877,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="45"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="25" t="s">
         <v>576</v>
       </c>
@@ -13476,7 +13895,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="25" t="s">
         <v>573</v>
       </c>
@@ -13494,7 +13913,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="25" t="s">
         <v>574</v>
       </c>
@@ -13512,7 +13931,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="25" t="s">
         <v>566</v>
       </c>
@@ -13530,7 +13949,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="46" t="s">
         <v>758</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -13550,7 +13969,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="45"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="25" t="s">
         <v>576</v>
       </c>
@@ -13568,7 +13987,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="25" t="s">
         <v>573</v>
       </c>
@@ -13586,7 +14005,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="25" t="s">
         <v>574</v>
       </c>
@@ -13604,7 +14023,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="25" t="s">
         <v>566</v>
       </c>
@@ -13649,7 +14068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6184F-6DA3-4772-A05C-954F976C3294}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -13927,139 +14346,6 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I9:M23">
     <sortCondition ref="I9"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B2" s="37">
-        <v>32.085999999999999</v>
-      </c>
-      <c r="C2" s="37">
-        <v>28.558</v>
-      </c>
-      <c r="D2" s="37">
-        <v>27.547000000000001</v>
-      </c>
-      <c r="E2" s="37">
-        <v>25.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B3" s="37">
-        <v>32.119999999999997</v>
-      </c>
-      <c r="C3" s="37">
-        <v>28.570500000000003</v>
-      </c>
-      <c r="D3" s="37">
-        <v>27.549499999999998</v>
-      </c>
-      <c r="E3" s="37">
-        <v>25.9985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="B4" s="37">
-        <v>32.113</v>
-      </c>
-      <c r="C4" s="37">
-        <v>28.565000000000001</v>
-      </c>
-      <c r="D4" s="37">
-        <v>27.548499999999997</v>
-      </c>
-      <c r="E4" s="37">
-        <v>25.991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="B5" s="37">
-        <v>32.072000000000003</v>
-      </c>
-      <c r="C5" s="37">
-        <v>28.545999999999999</v>
-      </c>
-      <c r="D5" s="37">
-        <v>27.541</v>
-      </c>
-      <c r="E5" s="37">
-        <v>25.954999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
-    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14122,7 +14408,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14148,7 +14434,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -14172,7 +14458,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -14196,7 +14482,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
@@ -14220,7 +14506,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -14244,7 +14530,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>201</v>
       </c>
@@ -14268,7 +14554,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -14292,7 +14578,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -14316,7 +14602,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -14340,7 +14626,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
@@ -14364,7 +14650,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3" t="s">
         <v>233</v>
       </c>
@@ -14388,7 +14674,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -14412,7 +14698,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -14436,7 +14722,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -14462,7 +14748,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -14486,7 +14772,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -14510,7 +14796,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>189</v>
       </c>
@@ -14534,7 +14820,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -14558,7 +14844,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>201</v>
       </c>
@@ -14582,7 +14868,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14606,7 +14892,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
@@ -14630,7 +14916,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -14654,7 +14940,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>226</v>
       </c>
@@ -14678,7 +14964,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>233</v>
       </c>
@@ -14702,7 +14988,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
@@ -14726,7 +15012,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -14750,7 +15036,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -14776,7 +15062,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -14800,7 +15086,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -14824,7 +15110,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="3" t="s">
         <v>189</v>
       </c>
@@ -14848,7 +15134,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -14872,7 +15158,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="3" t="s">
         <v>201</v>
       </c>
@@ -14896,7 +15182,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -14920,7 +15206,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
@@ -14944,7 +15230,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -14968,7 +15254,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="3" t="s">
         <v>226</v>
       </c>
@@ -14992,7 +15278,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
@@ -15016,7 +15302,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
@@ -15040,7 +15326,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="3" t="s">
         <v>29</v>
       </c>
@@ -15075,6 +15361,139 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC472CA9-83DD-47C2-A1D0-32E4D3E2CF53}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B2" s="37">
+        <v>32.085999999999999</v>
+      </c>
+      <c r="C2" s="37">
+        <v>28.558</v>
+      </c>
+      <c r="D2" s="37">
+        <v>27.547000000000001</v>
+      </c>
+      <c r="E2" s="37">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B3" s="37">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="C3" s="37">
+        <v>28.570500000000003</v>
+      </c>
+      <c r="D3" s="37">
+        <v>27.549499999999998</v>
+      </c>
+      <c r="E3" s="37">
+        <v>25.9985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="B4" s="37">
+        <v>32.113</v>
+      </c>
+      <c r="C4" s="37">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>27.548499999999997</v>
+      </c>
+      <c r="E4" s="37">
+        <v>25.991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="B5" s="37">
+        <v>32.072000000000003</v>
+      </c>
+      <c r="C5" s="37">
+        <v>28.545999999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>27.541</v>
+      </c>
+      <c r="E5" s="37">
+        <v>25.954999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -15710,7 +16129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -16244,7 +16663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -16818,8 +17237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16865,7 +17284,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -16897,7 +17316,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
@@ -16928,7 +17347,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" t="s">
         <v>604</v>
       </c>
@@ -16958,7 +17377,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>590</v>
       </c>
@@ -16988,7 +17407,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -17021,7 +17440,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>608</v>
       </c>
@@ -17054,7 +17473,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -17087,7 +17506,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -17120,7 +17539,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -17153,7 +17572,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -17186,7 +17605,7 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3" t="s">
         <v>607</v>
       </c>
@@ -17216,7 +17635,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="3" t="s">
         <v>606</v>
       </c>
@@ -17234,7 +17653,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="3" t="s">
         <v>580</v>
       </c>
@@ -17264,7 +17683,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="3" t="s">
         <v>581</v>
       </c>
@@ -17294,7 +17713,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="3" t="s">
         <v>663</v>
       </c>
@@ -17324,7 +17743,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3" t="s">
         <v>852</v>
       </c>
@@ -17354,37 +17773,37 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>879</v>
       </c>
       <c r="D19" t="s">
+        <v>905</v>
+      </c>
+      <c r="E19" t="s">
         <v>906</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>907</v>
       </c>
-      <c r="F19" t="s">
-        <v>908</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="3" t="s">
         <v>882</v>
       </c>
@@ -17392,13 +17811,13 @@
         <v>883</v>
       </c>
       <c r="D20" t="s">
+        <v>888</v>
+      </c>
+      <c r="E20" t="s">
+        <v>890</v>
+      </c>
+      <c r="F20" t="s">
         <v>889</v>
-      </c>
-      <c r="E20" t="s">
-        <v>891</v>
-      </c>
-      <c r="F20" t="s">
-        <v>890</v>
       </c>
       <c r="G20" t="s">
         <v>884</v>
@@ -17414,1091 +17833,1150 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="B21" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C21" t="s">
+        <v>921</v>
+      </c>
+      <c r="D21" t="s">
+        <v>904</v>
+      </c>
+      <c r="E21" t="s">
+        <v>940</v>
+      </c>
+      <c r="F21" t="s">
+        <v>941</v>
+      </c>
+      <c r="G21" t="s">
+        <v>936</v>
+      </c>
+      <c r="H21" t="s">
+        <v>937</v>
+      </c>
+      <c r="I21" t="s">
+        <v>938</v>
+      </c>
+      <c r="J21" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>623</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>583</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>666</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>584</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>622</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>605</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>682</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>595</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>621</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>596</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>669</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>597</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>587</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>588</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>671</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>593</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>589</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>594</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>673</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>591</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>615</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>616</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>683</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>599</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>624</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>617</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>684</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>609</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>612</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>613</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>685</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>109</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>725</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>727</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>630</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>618</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>619</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>686</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>620</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>628</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>687</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>649</v>
-      </c>
-      <c r="D32" t="s">
-        <v>645</v>
-      </c>
-      <c r="E32" t="s">
-        <v>652</v>
-      </c>
-      <c r="F32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C33" t="s">
-        <v>642</v>
       </c>
       <c r="D33" t="s">
         <v>645</v>
       </c>
       <c r="E33" t="s">
+        <v>652</v>
+      </c>
+      <c r="F33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" t="s">
+        <v>645</v>
+      </c>
+      <c r="E34" t="s">
         <v>646</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>689</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>741</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>742</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>743</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>702</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>703</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>704</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>705</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>737</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>738</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>739</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>858</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>859</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>619</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>860</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G36" s="24">
         <v>34.370249999999999</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H36" s="24">
         <v>30.303750000000001</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I36" s="24">
         <v>29.09225</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J36" s="24">
         <v>28.12575</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>861</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>865</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>866</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>867</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G37" s="24">
         <v>34.419499999999999</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H37" s="24">
         <v>30.3565</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I37" s="24">
         <v>29.125999999999998</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J37" s="24">
         <v>28.236000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="D37" t="s">
-        <v>902</v>
-      </c>
-      <c r="E37" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D38" t="s">
         <v>901</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E38" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="3" t="s">
+      <c r="F38" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
+        <v>909</v>
+      </c>
+      <c r="E39" t="s">
+        <v>908</v>
+      </c>
+      <c r="F39" t="s">
         <v>910</v>
       </c>
-      <c r="E38" t="s">
-        <v>909</v>
-      </c>
-      <c r="F38" t="s">
-        <v>911</v>
-      </c>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
+        <v>892</v>
+      </c>
+      <c r="E40" t="s">
+        <v>891</v>
+      </c>
+      <c r="F40" t="s">
         <v>893</v>
       </c>
-      <c r="E39" t="s">
-        <v>892</v>
-      </c>
-      <c r="F39" t="s">
-        <v>894</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C41" t="s">
+        <v>920</v>
+      </c>
+      <c r="D41" t="s">
+        <v>933</v>
+      </c>
+      <c r="E41" t="s">
+        <v>934</v>
+      </c>
+      <c r="F41" t="s">
+        <v>935</v>
+      </c>
+      <c r="G41" t="s">
+        <v>929</v>
+      </c>
+      <c r="H41" t="s">
+        <v>930</v>
+      </c>
+      <c r="I41" t="s">
+        <v>931</v>
+      </c>
+      <c r="J41" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E43" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="3" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="46"/>
+      <c r="B44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>582</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
         <v>583</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
         <v>666</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>584</v>
-      </c>
-      <c r="D42" t="s">
-        <v>622</v>
-      </c>
-      <c r="E42" t="s">
-        <v>629</v>
-      </c>
-      <c r="F42" t="s">
-        <v>690</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C43" t="s">
-        <v>595</v>
-      </c>
-      <c r="D43" t="s">
-        <v>621</v>
-      </c>
-      <c r="E43" t="s">
-        <v>596</v>
-      </c>
-      <c r="F43" t="s">
-        <v>669</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>597</v>
-      </c>
-      <c r="D44" t="s">
-        <v>587</v>
-      </c>
-      <c r="E44" t="s">
-        <v>588</v>
-      </c>
-      <c r="F44" t="s">
-        <v>671</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="K44" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="46"/>
       <c r="B45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>584</v>
+      </c>
+      <c r="D45" t="s">
+        <v>622</v>
+      </c>
+      <c r="E45" t="s">
+        <v>629</v>
+      </c>
+      <c r="F45" t="s">
+        <v>690</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="46"/>
+      <c r="B46" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C46" t="s">
+        <v>595</v>
+      </c>
+      <c r="D46" t="s">
+        <v>621</v>
+      </c>
+      <c r="E46" t="s">
+        <v>596</v>
+      </c>
+      <c r="F46" t="s">
+        <v>669</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="46"/>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>597</v>
+      </c>
+      <c r="D47" t="s">
+        <v>587</v>
+      </c>
+      <c r="E47" t="s">
+        <v>588</v>
+      </c>
+      <c r="F47" t="s">
+        <v>671</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>593</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>589</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>594</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>673</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="3" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>591</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49" t="s">
         <v>632</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E49" t="s">
         <v>633</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F49" t="s">
         <v>691</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="3" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>599</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>634</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E50" t="s">
         <v>635</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F50" t="s">
         <v>692</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="3" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>636</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E51" t="s">
         <v>637</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F51" t="s">
         <v>693</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="3" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>631</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>638</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>639</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F52" t="s">
         <v>694</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="3" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>640</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E53" t="s">
         <v>641</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>695</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="3" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>649</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>650</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>651</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F54" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="3" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>643</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>644</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>697</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G55" t="s">
         <v>729</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H55" t="s">
         <v>730</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I55" t="s">
         <v>731</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J55" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="3" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>706</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>707</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E56" t="s">
         <v>708</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F56" t="s">
         <v>709</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G56" t="s">
         <v>733</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H56" t="s">
         <v>734</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I56" t="s">
         <v>735</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J56" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="3" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>837</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E57" t="s">
         <v>838</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>839</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G57" t="s">
         <v>842</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H57" t="s">
         <v>840</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I57" t="s">
         <v>843</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J57" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="3" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="B58" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>861</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>868</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E58" t="s">
         <v>869</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F58" t="s">
         <v>870</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G58" s="24">
         <v>32.179499999999997</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H58" s="24">
         <v>28.61675</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I58" s="24">
         <v>27.58625</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J58" s="24">
         <v>26.114750000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="3" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D59" t="s">
         <v>897</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E59" t="s">
+        <v>651</v>
+      </c>
+      <c r="F59" t="s">
         <v>898</v>
       </c>
-      <c r="E56" t="s">
-        <v>651</v>
-      </c>
-      <c r="F56" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="D57" t="s">
-        <v>914</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D60" t="s">
+        <v>913</v>
+      </c>
+      <c r="E60" t="s">
+        <v>911</v>
+      </c>
+      <c r="F60" t="s">
         <v>912</v>
       </c>
-      <c r="F57" t="s">
-        <v>913</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="3" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D61" t="s">
         <v>632</v>
       </c>
-      <c r="E58" t="s">
-        <v>896</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E61" t="s">
         <v>895</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G59" s="5"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>894</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>888</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="B62" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C62" t="s">
+        <v>919</v>
+      </c>
+      <c r="D62" t="s">
+        <v>922</v>
+      </c>
+      <c r="E62" t="s">
+        <v>924</v>
+      </c>
+      <c r="F62" t="s">
+        <v>923</v>
+      </c>
+      <c r="G62" t="s">
+        <v>925</v>
+      </c>
+      <c r="H62" t="s">
+        <v>926</v>
+      </c>
+      <c r="I62" t="s">
+        <v>927</v>
+      </c>
+      <c r="J62" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="47" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="43" t="s">
@@ -18515,12 +18993,12 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="43" t="s">
         <v>871</v>
       </c>
@@ -18535,7 +19013,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="47">
+      <c r="A65" s="48">
         <v>2</v>
       </c>
       <c r="B65" s="24" t="s">
@@ -18567,7 +19045,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="24" t="s">
         <v>663</v>
       </c>
@@ -18597,7 +19075,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="47">
+      <c r="A67" s="48">
         <v>3</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -18629,7 +19107,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="24" t="s">
         <v>663</v>
       </c>
@@ -18704,22 +19182,22 @@
       <c r="J71" s="13"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="47" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -18736,12 +19214,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="25" t="s">
         <v>751</v>
       </c>
@@ -18756,7 +19234,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
@@ -18788,7 +19266,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="3" t="s">
         <v>176</v>
       </c>
@@ -18818,7 +19296,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
+      <c r="A77" s="46"/>
       <c r="B77" t="s">
         <v>604</v>
       </c>
@@ -18848,7 +19326,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="3" t="s">
         <v>590</v>
       </c>
@@ -18878,7 +19356,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="3" t="s">
         <v>55</v>
       </c>
@@ -18908,7 +19386,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
@@ -18938,7 +19416,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
@@ -18968,7 +19446,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
@@ -18998,7 +19476,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="3" t="s">
         <v>607</v>
       </c>
@@ -19028,7 +19506,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="3" t="s">
         <v>570</v>
       </c>
@@ -19058,7 +19536,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="45"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="3" t="s">
         <v>581</v>
       </c>
@@ -19088,7 +19566,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="46" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
@@ -19120,7 +19598,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="45"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="3" t="s">
         <v>176</v>
       </c>
@@ -19150,7 +19628,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="45"/>
+      <c r="A88" s="46"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
@@ -19180,7 +19658,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="3" t="s">
         <v>590</v>
       </c>
@@ -19210,7 +19688,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+      <c r="A90" s="46"/>
       <c r="B90" t="s">
         <v>55</v>
       </c>
@@ -19240,7 +19718,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" t="s">
         <v>48</v>
       </c>
@@ -19270,7 +19748,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
+      <c r="A92" s="46"/>
       <c r="B92" t="s">
         <v>40</v>
       </c>
@@ -19300,7 +19778,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
+      <c r="A93" s="46"/>
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -19330,7 +19808,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="3" t="s">
         <v>607</v>
       </c>
@@ -19360,7 +19838,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="3" t="s">
         <v>570</v>
       </c>
@@ -19390,7 +19868,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="3" t="s">
         <v>581</v>
       </c>
@@ -19420,7 +19898,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="46" t="s">
         <v>165</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -19452,7 +19930,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="3" t="s">
         <v>176</v>
       </c>
@@ -19482,7 +19960,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="3" t="s">
         <v>68</v>
       </c>
@@ -19512,7 +19990,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="3" t="s">
         <v>590</v>
       </c>
@@ -19542,7 +20020,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="3" t="s">
         <v>55</v>
       </c>
@@ -19572,7 +20050,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
@@ -19602,7 +20080,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
@@ -19632,7 +20110,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="3" t="s">
         <v>29</v>
       </c>
@@ -19662,7 +20140,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="3" t="s">
         <v>607</v>
       </c>
@@ -19692,7 +20170,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="3" t="s">
         <v>570</v>
       </c>
@@ -19722,7 +20200,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="3" t="s">
         <v>581</v>
       </c>
@@ -19753,26 +20231,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="A43:A61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A21:A39"/>
-    <mergeCell ref="A40:A58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20235,8 +20713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J92" sqref="A78:J92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24157,7 +24635,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>881</v>
       </c>
       <c r="B15">
@@ -28937,308 +29415,100 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9AE3F7-C58B-4DEC-9CC6-C2137E201FB8}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>914</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>915</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>523</v>
+        <v>545</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>916</v>
       </c>
       <c r="B2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C2">
-        <v>31.5855</v>
+        <v>916</v>
       </c>
       <c r="D2">
-        <v>28.208300000000001</v>
+        <v>32.103999999999999</v>
       </c>
       <c r="E2">
-        <v>27.305499999999999</v>
+        <v>28.565999999999999</v>
       </c>
       <c r="F2">
-        <v>25.289300000000001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>524</v>
+        <v>27.548999999999999</v>
+      </c>
+      <c r="G2">
+        <v>25.99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" t="s">
+        <v>917</v>
+      </c>
       <c r="B3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C3">
-        <v>31.558700000000002</v>
+        <v>917</v>
       </c>
       <c r="D3">
-        <v>28.203299999999999</v>
+        <v>31.593</v>
       </c>
       <c r="E3">
-        <v>27.302499999999998</v>
+        <v>28.236999999999998</v>
       </c>
       <c r="F3">
-        <v>25.28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>524</v>
+        <v>27.315000000000001</v>
+      </c>
+      <c r="G3">
+        <v>25.32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" t="s">
+        <v>917</v>
+      </c>
       <c r="B4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C4">
-        <v>31.578499999999998</v>
-      </c>
-      <c r="D4">
-        <v>28.220300000000002</v>
-      </c>
-      <c r="E4">
-        <v>27.3065</v>
-      </c>
-      <c r="F4">
-        <v>25.2913</v>
-      </c>
-      <c r="G4" t="s">
-        <v>524</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" t="s">
+        <v>916</v>
+      </c>
       <c r="B5" t="s">
-        <v>755</v>
-      </c>
-      <c r="C5">
-        <v>31.552700000000002</v>
-      </c>
-      <c r="D5">
-        <v>28.212299999999999</v>
-      </c>
-      <c r="E5">
-        <v>27.303999999999998</v>
-      </c>
-      <c r="F5">
-        <v>25.2835</v>
-      </c>
-      <c r="G5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C6">
-        <v>33.880000000000003</v>
-      </c>
-      <c r="D6">
-        <v>29.9785</v>
-      </c>
-      <c r="E6">
-        <v>28.831</v>
-      </c>
-      <c r="F6">
-        <v>27.304300000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" t="s">
-        <v>753</v>
-      </c>
-      <c r="C7">
-        <v>33.861499999999999</v>
-      </c>
-      <c r="D7">
-        <v>29.971800000000002</v>
-      </c>
-      <c r="E7">
-        <v>28.8278</v>
-      </c>
-      <c r="F7">
-        <v>27.288499999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C8">
-        <v>33.884</v>
-      </c>
-      <c r="D8">
-        <v>29.991800000000001</v>
-      </c>
-      <c r="E8">
-        <v>28.8352</v>
-      </c>
-      <c r="F8">
-        <v>27.3187</v>
-      </c>
-      <c r="G8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" t="s">
-        <v>755</v>
-      </c>
-      <c r="C9">
-        <v>33.859299999999998</v>
-      </c>
-      <c r="D9">
-        <v>29.984500000000001</v>
-      </c>
-      <c r="E9">
-        <v>28.828499999999998</v>
-      </c>
-      <c r="F9">
-        <v>27.2943</v>
-      </c>
-      <c r="G9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>752</v>
-      </c>
-      <c r="C10">
-        <v>37.588000000000001</v>
-      </c>
-      <c r="D10">
-        <v>33.199199999999998</v>
-      </c>
-      <c r="E10">
-        <v>31.921299999999999</v>
-      </c>
-      <c r="F10">
-        <v>31.092500000000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" t="s">
-        <v>753</v>
-      </c>
-      <c r="C11">
-        <v>37.585999999999999</v>
-      </c>
-      <c r="D11">
-        <v>33.200499999999998</v>
-      </c>
-      <c r="E11">
-        <v>31.918299999999999</v>
-      </c>
-      <c r="F11">
-        <v>31.096800000000002</v>
-      </c>
-      <c r="G11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" t="s">
-        <v>754</v>
-      </c>
-      <c r="C12">
-        <v>37.593499999999999</v>
-      </c>
-      <c r="D12">
-        <v>33.191499999999998</v>
-      </c>
-      <c r="E12">
-        <v>31.9175</v>
-      </c>
-      <c r="F12">
-        <v>31.070499999999999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" t="s">
-        <v>755</v>
-      </c>
-      <c r="C13">
-        <v>37.587000000000003</v>
-      </c>
-      <c r="D13">
-        <v>33.1843</v>
-      </c>
-      <c r="E13">
-        <v>31.9068</v>
-      </c>
-      <c r="F13">
-        <v>31.049499999999998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>524</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871545F-79D4-434A-AB6E-54F464D858D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADBBA84-B247-424D-B358-0E008581F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="687" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" tabRatio="687" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12456,7 +12456,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12776,16 +12776,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="15">
+      <c r="D21" s="44">
         <v>31.590999999999998</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="44">
         <v>28.224333333333334</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="44">
         <v>27.314999999999998</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="44">
         <v>25.310333333333336</v>
       </c>
     </row>
@@ -12793,16 +12793,16 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="44">
         <v>32.089666666666666</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="44">
         <v>28.542666666666666</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="44">
         <v>27.533666666666701</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="44">
         <v>25.969333333333335</v>
       </c>
     </row>
@@ -12810,16 +12810,16 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="44">
         <v>31.831</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="44">
         <v>28.389666666666667</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="44">
         <v>27.435000000000002</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="44">
         <v>25.666</v>
       </c>
     </row>
@@ -12830,16 +12830,16 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="44">
         <v>31.824000000000002</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="44">
         <v>28.397666666666666</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="44">
         <v>27.437000000000001</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="44">
         <v>25.665666666666667</v>
       </c>
     </row>
@@ -12850,16 +12850,16 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="44">
         <v>32.084666666666664</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="44">
         <v>28.557000000000002</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="44">
         <v>27.550999999999998</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="44">
         <v>25.992666666666668</v>
       </c>
     </row>
@@ -12873,16 +12873,16 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="44">
         <v>32.103999999999999</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="44">
         <v>28.565999999999995</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="44">
         <v>27.548999999999999</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="44">
         <v>25.990250000000003</v>
       </c>
     </row>
@@ -20231,6 +20231,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="F63:F64"/>
@@ -20239,18 +20251,6 @@
     <mergeCell ref="A43:A61"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29416,18 +29416,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9AE3F7-C58B-4DEC-9CC6-C2137E201FB8}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="4" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>914</v>
       </c>
@@ -29450,7 +29451,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>916</v>
       </c>
@@ -29470,7 +29471,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>917</v>
       </c>
@@ -29490,21 +29491,188 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>917</v>
       </c>
       <c r="B4" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4">
+        <v>233</v>
+      </c>
+      <c r="D4" s="24">
+        <v>31.640999999999998</v>
+      </c>
+      <c r="E4" s="24">
+        <v>28.247</v>
+      </c>
+      <c r="F4" s="24">
+        <v>27.315999999999999</v>
+      </c>
+      <c r="G4" s="24">
+        <v>25.326000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>234</v>
+      </c>
+      <c r="D5" s="24">
+        <v>31.584</v>
+      </c>
+      <c r="E5" s="24">
+        <v>28.234000000000002</v>
+      </c>
+      <c r="F5" s="24">
+        <v>27.327000000000002</v>
+      </c>
+      <c r="G5" s="24">
+        <v>25.334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="D6" s="24">
+        <v>31.577000000000002</v>
+      </c>
+      <c r="E6" s="24">
+        <v>28.24</v>
+      </c>
+      <c r="F6" s="24">
+        <v>27.308</v>
+      </c>
+      <c r="G6" s="24">
+        <v>25.306000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>236</v>
+      </c>
+      <c r="D7" s="24">
+        <v>31.638000000000002</v>
+      </c>
+      <c r="E7" s="24">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="F7" s="24">
+        <v>27.329000000000001</v>
+      </c>
+      <c r="G7" s="24">
+        <v>25.359000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>916</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>917</v>
       </c>
+      <c r="C8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>235</v>
+      </c>
+      <c r="D10" s="24">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E10" s="24">
+        <v>28.530999999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>27.535</v>
+      </c>
+      <c r="G10" s="24">
+        <v>25.984000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>236</v>
+      </c>
+      <c r="D11" s="24">
+        <v>32.048000000000002</v>
+      </c>
+      <c r="E11" s="24">
+        <v>28.541</v>
+      </c>
+      <c r="F11" s="24">
+        <v>27.536000000000001</v>
+      </c>
+      <c r="G11" s="24">
+        <v>25.954000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="H15" s="17"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
